--- a/ig/ch-elm/ch-elm-results-to-interpretation-code.xlsx
+++ b/ig/ch-elm/ch-elm-results-to-interpretation-code.xlsx
@@ -8,12 +8,13 @@
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Mapping Table 0" r:id="rId4" sheetId="2"/>
+    <sheet name="Mapping Table 1" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="244">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.1</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-27T13:26:20+01:00</t>
+    <t>2024-03-28T10:46:20+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +85,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t xml:space="preserve">This CH ELM concept map specifies the interpretation codes for each leading code. E.g. if positive, positive and negative or resistant-susceptible values are allowed  </t>
+    <t>This CH ELM concept map specifies the interpretation codes for each leading code. E.g. if positive, positive and negative or resistant-susceptible values are allowed</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -123,18 +124,60 @@
     <t>http://fhir.ch/ig/ch-elm/CodeSystem/ch-elm-interpretation-codes-vs</t>
   </si>
   <si>
+    <t>100911-7</t>
+  </si>
+  <si>
+    <t>Campylobacter sp [Presence] in Stool by Organism specific culture</t>
+  </si>
+  <si>
+    <t>related-to</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-interpretation-codes-pos</t>
+  </si>
+  <si>
+    <t>101423-2</t>
+  </si>
+  <si>
+    <t>Influenza virus A H1 RNA [Presence] in Respiratory system specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>101424-0</t>
+  </si>
+  <si>
+    <t>Influenza virus A H3 RNA [Presence] in Respiratory system specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>101552-8</t>
+  </si>
+  <si>
+    <t>Campylobacter coli DNA [Presence] in Stool by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>101554-4</t>
+  </si>
+  <si>
+    <t>Campylobacter jejuni DNA [Presence] in Stool by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>101555-1</t>
+  </si>
+  <si>
+    <t>Campylobacter upsaliensis DNA [Presence] in Stool by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>103168-1</t>
+  </si>
+  <si>
+    <t>Campylobacter coli+jejuni DNA [Presence] in Wound by NAA with probe detection</t>
+  </si>
+  <si>
     <t>14127-5</t>
   </si>
   <si>
     <t>Neisseria gonorrhoeae [Presence] in Anal by Organism specific culture</t>
   </si>
   <si>
-    <t>related-to</t>
-  </si>
-  <si>
-    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-interpretation-codes-pos</t>
-  </si>
-  <si>
     <t>14463-4</t>
   </si>
   <si>
@@ -207,12 +250,42 @@
     <t>Chlamydia trachomatis Ag [Presence] in Specimen</t>
   </si>
   <si>
+    <t>31859-2</t>
+  </si>
+  <si>
+    <t>Influenza virus A Ag [Presence] in Specimen</t>
+  </si>
+  <si>
+    <t>31864-2</t>
+  </si>
+  <si>
+    <t>Influenza virus B Ag [Presence] in Specimen</t>
+  </si>
+  <si>
     <t>32705-6</t>
   </si>
   <si>
     <t>Neisseria gonorrhoeae DNA [Presence] in Vaginal fluid by NAA with probe detection</t>
   </si>
   <si>
+    <t>34487-9</t>
+  </si>
+  <si>
+    <t>Influenza virus A RNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>38382-8</t>
+  </si>
+  <si>
+    <t>Influenza virus B [Presence] in Specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>40982-1</t>
+  </si>
+  <si>
+    <t>Influenza virus B RNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
     <t>42931-6</t>
   </si>
   <si>
@@ -261,6 +334,36 @@
     <t>Neisseria gonorrhoeae DNA [Presence] in Genital specimen by NAA with probe detection</t>
   </si>
   <si>
+    <t>48310-7</t>
+  </si>
+  <si>
+    <t>Influenza virus A [Presence] in Specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>49521-8</t>
+  </si>
+  <si>
+    <t>Influenza virus A H1 RNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>49524-2</t>
+  </si>
+  <si>
+    <t>Influenza virus A H3 RNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>49614-1</t>
+  </si>
+  <si>
+    <t>Campylobacter sp DNA [Identifier] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>4992-4</t>
+  </si>
+  <si>
+    <t>Campylobacter sp rRNA [Presence] in Specimen by Probe</t>
+  </si>
+  <si>
     <t>50387-0</t>
   </si>
   <si>
@@ -303,6 +406,12 @@
     <t>Neisseria gonorrhoeae rRNA [Presence] in Urethra by NAA with probe detection</t>
   </si>
   <si>
+    <t>55465-9</t>
+  </si>
+  <si>
+    <t>Influenza virus A H1 2009 pandemic RNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
     <t>57287-5</t>
   </si>
   <si>
@@ -327,6 +436,30 @@
     <t>Neisseria gonorrhoeae rRNA [Presence] in Urine by NAA with probe detection</t>
   </si>
   <si>
+    <t>61368-7</t>
+  </si>
+  <si>
+    <t>Campylobacter jejuni DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>6329-7</t>
+  </si>
+  <si>
+    <t>Campylobacter coli rRNA [Presence] in Specimen by Probe</t>
+  </si>
+  <si>
+    <t>6333-9</t>
+  </si>
+  <si>
+    <t>Campylobacter jejuni rRNA [Presence] in Specimen by Probe</t>
+  </si>
+  <si>
+    <t>6334-7</t>
+  </si>
+  <si>
+    <t>Campylobacter lari rRNA [Presence] in Specimen by Probe</t>
+  </si>
+  <si>
     <t>6349-5</t>
   </si>
   <si>
@@ -387,6 +520,54 @@
     <t>Neisseria gonorrhoeae [Presence] in Specimen by Organism specific culture</t>
   </si>
   <si>
+    <t>71429-5</t>
+  </si>
+  <si>
+    <t>Campylobacter sp DNA.diarrheagenic [Presence] in Stool by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>74785-7</t>
+  </si>
+  <si>
+    <t>Influenza virus B Victoria lineage RNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>74786-5</t>
+  </si>
+  <si>
+    <t>Influenza virus B Yamagata lineage RNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>76078-5</t>
+  </si>
+  <si>
+    <t>Influenza virus A RNA [Presence] in Nasopharynx by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>76080-1</t>
+  </si>
+  <si>
+    <t>Influenza virus B RNA [Presence] in Nasopharynx by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>77026-3</t>
+  </si>
+  <si>
+    <t>Influenza virus A H1 RNA [Presence] in Nasopharynx by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>77027-1</t>
+  </si>
+  <si>
+    <t>Influenza virus A H3 RNA [Presence] in Nasopharynx by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>77028-9</t>
+  </si>
+  <si>
+    <t>Influenza virus A H1 2009 pandemic RNA [Presence] in Nasopharynx by NAA with probe detection</t>
+  </si>
+  <si>
     <t>80363-5</t>
   </si>
   <si>
@@ -417,6 +598,30 @@
     <t>Neisseria gonorrhoeae [Presence] in Anorectal by Organism specific culture</t>
   </si>
   <si>
+    <t>81656-1</t>
+  </si>
+  <si>
+    <t>Campylobacter coli+jejuni tuf gene [Presence] in Stool by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>85477-8</t>
+  </si>
+  <si>
+    <t>Influenza virus A RNA [Presence] in Upper respiratory specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>85478-6</t>
+  </si>
+  <si>
+    <t>Influenza virus B RNA [Presence] in Upper respiratory specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>85827-4</t>
+  </si>
+  <si>
+    <t>Carbapenem resistance bla OXA-48-like gene [Presence] by Molecular method</t>
+  </si>
+  <si>
     <t>88224-1</t>
   </si>
   <si>
@@ -429,10 +634,118 @@
     <t>Neisseria gonorrhoeae DNA [Presence] in Throat by NAA with probe detection</t>
   </si>
   <si>
+    <t>88592-1</t>
+  </si>
+  <si>
+    <t>Influenza virus B RNA [Presence] in Lower respiratory specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>88599-6</t>
+  </si>
+  <si>
+    <t>Influenza virus A RNA [Presence] in Lower respiratory specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>92141-1</t>
+  </si>
+  <si>
+    <t>Influenza virus B RNA [Presence] in Respiratory system specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>92142-9</t>
+  </si>
+  <si>
+    <t>Influenza virus A RNA [Presence] in Respiratory system specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>92808-5</t>
+  </si>
+  <si>
+    <t>Influenza virus A H3 RNA [Presence] in Upper respiratory specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>92809-3</t>
+  </si>
+  <si>
+    <t>Influenza virus A H1 RNA [Presence] in Upper respiratory specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>94309-2</t>
+  </si>
+  <si>
+    <t>SARS-CoV-2 (COVID-19) RNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-interpretation-codes-pos-neg</t>
+  </si>
+  <si>
+    <t>94394-4</t>
+  </si>
+  <si>
+    <t>Influenza virus A H3 RNA [Presence] in Lower respiratory specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>94395-1</t>
+  </si>
+  <si>
+    <t>Influenza virus A H1 2009 pandemic RNA [Presence] in Lower respiratory specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>94396-9</t>
+  </si>
+  <si>
+    <t>Influenza virus A H1 RNA [Presence] in Lower respiratory specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>94500-6</t>
+  </si>
+  <si>
+    <t>SARS-CoV-2 (COVID-19) RNA [Presence] in Respiratory system specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>94759-8</t>
+  </si>
+  <si>
+    <t>SARS-CoV-2 (COVID-19) RNA [Presence] in Nasopharynx by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>94845-5</t>
+  </si>
+  <si>
+    <t>SARS-CoV-2 (COVID-19) RNA [Presence] in Saliva (oral fluid) by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>95406-5</t>
+  </si>
+  <si>
+    <t>SARS-CoV-2 (COVID-19) RNA [Presence] in Nose by NAA with probe detection</t>
+  </si>
+  <si>
     <t>96599-6</t>
   </si>
   <si>
     <t>Neisseria gonorrhoeae DNA [Presence] in Cervix by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>96797-6</t>
+  </si>
+  <si>
+    <t>SARS-CoV-2 (COVID-19) RNA [Presence] in Oropharyngeal wash by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>97513-6</t>
+  </si>
+  <si>
+    <t>Campylobacter sp [Presence] in Specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>http://snomed.info/sct</t>
+  </si>
+  <si>
+    <t>72904005</t>
+  </si>
+  <si>
+    <t>Treponema pallidum (organism)</t>
   </si>
 </sst>
 </file>
@@ -709,7 +1022,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E103"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1514,6 +1827,818 @@
       </c>
       <c r="E53" s="2"/>
     </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="C54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D55" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E57" s="2"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="C58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E58" s="2"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="C59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E59" s="2"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="C60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E60" s="2"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="C61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E61" s="2"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="C62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E62" s="2"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="C63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E63" s="2"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="C64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E64" s="2"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="C65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D65" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E65" s="2"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="C66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D66" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E66" s="2"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="C67" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E67" s="2"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="C68" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E68" s="2"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="C69" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E69" s="2"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="C70" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E70" s="2"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="C71" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E71" s="2"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="C72" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D72" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E72" s="2"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="C73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D73" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E73" s="2"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="C74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E74" s="2"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="C75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D75" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E75" s="2"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="C76" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D76" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E76" s="2"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="C77" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D77" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E77" s="2"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="C78" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D78" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E78" s="2"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="C79" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D79" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E79" s="2"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="C80" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D80" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E80" s="2"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="C81" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D81" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E81" s="2"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="C82" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D82" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E82" s="2"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="C83" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D83" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E83" s="2"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="C84" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D84" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E84" s="2"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="C85" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D85" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E85" s="2"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="C86" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D86" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E86" s="2"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="C87" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D87" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E87" s="2"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="C88" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D88" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E88" s="2"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="C89" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D89" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E89" s="2"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="C90" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D90" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E90" s="2"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="C91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D91" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E91" s="2"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="C92" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D92" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E92" s="2"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="C93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D93" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="E93" s="2"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="C94" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D94" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E94" s="2"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="C95" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D95" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E95" s="2"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="C96" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D96" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E96" s="2"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="C97" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D97" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="E97" s="2"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="C98" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D98" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="E98" s="2"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="C99" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D99" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="E99" s="2"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="C100" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D100" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="E100" s="2"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="C101" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D101" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E101" s="2"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="C102" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D102" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="E102" s="2"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="C103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D103" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E103" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ig/ch-elm/ch-elm-results-to-interpretation-code.xlsx
+++ b/ig/ch-elm/ch-elm-results-to-interpretation-code.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="340">
   <si>
     <t>Property</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-28T10:46:20+01:00</t>
+    <t>2024-05-17T13:32:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -73,7 +73,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Federal Office of Public Health FOPH (https://www.bag.admin.ch/bag/en/home/das-bag/kontakt-standort.html)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -124,16 +124,40 @@
     <t>http://fhir.ch/ig/ch-elm/CodeSystem/ch-elm-interpretation-codes-vs</t>
   </si>
   <si>
+    <t>100383-9</t>
+  </si>
+  <si>
+    <t>Monkeypox virus DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>related-to</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-interpretation-codes-pos</t>
+  </si>
+  <si>
+    <t>100749-1</t>
+  </si>
+  <si>
+    <t>Legionella pneumophila serogroup 1 [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
     <t>100911-7</t>
   </si>
   <si>
     <t>Campylobacter sp [Presence] in Stool by Organism specific culture</t>
   </si>
   <si>
-    <t>related-to</t>
-  </si>
-  <si>
-    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-interpretation-codes-pos</t>
+    <t>101219-4</t>
+  </si>
+  <si>
+    <t>Legionella sp DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>101307-7</t>
+  </si>
+  <si>
+    <t>Plasmodium vivax+ovale DNA [Presence] in Blood by NAA with non-probe detection</t>
   </si>
   <si>
     <t>101423-2</t>
@@ -148,6 +172,12 @@
     <t>Influenza virus A H3 RNA [Presence] in Respiratory system specimen by NAA with probe detection</t>
   </si>
   <si>
+    <t>101427-3</t>
+  </si>
+  <si>
+    <t>Shigella sp DNA [Presence] in Stool by NAA with probe detection</t>
+  </si>
+  <si>
     <t>101552-8</t>
   </si>
   <si>
@@ -172,6 +202,24 @@
     <t>Campylobacter coli+jejuni DNA [Presence] in Wound by NAA with probe detection</t>
   </si>
   <si>
+    <t>11259-9</t>
+  </si>
+  <si>
+    <t>Hepatitis C virus RNA [Presence] in Serum or Plasma by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>13952-7</t>
+  </si>
+  <si>
+    <t>Hepatitis B virus core Ab [Presence] in Serum or Plasma by Immunoassay</t>
+  </si>
+  <si>
+    <t>13954-3</t>
+  </si>
+  <si>
+    <t>Hepatitis B virus e Ag [Presence] in Serum or Plasma by Immunoassay</t>
+  </si>
+  <si>
     <t>14127-5</t>
   </si>
   <si>
@@ -202,6 +250,12 @@
     <t>Chlamydia trachomatis rRNA [Presence] in Genital specimen by Probe</t>
   </si>
   <si>
+    <t>17057-1</t>
+  </si>
+  <si>
+    <t>Legionella pneumophila Ag [Presence] in Specimen</t>
+  </si>
+  <si>
     <t>21190-4</t>
   </si>
   <si>
@@ -214,6 +268,12 @@
     <t>Chlamydia trachomatis DNA [Presence] in Urethra by NAA with probe detection</t>
   </si>
   <si>
+    <t>21363-7</t>
+  </si>
+  <si>
+    <t>Legionella pneumophila DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
     <t>21415-5</t>
   </si>
   <si>
@@ -244,12 +304,42 @@
     <t>Neisseria gonorrhoeae DNA [Presence] in Specimen by NAA with probe detection</t>
   </si>
   <si>
+    <t>24113-3</t>
+  </si>
+  <si>
+    <t>Hepatitis B virus core IgM Ab [Presence] in Serum or Plasma by Immunoassay</t>
+  </si>
+  <si>
+    <t>26621-3</t>
+  </si>
+  <si>
+    <t>Legionella sp Ag [Presence] in Specimen</t>
+  </si>
+  <si>
+    <t>29610-3</t>
+  </si>
+  <si>
+    <t>Hepatitis B virus DNA [Presence] in Serum or Plasma by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>31204-1</t>
+  </si>
+  <si>
+    <t>Hepatitis B virus core IgM Ab [Presence] in Serum</t>
+  </si>
+  <si>
     <t>31777-6</t>
   </si>
   <si>
     <t>Chlamydia trachomatis Ag [Presence] in Specimen</t>
   </si>
   <si>
+    <t>31844-4</t>
+  </si>
+  <si>
+    <t>Hepatitis B virus e Ag [Presence] in Serum</t>
+  </si>
+  <si>
     <t>31859-2</t>
   </si>
   <si>
@@ -262,12 +352,36 @@
     <t>Influenza virus B Ag [Presence] in Specimen</t>
   </si>
   <si>
+    <t>31868-3</t>
+  </si>
+  <si>
+    <t>Legionella pneumophila 1 Ag [Presence] in Urine</t>
+  </si>
+  <si>
+    <t>31869-1</t>
+  </si>
+  <si>
+    <t>Legionella pneumophila Ag [Presence] in Sputum</t>
+  </si>
+  <si>
+    <t>31870-9</t>
+  </si>
+  <si>
+    <t>Legionella pneumophila Ag [Presence] in Urine</t>
+  </si>
+  <si>
     <t>32705-6</t>
   </si>
   <si>
     <t>Neisseria gonorrhoeae DNA [Presence] in Vaginal fluid by NAA with probe detection</t>
   </si>
   <si>
+    <t>32781-7</t>
+  </si>
+  <si>
+    <t>Legionella sp Ag [Presence] in Urine</t>
+  </si>
+  <si>
     <t>34487-9</t>
   </si>
   <si>
@@ -280,12 +394,48 @@
     <t>Influenza virus B [Presence] in Specimen by Organism specific culture</t>
   </si>
   <si>
+    <t>38394-3</t>
+  </si>
+  <si>
+    <t>Legionella sp identified in Urine by Organism specific culture</t>
+  </si>
+  <si>
+    <t>39007-0</t>
+  </si>
+  <si>
+    <t>Hepatitis B virus e Ag [Presence] in Specimen</t>
+  </si>
+  <si>
     <t>40982-1</t>
   </si>
   <si>
     <t>Influenza virus B RNA [Presence] in Specimen by NAA with probe detection</t>
   </si>
   <si>
+    <t>41447-4</t>
+  </si>
+  <si>
+    <t>Plasmodium falciparum DNA [Presence] in Blood by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>41448-2</t>
+  </si>
+  <si>
+    <t>Plasmodium malariae DNA [Presence] in Blood by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>41449-0</t>
+  </si>
+  <si>
+    <t>Plasmodium ovale DNA [Presence] in Blood by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>41450-8</t>
+  </si>
+  <si>
+    <t>Plasmodium vivax DNA [Presence] in Blood by NAA with probe detection</t>
+  </si>
+  <si>
     <t>42931-6</t>
   </si>
   <si>
@@ -328,6 +478,24 @@
     <t>Chlamydia trachomatis [Presence] in Genital specimen by Organism specific culture</t>
   </si>
   <si>
+    <t>46454-5</t>
+  </si>
+  <si>
+    <t>Shigella sp [Presence] in Specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>46455-2</t>
+  </si>
+  <si>
+    <t>Shigella sp DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>47085-6</t>
+  </si>
+  <si>
+    <t>Plasmodium sp DNA [Presence] in Blood by NAA with probe detection</t>
+  </si>
+  <si>
     <t>47387-6</t>
   </si>
   <si>
@@ -364,6 +532,30 @@
     <t>Campylobacter sp rRNA [Presence] in Specimen by Probe</t>
   </si>
   <si>
+    <t>5007-0</t>
+  </si>
+  <si>
+    <t>Hepatitis B virus DNA [Presence] in Blood by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>5009-6</t>
+  </si>
+  <si>
+    <t>Hepatitis B virus DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>5010-4</t>
+  </si>
+  <si>
+    <t>Hepatitis C virus RNA [Presence] in Blood by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>5012-0</t>
+  </si>
+  <si>
+    <t>Hepatitis C virus RNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
     <t>50387-0</t>
   </si>
   <si>
@@ -376,12 +568,42 @@
     <t>Neisseria gonorrhoeae rRNA [Presence] in Cervix by NAA with probe detection</t>
   </si>
   <si>
+    <t>50687-3</t>
+  </si>
+  <si>
+    <t>Plasmodium sp Ag [Presence] in Blood</t>
+  </si>
+  <si>
     <t>51578-3</t>
   </si>
   <si>
     <t>Chlamydia trachomatis DNA [Presence] in Semen by NAA with probe detection</t>
   </si>
   <si>
+    <t>51587-4</t>
+  </si>
+  <si>
+    <t>Plasmodium sp [Presence] in Blood by Light microscopy</t>
+  </si>
+  <si>
+    <t>5195-3</t>
+  </si>
+  <si>
+    <t>Hepatitis B virus surface Ag [Presence] in Serum</t>
+  </si>
+  <si>
+    <t>5196-1</t>
+  </si>
+  <si>
+    <t>Hepatitis B virus surface Ag [Presence] in Serum or Plasma by Immunoassay</t>
+  </si>
+  <si>
+    <t>5199-5</t>
+  </si>
+  <si>
+    <t>Hepatitis C virus Ab [Presence] in Serum by Immunoblot</t>
+  </si>
+  <si>
     <t>53879-3</t>
   </si>
   <si>
@@ -424,6 +646,24 @@
     <t>Neisseria gonorrhoeae rRNA [Presence] in Anal by NAA with probe detection</t>
   </si>
   <si>
+    <t>589-2</t>
+  </si>
+  <si>
+    <t>Legionella sp identified in Bronchial specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>590-0</t>
+  </si>
+  <si>
+    <t>Legionella sp identified in Sputum by Organism specific culture</t>
+  </si>
+  <si>
+    <t>593-4</t>
+  </si>
+  <si>
+    <t>Legionella sp identified in Specimen by Organism specific culture</t>
+  </si>
+  <si>
     <t>60255-7</t>
   </si>
   <si>
@@ -520,6 +760,24 @@
     <t>Neisseria gonorrhoeae [Presence] in Specimen by Organism specific culture</t>
   </si>
   <si>
+    <t>70242-3</t>
+  </si>
+  <si>
+    <t>Shigella species+EIEC invasion plasmid antigen H ipaH gene [Presence] in Stool by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>70568-1</t>
+  </si>
+  <si>
+    <t>Plasmodium knowlesi DNA [Presence] in Blood by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>70569-9</t>
+  </si>
+  <si>
+    <t>Plasmodium sp Ag [Identifier] in Blood by Rapid immunoassay</t>
+  </si>
+  <si>
     <t>71429-5</t>
   </si>
   <si>
@@ -550,6 +808,12 @@
     <t>Influenza virus B RNA [Presence] in Nasopharynx by NAA with probe detection</t>
   </si>
   <si>
+    <t>76772-3</t>
+  </si>
+  <si>
+    <t>Plasmodium falciparum Ag [Presence] in Blood by Rapid immunoassay</t>
+  </si>
+  <si>
     <t>77026-3</t>
   </si>
   <si>
@@ -568,6 +832,12 @@
     <t>Influenza virus A H1 2009 pandemic RNA [Presence] in Nasopharynx by NAA with probe detection</t>
   </si>
   <si>
+    <t>79189-7</t>
+  </si>
+  <si>
+    <t>Hepatitis C virus core Ag [Presence] in Serum or Plasma by Immunoassay</t>
+  </si>
+  <si>
     <t>80363-5</t>
   </si>
   <si>
@@ -604,6 +874,12 @@
     <t>Campylobacter coli+jejuni tuf gene [Presence] in Stool by NAA with probe detection</t>
   </si>
   <si>
+    <t>82300-5</t>
+  </si>
+  <si>
+    <t>Shigella sp [Presence] in Stool by Culture</t>
+  </si>
+  <si>
     <t>85477-8</t>
   </si>
   <si>
@@ -634,6 +910,12 @@
     <t>Neisseria gonorrhoeae DNA [Presence] in Throat by NAA with probe detection</t>
   </si>
   <si>
+    <t>88590-5</t>
+  </si>
+  <si>
+    <t>Legionella pneumophila DNA [Presence] in Lower respiratory specimen by NAA with probe detection</t>
+  </si>
+  <si>
     <t>88592-1</t>
   </si>
   <si>
@@ -656,6 +938,12 @@
   </si>
   <si>
     <t>Influenza virus A RNA [Presence] in Respiratory system specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>92145-2</t>
+  </si>
+  <si>
+    <t>Legionella pneumophila DNA [Presence] in Respiratory system specimen by NAA with probe detection</t>
   </si>
   <si>
     <t>92808-5</t>
@@ -1022,7 +1310,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E103"/>
+  <dimension ref="A1:E151"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2423,16 +2711,16 @@
         <v>38</v>
       </c>
       <c r="D93" t="s" s="2">
-        <v>220</v>
+        <v>39</v>
       </c>
       <c r="E93" s="2"/>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="B94" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="B94" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="C94" t="s" s="2">
         <v>38</v>
@@ -2444,10 +2732,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="B95" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="B95" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="C95" t="s" s="2">
         <v>38</v>
@@ -2459,10 +2747,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="B96" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="B96" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="C96" t="s" s="2">
         <v>38</v>
@@ -2474,70 +2762,70 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="B97" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="B97" t="s" s="2">
-        <v>228</v>
-      </c>
       <c r="C97" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D97" t="s" s="2">
-        <v>220</v>
+        <v>39</v>
       </c>
       <c r="E97" s="2"/>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="B98" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="B98" t="s" s="2">
-        <v>230</v>
-      </c>
       <c r="C98" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D98" t="s" s="2">
-        <v>220</v>
+        <v>39</v>
       </c>
       <c r="E98" s="2"/>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="B99" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="B99" t="s" s="2">
-        <v>232</v>
-      </c>
       <c r="C99" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D99" t="s" s="2">
-        <v>220</v>
+        <v>39</v>
       </c>
       <c r="E99" s="2"/>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="B100" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="B100" t="s" s="2">
-        <v>234</v>
-      </c>
       <c r="C100" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D100" t="s" s="2">
-        <v>220</v>
+        <v>39</v>
       </c>
       <c r="E100" s="2"/>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="B101" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="B101" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="C101" t="s" s="2">
         <v>38</v>
@@ -2549,33 +2837,753 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="B102" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="B102" t="s" s="2">
-        <v>238</v>
-      </c>
       <c r="C102" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D102" t="s" s="2">
-        <v>220</v>
+        <v>39</v>
       </c>
       <c r="E102" s="2"/>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="B103" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="B103" t="s" s="2">
+      <c r="C103" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D103" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E103" s="2"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="C103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D103" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="E103" s="2"/>
+      <c r="B104" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="C104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D104" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E104" s="2"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="C105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D105" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E105" s="2"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="C106" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D106" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E106" s="2"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="C107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D107" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E107" s="2"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="B108" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="C108" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D108" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E108" s="2"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="B109" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="C109" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D109" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E109" s="2"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="B110" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="C110" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D110" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E110" s="2"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="B111" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="C111" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D111" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E111" s="2"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="B112" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="C112" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D112" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E112" s="2"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="B113" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="C113" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D113" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E113" s="2"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="B114" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="C114" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D114" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E114" s="2"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="B115" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="C115" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D115" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E115" s="2"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="B116" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="C116" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D116" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E116" s="2"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="B117" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="C117" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D117" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E117" s="2"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="B118" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="C118" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D118" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E118" s="2"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="B119" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="C119" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D119" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E119" s="2"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="B120" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="C120" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D120" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E120" s="2"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="B121" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="C121" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D121" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E121" s="2"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="B122" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="C122" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D122" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E122" s="2"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="B123" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="C123" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D123" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E123" s="2"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="B124" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="C124" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D124" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E124" s="2"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="B125" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="C125" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D125" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E125" s="2"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="B126" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="C126" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D126" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E126" s="2"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="B127" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="C127" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D127" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E127" s="2"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="B128" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="C128" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D128" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E128" s="2"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="B129" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="C129" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D129" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E129" s="2"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="B130" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="C130" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D130" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E130" s="2"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="B131" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="C131" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D131" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E131" s="2"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="B132" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="C132" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D132" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E132" s="2"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="B133" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="C133" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D133" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E133" s="2"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="B134" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="C134" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D134" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E134" s="2"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="B135" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="C135" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D135" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E135" s="2"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="B136" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="C136" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D136" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E136" s="2"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="B137" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="C137" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D137" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E137" s="2"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="B138" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="C138" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D138" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E138" s="2"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="B139" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="C139" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D139" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E139" s="2"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="B140" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="C140" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D140" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E140" s="2"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="B141" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="C141" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D141" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="E141" s="2"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="B142" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="C142" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D142" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E142" s="2"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="B143" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="C143" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D143" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E143" s="2"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="B144" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="C144" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D144" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E144" s="2"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="B145" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="C145" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D145" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="E145" s="2"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="B146" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="C146" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D146" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="E146" s="2"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="B147" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C147" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D147" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="E147" s="2"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="B148" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="C148" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D148" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="E148" s="2"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="B149" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="C149" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D149" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E149" s="2"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="B150" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="C150" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D150" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="E150" s="2"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="B151" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="C151" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D151" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E151" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -2609,7 +3617,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>241</v>
+        <v>337</v>
       </c>
       <c r="B2" t="s" s="2">
         <v>34</v>
@@ -2626,10 +3634,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>242</v>
+        <v>338</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>243</v>
+        <v>339</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>38</v>

--- a/ig/ch-elm/ch-elm-results-to-interpretation-code.xlsx
+++ b/ig/ch-elm/ch-elm-results-to-interpretation-code.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T13:32:20+00:00</t>
+    <t>2024-06-17T08:59:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ch-elm-results-to-interpretation-code.xlsx
+++ b/ig/ch-elm/ch-elm-results-to-interpretation-code.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="510">
   <si>
     <t>Property</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.1</t>
+    <t>1.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T08:59:23+00:00</t>
+    <t>2024-08-20T16:32:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -124,18 +124,24 @@
     <t>http://fhir.ch/ig/ch-elm/CodeSystem/ch-elm-interpretation-codes-vs</t>
   </si>
   <si>
+    <t>46732-4</t>
+  </si>
+  <si>
+    <t>Francisella tularensis subtype [Identifier] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>related-to</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-interpretation-codes-pos</t>
+  </si>
+  <si>
     <t>100383-9</t>
   </si>
   <si>
     <t>Monkeypox virus DNA [Presence] in Specimen by NAA with probe detection</t>
   </si>
   <si>
-    <t>related-to</t>
-  </si>
-  <si>
-    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-interpretation-codes-pos</t>
-  </si>
-  <si>
     <t>100749-1</t>
   </si>
   <si>
@@ -148,6 +154,15 @@
     <t>Campylobacter sp [Presence] in Stool by Organism specific culture</t>
   </si>
   <si>
+    <t>100965-3</t>
+  </si>
+  <si>
+    <t>Dengue virus IgG Ab [Interpretation] in Serum, Plasma or Blood</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-interpretation-codes-sero</t>
+  </si>
+  <si>
     <t>101219-4</t>
   </si>
   <si>
@@ -160,6 +175,18 @@
     <t>Plasmodium vivax+ovale DNA [Presence] in Blood by NAA with non-probe detection</t>
   </si>
   <si>
+    <t>101364-8</t>
+  </si>
+  <si>
+    <t>Francisella tularensis DNA [Presence] in Blood by NAA with non-probe detection</t>
+  </si>
+  <si>
+    <t>101373-9</t>
+  </si>
+  <si>
+    <t>Francisella tularensis DNA [Presence] in Sputum by NAA with non-probe detection</t>
+  </si>
+  <si>
     <t>101423-2</t>
   </si>
   <si>
@@ -202,18 +229,51 @@
     <t>Campylobacter coli+jejuni DNA [Presence] in Wound by NAA with probe detection</t>
   </si>
   <si>
+    <t>104371-0</t>
+  </si>
+  <si>
+    <t>Corynebacterium pseudotuberculosis [Presence] in Specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>104372-8</t>
+  </si>
+  <si>
+    <t>Corynebacterium pseudotuberculosis [Presence] in Upper respiratory specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>104373-6</t>
+  </si>
+  <si>
+    <t>Corynebacterium ulcerans [Presence] in Specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>104374-4</t>
+  </si>
+  <si>
+    <t>Corynebacterium ulcerans [Presence] in Upper respiratory specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>104375-1</t>
+  </si>
+  <si>
+    <t>Corynebacterium ulcerans DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>104376-9</t>
+  </si>
+  <si>
+    <t>Diphtheria toxin DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-interpretation-codes-pos-neg</t>
+  </si>
+  <si>
     <t>11259-9</t>
   </si>
   <si>
     <t>Hepatitis C virus RNA [Presence] in Serum or Plasma by NAA with probe detection</t>
   </si>
   <si>
-    <t>13952-7</t>
-  </si>
-  <si>
-    <t>Hepatitis B virus core Ab [Presence] in Serum or Plasma by Immunoassay</t>
-  </si>
-  <si>
     <t>13954-3</t>
   </si>
   <si>
@@ -226,6 +286,12 @@
     <t>Neisseria gonorrhoeae [Presence] in Anal by Organism specific culture</t>
   </si>
   <si>
+    <t>14357-8</t>
+  </si>
+  <si>
+    <t>Microscopic observation [Identifier] in Cerebral spinal fluid by Gram stain</t>
+  </si>
+  <si>
     <t>14463-4</t>
   </si>
   <si>
@@ -244,16 +310,28 @@
     <t>Chlamydia trachomatis [Presence] in Urethra by Organism specific culture</t>
   </si>
   <si>
+    <t>16134-9</t>
+  </si>
+  <si>
+    <t>Neisseria meningitidis [Presence] in Specimen by Organism specific culture</t>
+  </si>
+  <si>
     <t>16600-9</t>
   </si>
   <si>
     <t>Chlamydia trachomatis rRNA [Presence] in Genital specimen by Probe</t>
   </si>
   <si>
-    <t>17057-1</t>
-  </si>
-  <si>
-    <t>Legionella pneumophila Ag [Presence] in Specimen</t>
+    <t>16676-9</t>
+  </si>
+  <si>
+    <t>Corynebacterium diphtheriae [Presence] in Specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>20489-1</t>
+  </si>
+  <si>
+    <t>Streptococcus pneumoniae Ag [Presence] in Cerebral spinal fluid</t>
   </si>
   <si>
     <t>21190-4</t>
@@ -286,18 +364,51 @@
     <t>Neisseria gonorrhoeae DNA [Presence] in Urine by NAA with probe detection</t>
   </si>
   <si>
+    <t>21503-8</t>
+  </si>
+  <si>
+    <t>Measles virus IgM Ab [Presence] in Serum</t>
+  </si>
+  <si>
     <t>21613-5</t>
   </si>
   <si>
     <t>Chlamydia trachomatis DNA [Presence] in Specimen by NAA with probe detection</t>
   </si>
   <si>
+    <t>22502-9</t>
+  </si>
+  <si>
+    <t>Measles virus IgG Ab [Titer] in Serum</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-interpretation-codes-titer</t>
+  </si>
+  <si>
+    <t>23126-6</t>
+  </si>
+  <si>
+    <t>Francisella tularensis Ag [Presence] in Tissue by Immune stain</t>
+  </si>
+  <si>
+    <t>23130-8</t>
+  </si>
+  <si>
+    <t>Francisella tularensis DNA [Presence] in Tissue by NAA with probe detection</t>
+  </si>
+  <si>
     <t>23838-6</t>
   </si>
   <si>
     <t>Chlamydia trachomatis rRNA [Presence] in Genital fluid by Probe</t>
   </si>
   <si>
+    <t>24102-6</t>
+  </si>
+  <si>
+    <t>Corynebacterium toxin [Presence] in Specimen by Immune diffusion (ID)</t>
+  </si>
+  <si>
     <t>24111-7</t>
   </si>
   <si>
@@ -310,10 +421,10 @@
     <t>Hepatitis B virus core IgM Ab [Presence] in Serum or Plasma by Immunoassay</t>
   </si>
   <si>
-    <t>26621-3</t>
-  </si>
-  <si>
-    <t>Legionella sp Ag [Presence] in Specimen</t>
+    <t>25338-5</t>
+  </si>
+  <si>
+    <t>Dengue virus IgM Ab [Presence] in Serum</t>
   </si>
   <si>
     <t>29610-3</t>
@@ -322,6 +433,12 @@
     <t>Hepatitis B virus DNA [Presence] in Serum or Plasma by NAA with probe detection</t>
   </si>
   <si>
+    <t>29907-3</t>
+  </si>
+  <si>
+    <t>Haemophilus influenzae B DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
     <t>31204-1</t>
   </si>
   <si>
@@ -334,6 +451,30 @@
     <t>Chlamydia trachomatis Ag [Presence] in Specimen</t>
   </si>
   <si>
+    <t>31798-2</t>
+  </si>
+  <si>
+    <t>Dengue virus Ag [Presence] in Serum</t>
+  </si>
+  <si>
+    <t>31799-0</t>
+  </si>
+  <si>
+    <t>Dengue virus Ag [Presence] in Specimen</t>
+  </si>
+  <si>
+    <t>31828-7</t>
+  </si>
+  <si>
+    <t>Francisella tularensis Ag [Presence] in Serum</t>
+  </si>
+  <si>
+    <t>31829-5</t>
+  </si>
+  <si>
+    <t>Francisella tularensis Ag [Presence] in Specimen</t>
+  </si>
+  <si>
     <t>31844-4</t>
   </si>
   <si>
@@ -358,18 +499,54 @@
     <t>Legionella pneumophila 1 Ag [Presence] in Urine</t>
   </si>
   <si>
-    <t>31869-1</t>
-  </si>
-  <si>
-    <t>Legionella pneumophila Ag [Presence] in Sputum</t>
-  </si>
-  <si>
     <t>31870-9</t>
   </si>
   <si>
     <t>Legionella pneumophila Ag [Presence] in Urine</t>
   </si>
   <si>
+    <t>31879-0</t>
+  </si>
+  <si>
+    <t>Measles virus Ag [Presence] in Nose</t>
+  </si>
+  <si>
+    <t>31881-6</t>
+  </si>
+  <si>
+    <t>Measles virus Ag [Presence] in Serum or Plasma</t>
+  </si>
+  <si>
+    <t>31883-2</t>
+  </si>
+  <si>
+    <t>Measles virus Ag [Presence] in Sputum</t>
+  </si>
+  <si>
+    <t>31884-0</t>
+  </si>
+  <si>
+    <t>Measles virus Ag [Presence] in Throat</t>
+  </si>
+  <si>
+    <t>31887-3</t>
+  </si>
+  <si>
+    <t>Measles virus Ag [Presence] in Specimen</t>
+  </si>
+  <si>
+    <t>31912-9</t>
+  </si>
+  <si>
+    <t>Neisseria meningitidis Ag [Presence] in Specimen</t>
+  </si>
+  <si>
+    <t>31969-9</t>
+  </si>
+  <si>
+    <t>Streptococcus pneumoniae Ag [Presence] in Specimen</t>
+  </si>
+  <si>
     <t>32705-6</t>
   </si>
   <si>
@@ -382,24 +559,36 @@
     <t>Legionella sp Ag [Presence] in Urine</t>
   </si>
   <si>
+    <t>33676-8</t>
+  </si>
+  <si>
+    <t>Francisella tularensis [Presence] in Specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>33679-2</t>
+  </si>
+  <si>
+    <t>Francisella tularensis DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
     <t>34487-9</t>
   </si>
   <si>
     <t>Influenza virus A RNA [Presence] in Specimen by NAA with probe detection</t>
   </si>
   <si>
+    <t>38353-9</t>
+  </si>
+  <si>
+    <t>Streptococcus sp identified in Specimen by Organism specific culture</t>
+  </si>
+  <si>
     <t>38382-8</t>
   </si>
   <si>
     <t>Influenza virus B [Presence] in Specimen by Organism specific culture</t>
   </si>
   <si>
-    <t>38394-3</t>
-  </si>
-  <si>
-    <t>Legionella sp identified in Urine by Organism specific culture</t>
-  </si>
-  <si>
     <t>39007-0</t>
   </si>
   <si>
@@ -454,6 +643,18 @@
     <t>Neisseria gonorrhoeae rRNA [Presence] in Specimen by NAA with probe detection</t>
   </si>
   <si>
+    <t>43389-6</t>
+  </si>
+  <si>
+    <t>Streptococcus sp identified in Isolate by Organism specific culture</t>
+  </si>
+  <si>
+    <t>44012-3</t>
+  </si>
+  <si>
+    <t>Measles virus IgG and IgM [Interpretation] in Serum</t>
+  </si>
+  <si>
     <t>45084-1</t>
   </si>
   <si>
@@ -508,6 +709,12 @@
     <t>Influenza virus A [Presence] in Specimen by Organism specific culture</t>
   </si>
   <si>
+    <t>48508-6</t>
+  </si>
+  <si>
+    <t>Measles virus RNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
     <t>49521-8</t>
   </si>
   <si>
@@ -520,12 +727,30 @@
     <t>Influenza virus A H3 RNA [Presence] in Specimen by NAA with probe detection</t>
   </si>
   <si>
+    <t>49609-1</t>
+  </si>
+  <si>
+    <t>Vibrio sp DNA [Identifier] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
     <t>49614-1</t>
   </si>
   <si>
     <t>Campylobacter sp DNA [Identifier] in Specimen by NAA with probe detection</t>
   </si>
   <si>
+    <t>49671-1</t>
+  </si>
+  <si>
+    <t>Neisseria meningitidis DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>49672-9</t>
+  </si>
+  <si>
+    <t>Streptococcus pneumoniae DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
     <t>4992-4</t>
   </si>
   <si>
@@ -604,12 +829,24 @@
     <t>Hepatitis C virus Ab [Presence] in Serum by Immunoblot</t>
   </si>
   <si>
+    <t>53607-8</t>
+  </si>
+  <si>
+    <t>Haemophilus influenzae B DNA [Presence] in Blood by NAA with probe detection</t>
+  </si>
+  <si>
     <t>53879-3</t>
   </si>
   <si>
     <t>Neisseria gonorrhoeae rRNA [Presence] in Vaginal fluid by NAA with probe detection</t>
   </si>
   <si>
+    <t>53917-1</t>
+  </si>
+  <si>
+    <t>Streptococcus pneumoniae DNA [Presence] in Blood by NAA with probe detection</t>
+  </si>
+  <si>
     <t>53925-4</t>
   </si>
   <si>
@@ -628,6 +865,18 @@
     <t>Neisseria gonorrhoeae rRNA [Presence] in Urethra by NAA with probe detection</t>
   </si>
   <si>
+    <t>53941-1</t>
+  </si>
+  <si>
+    <t>Vibrio cholerae toxin Ag [Presence] in Isolate</t>
+  </si>
+  <si>
+    <t>53942-9</t>
+  </si>
+  <si>
+    <t>Vibrio cholerae toxin ctx gene [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
     <t>55465-9</t>
   </si>
   <si>
@@ -646,6 +895,12 @@
     <t>Neisseria gonorrhoeae rRNA [Presence] in Anal by NAA with probe detection</t>
   </si>
   <si>
+    <t>58473-0</t>
+  </si>
+  <si>
+    <t>Haemophilus influenzae serotype DNA [Identifier] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
     <t>589-2</t>
   </si>
   <si>
@@ -676,12 +931,30 @@
     <t>Neisseria gonorrhoeae rRNA [Presence] in Urine by NAA with probe detection</t>
   </si>
   <si>
+    <t>60422-3</t>
+  </si>
+  <si>
+    <t>Measles virus genotype [Identifier] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>61366-1</t>
+  </si>
+  <si>
+    <t>Haemophilus influenzae DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
     <t>61368-7</t>
   </si>
   <si>
     <t>Campylobacter jejuni DNA [Presence] in Specimen by NAA with probe detection</t>
   </si>
   <si>
+    <t>61371-1</t>
+  </si>
+  <si>
+    <t>Vibrio cholerae DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
     <t>6329-7</t>
   </si>
   <si>
@@ -718,6 +991,60 @@
     <t>Chlamydia trachomatis DNA [Presence] in Urine by NAA with probe detection</t>
   </si>
   <si>
+    <t>6387-5</t>
+  </si>
+  <si>
+    <t>Dengue virus DNA [Presence] in Specimen by Probe</t>
+  </si>
+  <si>
+    <t>6508-6</t>
+  </si>
+  <si>
+    <t>Neisseria meningitidis Ag [Presence] in Cerebral spinal fluid</t>
+  </si>
+  <si>
+    <t>6578-9</t>
+  </si>
+  <si>
+    <t>Vibrio sp identified in Blood by Organism specific culture</t>
+  </si>
+  <si>
+    <t>6579-7</t>
+  </si>
+  <si>
+    <t>Vibrio sp identified in Stool by Organism specific culture</t>
+  </si>
+  <si>
+    <t>6581-3</t>
+  </si>
+  <si>
+    <t>Vibrio sp identified in Specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>6584-7</t>
+  </si>
+  <si>
+    <t>Virus identified in Specimen by Culture</t>
+  </si>
+  <si>
+    <t>6600-1</t>
+  </si>
+  <si>
+    <t>Haemophilus sp identified in Specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>67561-1</t>
+  </si>
+  <si>
+    <t>Corynebacterium diphtheriae DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>6811-4</t>
+  </si>
+  <si>
+    <t>Dengue virus IgG Ab [Titer] in Serum</t>
+  </si>
+  <si>
     <t>688-2</t>
   </si>
   <si>
@@ -742,6 +1069,18 @@
     <t>Neisseria gonorrhoeae [Presence] in Semen by Organism specific culture</t>
   </si>
   <si>
+    <t>69410-9</t>
+  </si>
+  <si>
+    <t>Haemophilus influenzae [Identifier] in Specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>69577-5</t>
+  </si>
+  <si>
+    <t>Hepatitis E virus RNA [Presence] in Blood by NAA with probe detection</t>
+  </si>
+  <si>
     <t>696-5</t>
   </si>
   <si>
@@ -808,6 +1147,12 @@
     <t>Influenza virus B RNA [Presence] in Nasopharynx by NAA with probe detection</t>
   </si>
   <si>
+    <t>76626-1</t>
+  </si>
+  <si>
+    <t>Measles virus [Presence] in Specimen by Organism specific culture</t>
+  </si>
+  <si>
     <t>76772-3</t>
   </si>
   <si>
@@ -832,12 +1177,30 @@
     <t>Influenza virus A H1 2009 pandemic RNA [Presence] in Nasopharynx by NAA with probe detection</t>
   </si>
   <si>
+    <t>7889-9</t>
+  </si>
+  <si>
+    <t>Francisella tularensis IgG Ab [Presence] in Serum</t>
+  </si>
+  <si>
+    <t>7890-7</t>
+  </si>
+  <si>
+    <t>Francisella tularensis IgM Ab [Presence] in Serum</t>
+  </si>
+  <si>
     <t>79189-7</t>
   </si>
   <si>
     <t>Hepatitis C virus core Ag [Presence] in Serum or Plasma by Immunoassay</t>
   </si>
   <si>
+    <t>7964-0</t>
+  </si>
+  <si>
+    <t>Measles virus RNA [Presence] in Nose by NAA with probe detection</t>
+  </si>
+  <si>
     <t>80363-5</t>
   </si>
   <si>
@@ -868,6 +1231,12 @@
     <t>Neisseria gonorrhoeae [Presence] in Anorectal by Organism specific culture</t>
   </si>
   <si>
+    <t>80680-2</t>
+  </si>
+  <si>
+    <t>Vibrio cholerae toxin ctxA gene [Presence] in Stool by NAA with probe detection</t>
+  </si>
+  <si>
     <t>81656-1</t>
   </si>
   <si>
@@ -898,6 +1267,18 @@
     <t>Carbapenem resistance bla OXA-48-like gene [Presence] by Molecular method</t>
   </si>
   <si>
+    <t>86576-6</t>
+  </si>
+  <si>
+    <t>Measles virus RNA [Presence] in Serum by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>86581-6</t>
+  </si>
+  <si>
+    <t>Neisseria meningitidis [Presence] in Cerebral spinal fluid by Organism specific culture</t>
+  </si>
+  <si>
     <t>88224-1</t>
   </si>
   <si>
@@ -910,6 +1291,24 @@
     <t>Neisseria gonorrhoeae DNA [Presence] in Throat by NAA with probe detection</t>
   </si>
   <si>
+    <t>88584-8</t>
+  </si>
+  <si>
+    <t>Corynebacterium diphtheriae [Presence] in Upper respiratory specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>88585-5</t>
+  </si>
+  <si>
+    <t>Legionella sp identified in Lower respiratory specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>88588-9</t>
+  </si>
+  <si>
+    <t>Legionella sp DNA [Identifier] in Lower respiratory specimen by NAA with probe detection</t>
+  </si>
+  <si>
     <t>88590-5</t>
   </si>
   <si>
@@ -928,6 +1327,42 @@
     <t>Influenza virus A RNA [Presence] in Lower respiratory specimen by NAA with probe detection</t>
   </si>
   <si>
+    <t>90066-2</t>
+  </si>
+  <si>
+    <t>Corynebacterium sp identified in Isolate by Organism specific culture</t>
+  </si>
+  <si>
+    <t>91071-1</t>
+  </si>
+  <si>
+    <t>Hepatitis E virus RNA [Presence] in Stool by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>91077-8</t>
+  </si>
+  <si>
+    <t>Measles virus RNA [Presence] in Upper respiratory specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>91132-1</t>
+  </si>
+  <si>
+    <t>Measles virus RNA [Presence] in Lower respiratory specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>91780-7</t>
+  </si>
+  <si>
+    <t>Measles virus [Presence] in Lower respiratory specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>91786-4</t>
+  </si>
+  <si>
+    <t>Measles virus [Presence] in Upper respiratory specimen by Organism specific culture</t>
+  </si>
+  <si>
     <t>92141-1</t>
   </si>
   <si>
@@ -946,6 +1381,18 @@
     <t>Legionella pneumophila DNA [Presence] in Respiratory system specimen by NAA with probe detection</t>
   </si>
   <si>
+    <t>92771-5</t>
+  </si>
+  <si>
+    <t>Streptococcus pneumoniae DNA [Presence] by NAA with probe detection in Positive blood culture</t>
+  </si>
+  <si>
+    <t>92786-3</t>
+  </si>
+  <si>
+    <t>Corynebacterium sp DNA [Presence] by NAA with probe detection in Positive blood culture</t>
+  </si>
+  <si>
     <t>92808-5</t>
   </si>
   <si>
@@ -958,15 +1405,42 @@
     <t>Influenza virus A H1 RNA [Presence] in Upper respiratory specimen by NAA with probe detection</t>
   </si>
   <si>
+    <t>93388-7</t>
+  </si>
+  <si>
+    <t>Neisseria meningitidis DNA [Presence] by NAA with probe detection in Positive blood culture</t>
+  </si>
+  <si>
+    <t>93397-8</t>
+  </si>
+  <si>
+    <t>Haemophilus influenzae DNA [Presence] by NAA with probe detection in Positive blood culture</t>
+  </si>
+  <si>
+    <t>93716-9</t>
+  </si>
+  <si>
+    <t>Francisella tularensis IgM Ab [Presence] in Serum by Immunoassay</t>
+  </si>
+  <si>
+    <t>93717-7</t>
+  </si>
+  <si>
+    <t>Francisella tularensis IgG Ab [Presence] in Serum by Immunoassay</t>
+  </si>
+  <si>
+    <t>93718-5</t>
+  </si>
+  <si>
+    <t>Francisella tularensis IgG and IgM [Interpretation] in Serum</t>
+  </si>
+  <si>
     <t>94309-2</t>
   </si>
   <si>
     <t>SARS-CoV-2 (COVID-19) RNA [Presence] in Specimen by NAA with probe detection</t>
   </si>
   <si>
-    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-interpretation-codes-pos-neg</t>
-  </si>
-  <si>
     <t>94394-4</t>
   </si>
   <si>
@@ -1003,6 +1477,12 @@
     <t>SARS-CoV-2 (COVID-19) RNA [Presence] in Saliva (oral fluid) by NAA with probe detection</t>
   </si>
   <si>
+    <t>95156-6</t>
+  </si>
+  <si>
+    <t>Hepatitis E virus RNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
     <t>95406-5</t>
   </si>
   <si>
@@ -1021,10 +1501,40 @@
     <t>SARS-CoV-2 (COVID-19) RNA [Presence] in Oropharyngeal wash by NAA with probe detection</t>
   </si>
   <si>
+    <t>97314-9</t>
+  </si>
+  <si>
+    <t>Vibrio cholerae DNA [Presence] in Stool by NAA with probe detection</t>
+  </si>
+  <si>
     <t>97513-6</t>
   </si>
   <si>
     <t>Campylobacter sp [Presence] in Specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>97621-7</t>
+  </si>
+  <si>
+    <t>Haemophilus influenzae DNA [Presence] in Synovial fluid by NAA with non-probe detection</t>
+  </si>
+  <si>
+    <t>99090-3</t>
+  </si>
+  <si>
+    <t>Haemophilus influenzae DNA [Presence] in Cerebral spinal fluid by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>99092-9</t>
+  </si>
+  <si>
+    <t>Neisseria meningitidis DNA [Presence] in Cerebral spinal fluid by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>99094-5</t>
+  </si>
+  <si>
+    <t>Streptococcus pneumoniae DNA [Presence] in Cerebral spinal fluid by NAA with probe detection</t>
   </si>
   <si>
     <t>http://snomed.info/sct</t>
@@ -1310,7 +1820,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E151"/>
+  <dimension ref="A1:E235"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1421,16 +1931,16 @@
         <v>38</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s" s="2">
         <v>38</v>
@@ -1442,10 +1952,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s" s="2">
         <v>38</v>
@@ -1457,10 +1967,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>38</v>
@@ -1472,10 +1982,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>38</v>
@@ -1487,10 +1997,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>38</v>
@@ -1502,10 +2012,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>38</v>
@@ -1517,10 +2027,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>38</v>
@@ -1532,10 +2042,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>38</v>
@@ -1547,10 +2057,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>38</v>
@@ -1562,10 +2072,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>38</v>
@@ -1577,10 +2087,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>38</v>
@@ -1592,10 +2102,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>38</v>
@@ -1607,10 +2117,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>38</v>
@@ -1622,10 +2132,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>38</v>
@@ -1637,10 +2147,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>38</v>
@@ -1652,10 +2162,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>38</v>
@@ -1667,25 +2177,25 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D24" t="s" s="2">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="E24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>38</v>
@@ -1697,10 +2207,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>38</v>
@@ -1712,10 +2222,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>38</v>
@@ -1727,10 +2237,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C28" t="s" s="2">
         <v>38</v>
@@ -1742,10 +2252,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C29" t="s" s="2">
         <v>38</v>
@@ -1757,10 +2267,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C30" t="s" s="2">
         <v>38</v>
@@ -1772,10 +2282,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>38</v>
@@ -1787,10 +2297,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C32" t="s" s="2">
         <v>38</v>
@@ -1802,10 +2312,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C33" t="s" s="2">
         <v>38</v>
@@ -1817,10 +2327,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C34" t="s" s="2">
         <v>38</v>
@@ -1832,10 +2342,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C35" t="s" s="2">
         <v>38</v>
@@ -1847,10 +2357,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C36" t="s" s="2">
         <v>38</v>
@@ -1862,10 +2372,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C37" t="s" s="2">
         <v>38</v>
@@ -1877,10 +2387,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C38" t="s" s="2">
         <v>38</v>
@@ -1892,10 +2402,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C39" t="s" s="2">
         <v>38</v>
@@ -1907,10 +2417,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C40" t="s" s="2">
         <v>38</v>
@@ -1922,10 +2432,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C41" t="s" s="2">
         <v>38</v>
@@ -1937,10 +2447,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C42" t="s" s="2">
         <v>38</v>
@@ -1952,25 +2462,25 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C43" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D43" t="s" s="2">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="E43" s="2"/>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C44" t="s" s="2">
         <v>38</v>
@@ -1982,10 +2492,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C45" t="s" s="2">
         <v>38</v>
@@ -1997,10 +2507,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C46" t="s" s="2">
         <v>38</v>
@@ -2012,25 +2522,25 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C47" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D47" t="s" s="2">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="E47" s="2"/>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C48" t="s" s="2">
         <v>38</v>
@@ -2042,10 +2552,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>38</v>
@@ -2057,10 +2567,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C50" t="s" s="2">
         <v>38</v>
@@ -2072,10 +2582,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C51" t="s" s="2">
         <v>38</v>
@@ -2087,10 +2597,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C52" t="s" s="2">
         <v>38</v>
@@ -2102,10 +2612,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C53" t="s" s="2">
         <v>38</v>
@@ -2117,10 +2627,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C54" t="s" s="2">
         <v>38</v>
@@ -2132,10 +2642,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C55" t="s" s="2">
         <v>38</v>
@@ -2147,10 +2657,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C56" t="s" s="2">
         <v>38</v>
@@ -2162,10 +2672,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C57" t="s" s="2">
         <v>38</v>
@@ -2177,10 +2687,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C58" t="s" s="2">
         <v>38</v>
@@ -2192,10 +2702,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C59" t="s" s="2">
         <v>38</v>
@@ -2207,10 +2717,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C60" t="s" s="2">
         <v>38</v>
@@ -2222,10 +2732,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C61" t="s" s="2">
         <v>38</v>
@@ -2237,10 +2747,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C62" t="s" s="2">
         <v>38</v>
@@ -2252,10 +2762,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C63" t="s" s="2">
         <v>38</v>
@@ -2267,10 +2777,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C64" t="s" s="2">
         <v>38</v>
@@ -2282,10 +2792,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C65" t="s" s="2">
         <v>38</v>
@@ -2297,10 +2807,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C66" t="s" s="2">
         <v>38</v>
@@ -2312,10 +2822,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C67" t="s" s="2">
         <v>38</v>
@@ -2327,10 +2837,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C68" t="s" s="2">
         <v>38</v>
@@ -2342,10 +2852,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C69" t="s" s="2">
         <v>38</v>
@@ -2357,10 +2867,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C70" t="s" s="2">
         <v>38</v>
@@ -2372,10 +2882,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C71" t="s" s="2">
         <v>38</v>
@@ -2387,10 +2897,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C72" t="s" s="2">
         <v>38</v>
@@ -2402,10 +2912,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C73" t="s" s="2">
         <v>38</v>
@@ -2417,10 +2927,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C74" t="s" s="2">
         <v>38</v>
@@ -2432,10 +2942,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C75" t="s" s="2">
         <v>38</v>
@@ -2447,10 +2957,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C76" t="s" s="2">
         <v>38</v>
@@ -2462,10 +2972,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C77" t="s" s="2">
         <v>38</v>
@@ -2477,10 +2987,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C78" t="s" s="2">
         <v>38</v>
@@ -2492,10 +3002,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C79" t="s" s="2">
         <v>38</v>
@@ -2507,10 +3017,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C80" t="s" s="2">
         <v>38</v>
@@ -2522,10 +3032,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C81" t="s" s="2">
         <v>38</v>
@@ -2537,10 +3047,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C82" t="s" s="2">
         <v>38</v>
@@ -2552,10 +3062,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C83" t="s" s="2">
         <v>38</v>
@@ -2567,10 +3077,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C84" t="s" s="2">
         <v>38</v>
@@ -2582,10 +3092,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C85" t="s" s="2">
         <v>38</v>
@@ -2597,10 +3107,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C86" t="s" s="2">
         <v>38</v>
@@ -2612,10 +3122,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C87" t="s" s="2">
         <v>38</v>
@@ -2627,25 +3137,25 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C88" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D88" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="E88" s="2"/>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C89" t="s" s="2">
         <v>38</v>
@@ -2657,10 +3167,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C90" t="s" s="2">
         <v>38</v>
@@ -2672,10 +3182,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C91" t="s" s="2">
         <v>38</v>
@@ -2687,10 +3197,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C92" t="s" s="2">
         <v>38</v>
@@ -2702,10 +3212,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C93" t="s" s="2">
         <v>38</v>
@@ -2717,10 +3227,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C94" t="s" s="2">
         <v>38</v>
@@ -2732,10 +3242,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C95" t="s" s="2">
         <v>38</v>
@@ -2747,10 +3257,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C96" t="s" s="2">
         <v>38</v>
@@ -2762,10 +3272,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C97" t="s" s="2">
         <v>38</v>
@@ -2777,25 +3287,25 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C98" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D98" t="s" s="2">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="E98" s="2"/>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C99" t="s" s="2">
         <v>38</v>
@@ -2807,10 +3317,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C100" t="s" s="2">
         <v>38</v>
@@ -2822,10 +3332,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C101" t="s" s="2">
         <v>38</v>
@@ -2837,10 +3347,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C102" t="s" s="2">
         <v>38</v>
@@ -2852,10 +3362,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C103" t="s" s="2">
         <v>38</v>
@@ -2867,10 +3377,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C104" t="s" s="2">
         <v>38</v>
@@ -2882,10 +3392,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C105" t="s" s="2">
         <v>38</v>
@@ -2897,10 +3407,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C106" t="s" s="2">
         <v>38</v>
@@ -2912,10 +3422,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C107" t="s" s="2">
         <v>38</v>
@@ -2927,10 +3437,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C108" t="s" s="2">
         <v>38</v>
@@ -2942,10 +3452,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C109" t="s" s="2">
         <v>38</v>
@@ -2957,10 +3467,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C110" t="s" s="2">
         <v>38</v>
@@ -2972,10 +3482,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C111" t="s" s="2">
         <v>38</v>
@@ -2987,10 +3497,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C112" t="s" s="2">
         <v>38</v>
@@ -3002,10 +3512,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C113" t="s" s="2">
         <v>38</v>
@@ -3017,10 +3527,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C114" t="s" s="2">
         <v>38</v>
@@ -3032,10 +3542,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C115" t="s" s="2">
         <v>38</v>
@@ -3047,10 +3557,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C116" t="s" s="2">
         <v>38</v>
@@ -3062,10 +3572,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C117" t="s" s="2">
         <v>38</v>
@@ -3077,10 +3587,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C118" t="s" s="2">
         <v>38</v>
@@ -3092,10 +3602,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C119" t="s" s="2">
         <v>38</v>
@@ -3107,10 +3617,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C120" t="s" s="2">
         <v>38</v>
@@ -3122,10 +3632,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C121" t="s" s="2">
         <v>38</v>
@@ -3137,10 +3647,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C122" t="s" s="2">
         <v>38</v>
@@ -3152,10 +3662,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C123" t="s" s="2">
         <v>38</v>
@@ -3167,10 +3677,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C124" t="s" s="2">
         <v>38</v>
@@ -3182,10 +3692,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C125" t="s" s="2">
         <v>38</v>
@@ -3197,10 +3707,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C126" t="s" s="2">
         <v>38</v>
@@ -3212,10 +3722,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C127" t="s" s="2">
         <v>38</v>
@@ -3227,10 +3737,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C128" t="s" s="2">
         <v>38</v>
@@ -3242,10 +3752,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C129" t="s" s="2">
         <v>38</v>
@@ -3257,10 +3767,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C130" t="s" s="2">
         <v>38</v>
@@ -3272,10 +3782,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C131" t="s" s="2">
         <v>38</v>
@@ -3287,10 +3797,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C132" t="s" s="2">
         <v>38</v>
@@ -3302,10 +3812,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C133" t="s" s="2">
         <v>38</v>
@@ -3317,10 +3827,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C134" t="s" s="2">
         <v>38</v>
@@ -3332,25 +3842,25 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C135" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D135" t="s" s="2">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="E135" s="2"/>
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C136" t="s" s="2">
         <v>38</v>
@@ -3362,10 +3872,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C137" t="s" s="2">
         <v>38</v>
@@ -3377,10 +3887,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C138" t="s" s="2">
         <v>38</v>
@@ -3392,10 +3902,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C139" t="s" s="2">
         <v>38</v>
@@ -3407,10 +3917,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C140" t="s" s="2">
         <v>38</v>
@@ -3422,25 +3932,25 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C141" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D141" t="s" s="2">
-        <v>316</v>
+        <v>39</v>
       </c>
       <c r="E141" s="2"/>
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C142" t="s" s="2">
         <v>38</v>
@@ -3452,10 +3962,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C143" t="s" s="2">
         <v>38</v>
@@ -3467,10 +3977,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C144" t="s" s="2">
         <v>38</v>
@@ -3482,70 +3992,70 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C145" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D145" t="s" s="2">
-        <v>316</v>
+        <v>39</v>
       </c>
       <c r="E145" s="2"/>
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C146" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D146" t="s" s="2">
-        <v>316</v>
+        <v>39</v>
       </c>
       <c r="E146" s="2"/>
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C147" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D147" t="s" s="2">
-        <v>316</v>
+        <v>39</v>
       </c>
       <c r="E147" s="2"/>
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C148" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D148" t="s" s="2">
-        <v>316</v>
+        <v>39</v>
       </c>
       <c r="E148" s="2"/>
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C149" t="s" s="2">
         <v>38</v>
@@ -3557,25 +4067,25 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C150" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D150" t="s" s="2">
-        <v>316</v>
+        <v>39</v>
       </c>
       <c r="E150" s="2"/>
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C151" t="s" s="2">
         <v>38</v>
@@ -3584,6 +4094,1266 @@
         <v>39</v>
       </c>
       <c r="E151" s="2"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="B152" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="C152" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D152" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E152" s="2"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="B153" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="C153" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D153" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="E153" s="2"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="B154" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="C154" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D154" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E154" s="2"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="B155" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="C155" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D155" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E155" s="2"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="B156" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="C156" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D156" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E156" s="2"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="B157" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="C157" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D157" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E157" s="2"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="B158" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="C158" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D158" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E158" s="2"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="B159" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="C159" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D159" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E159" s="2"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="B160" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="C160" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D160" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E160" s="2"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="B161" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="C161" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D161" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E161" s="2"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="B162" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="C162" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D162" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E162" s="2"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="B163" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="C163" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D163" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E163" s="2"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="B164" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="C164" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D164" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E164" s="2"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="B165" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="C165" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D165" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E165" s="2"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="B166" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="C166" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D166" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E166" s="2"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="B167" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="C167" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D167" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E167" s="2"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="B168" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="C168" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D168" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E168" s="2"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="B169" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="C169" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D169" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E169" s="2"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="B170" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="C170" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D170" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E170" s="2"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="B171" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="C171" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D171" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E171" s="2"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="B172" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="C172" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D172" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E172" s="2"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="B173" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="C173" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D173" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E173" s="2"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="B174" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="C174" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D174" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E174" s="2"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="B175" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="C175" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D175" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E175" s="2"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="B176" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="C176" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D176" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E176" s="2"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="B177" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="C177" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D177" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E177" s="2"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="B178" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="C178" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D178" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E178" s="2"/>
+    </row>
+    <row r="179">
+      <c r="A179" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="B179" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="C179" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D179" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E179" s="2"/>
+    </row>
+    <row r="180">
+      <c r="A180" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="B180" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="C180" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D180" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E180" s="2"/>
+    </row>
+    <row r="181">
+      <c r="A181" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="B181" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="C181" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D181" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E181" s="2"/>
+    </row>
+    <row r="182">
+      <c r="A182" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="B182" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="C182" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D182" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E182" s="2"/>
+    </row>
+    <row r="183">
+      <c r="A183" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B183" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="C183" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D183" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E183" s="2"/>
+    </row>
+    <row r="184">
+      <c r="A184" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="B184" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="C184" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D184" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E184" s="2"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="B185" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="C185" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D185" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E185" s="2"/>
+    </row>
+    <row r="186">
+      <c r="A186" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="B186" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="C186" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D186" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E186" s="2"/>
+    </row>
+    <row r="187">
+      <c r="A187" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="B187" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="C187" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D187" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E187" s="2"/>
+    </row>
+    <row r="188">
+      <c r="A188" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="B188" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="C188" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D188" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E188" s="2"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="B189" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="C189" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D189" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E189" s="2"/>
+    </row>
+    <row r="190">
+      <c r="A190" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="B190" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="C190" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D190" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E190" s="2"/>
+    </row>
+    <row r="191">
+      <c r="A191" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="B191" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="C191" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D191" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E191" s="2"/>
+    </row>
+    <row r="192">
+      <c r="A192" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="B192" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="C192" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D192" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E192" s="2"/>
+    </row>
+    <row r="193">
+      <c r="A193" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="B193" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="C193" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D193" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E193" s="2"/>
+    </row>
+    <row r="194">
+      <c r="A194" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="B194" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="C194" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D194" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E194" s="2"/>
+    </row>
+    <row r="195">
+      <c r="A195" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="B195" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="C195" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D195" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E195" s="2"/>
+    </row>
+    <row r="196">
+      <c r="A196" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="B196" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="C196" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D196" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E196" s="2"/>
+    </row>
+    <row r="197">
+      <c r="A197" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="B197" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="C197" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D197" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E197" s="2"/>
+    </row>
+    <row r="198">
+      <c r="A198" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="B198" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="C198" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D198" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E198" s="2"/>
+    </row>
+    <row r="199">
+      <c r="A199" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="B199" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="C199" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D199" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E199" s="2"/>
+    </row>
+    <row r="200">
+      <c r="A200" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="B200" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="C200" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D200" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E200" s="2"/>
+    </row>
+    <row r="201">
+      <c r="A201" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="B201" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="C201" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D201" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E201" s="2"/>
+    </row>
+    <row r="202">
+      <c r="A202" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="B202" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="C202" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D202" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E202" s="2"/>
+    </row>
+    <row r="203">
+      <c r="A203" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="B203" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="C203" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D203" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E203" s="2"/>
+    </row>
+    <row r="204">
+      <c r="A204" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="B204" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="C204" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D204" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E204" s="2"/>
+    </row>
+    <row r="205">
+      <c r="A205" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="B205" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="C205" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D205" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E205" s="2"/>
+    </row>
+    <row r="206">
+      <c r="A206" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="B206" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="C206" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D206" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E206" s="2"/>
+    </row>
+    <row r="207">
+      <c r="A207" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="B207" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="C207" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D207" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E207" s="2"/>
+    </row>
+    <row r="208">
+      <c r="A208" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="B208" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="C208" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D208" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E208" s="2"/>
+    </row>
+    <row r="209">
+      <c r="A209" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="B209" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="C209" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D209" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E209" s="2"/>
+    </row>
+    <row r="210">
+      <c r="A210" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="B210" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="C210" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D210" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E210" s="2"/>
+    </row>
+    <row r="211">
+      <c r="A211" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="B211" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="C211" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D211" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E211" s="2"/>
+    </row>
+    <row r="212">
+      <c r="A212" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="B212" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="C212" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D212" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E212" s="2"/>
+    </row>
+    <row r="213">
+      <c r="A213" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="B213" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="C213" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D213" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E213" s="2"/>
+    </row>
+    <row r="214">
+      <c r="A214" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="B214" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="C214" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D214" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E214" s="2"/>
+    </row>
+    <row r="215">
+      <c r="A215" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="B215" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="C215" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D215" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E215" s="2"/>
+    </row>
+    <row r="216">
+      <c r="A216" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="B216" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="C216" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D216" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E216" s="2"/>
+    </row>
+    <row r="217">
+      <c r="A217" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="B217" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="C217" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D217" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E217" s="2"/>
+    </row>
+    <row r="218">
+      <c r="A218" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="B218" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="C218" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D218" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="E218" s="2"/>
+    </row>
+    <row r="219">
+      <c r="A219" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="B219" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="C219" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D219" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E219" s="2"/>
+    </row>
+    <row r="220">
+      <c r="A220" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="B220" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="C220" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D220" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E220" s="2"/>
+    </row>
+    <row r="221">
+      <c r="A221" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="B221" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="C221" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D221" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E221" s="2"/>
+    </row>
+    <row r="222">
+      <c r="A222" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="B222" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="C222" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D222" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E222" s="2"/>
+    </row>
+    <row r="223">
+      <c r="A223" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="B223" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="C223" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D223" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E223" s="2"/>
+    </row>
+    <row r="224">
+      <c r="A224" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="B224" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="C224" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D224" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E224" s="2"/>
+    </row>
+    <row r="225">
+      <c r="A225" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="B225" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="C225" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D225" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E225" s="2"/>
+    </row>
+    <row r="226">
+      <c r="A226" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="B226" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="C226" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D226" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E226" s="2"/>
+    </row>
+    <row r="227">
+      <c r="A227" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="B227" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="C227" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D227" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E227" s="2"/>
+    </row>
+    <row r="228">
+      <c r="A228" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="B228" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="C228" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D228" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E228" s="2"/>
+    </row>
+    <row r="229">
+      <c r="A229" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="B229" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="C229" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D229" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E229" s="2"/>
+    </row>
+    <row r="230">
+      <c r="A230" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="B230" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="C230" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D230" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E230" s="2"/>
+    </row>
+    <row r="231">
+      <c r="A231" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="B231" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="C231" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D231" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E231" s="2"/>
+    </row>
+    <row r="232">
+      <c r="A232" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="B232" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="C232" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D232" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E232" s="2"/>
+    </row>
+    <row r="233">
+      <c r="A233" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="B233" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="C233" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D233" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E233" s="2"/>
+    </row>
+    <row r="234">
+      <c r="A234" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="B234" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="C234" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D234" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E234" s="2"/>
+    </row>
+    <row r="235">
+      <c r="A235" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="B235" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="C235" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D235" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E235" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -3617,7 +5387,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>337</v>
+        <v>507</v>
       </c>
       <c r="B2" t="s" s="2">
         <v>34</v>
@@ -3634,10 +5404,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>338</v>
+        <v>508</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>339</v>
+        <v>509</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>38</v>

--- a/ig/ch-elm/ch-elm-results-to-interpretation-code.xlsx
+++ b/ig/ch-elm/ch-elm-results-to-interpretation-code.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="578">
   <si>
     <t>Property</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-20T16:32:03+00:00</t>
+    <t>2024-09-24T11:18:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -124,573 +124,633 @@
     <t>http://fhir.ch/ig/ch-elm/CodeSystem/ch-elm-interpretation-codes-vs</t>
   </si>
   <si>
+    <t>100383-9</t>
+  </si>
+  <si>
+    <t>Monkeypox virus DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>related-to</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-interpretation-codes-pos</t>
+  </si>
+  <si>
+    <t>100749-1</t>
+  </si>
+  <si>
+    <t>Legionella pneumophila serogroup 1 [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>100888-7</t>
+  </si>
+  <si>
+    <t>Monkeypox virus clade II DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>100889-5</t>
+  </si>
+  <si>
+    <t>Monkeypox virus clade I DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>100911-7</t>
+  </si>
+  <si>
+    <t>Campylobacter sp [Presence] in Stool by Organism specific culture</t>
+  </si>
+  <si>
+    <t>100965-3</t>
+  </si>
+  <si>
+    <t>Dengue virus IgG Ab [Interpretation] in Serum, Plasma or Blood</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-interpretation-codes-sero</t>
+  </si>
+  <si>
+    <t>101219-4</t>
+  </si>
+  <si>
+    <t>Legionella sp DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>101307-7</t>
+  </si>
+  <si>
+    <t>Plasmodium vivax+ovale DNA [Presence] in Blood by NAA with non-probe detection</t>
+  </si>
+  <si>
+    <t>101364-8</t>
+  </si>
+  <si>
+    <t>Francisella tularensis DNA [Presence] in Blood by NAA with non-probe detection</t>
+  </si>
+  <si>
+    <t>101373-9</t>
+  </si>
+  <si>
+    <t>Francisella tularensis DNA [Presence] in Sputum by NAA with non-probe detection</t>
+  </si>
+  <si>
+    <t>101423-2</t>
+  </si>
+  <si>
+    <t>Influenza virus A H1 RNA [Presence] in Respiratory system specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>101424-0</t>
+  </si>
+  <si>
+    <t>Influenza virus A H3 RNA [Presence] in Respiratory system specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>101427-3</t>
+  </si>
+  <si>
+    <t>Shigella sp DNA [Presence] in Stool by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>101552-8</t>
+  </si>
+  <si>
+    <t>Campylobacter coli DNA [Presence] in Stool by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>101554-4</t>
+  </si>
+  <si>
+    <t>Campylobacter jejuni DNA [Presence] in Stool by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>101555-1</t>
+  </si>
+  <si>
+    <t>Campylobacter upsaliensis DNA [Presence] in Stool by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>103168-1</t>
+  </si>
+  <si>
+    <t>Campylobacter coli+jejuni DNA [Presence] in Wound by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>104371-0</t>
+  </si>
+  <si>
+    <t>Corynebacterium pseudotuberculosis [Presence] in Specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>104372-8</t>
+  </si>
+  <si>
+    <t>Corynebacterium pseudotuberculosis [Presence] in Upper respiratory specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>104373-6</t>
+  </si>
+  <si>
+    <t>Corynebacterium ulcerans [Presence] in Specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>104374-4</t>
+  </si>
+  <si>
+    <t>Corynebacterium ulcerans [Presence] in Upper respiratory specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>104375-1</t>
+  </si>
+  <si>
+    <t>Corynebacterium ulcerans DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>104376-9</t>
+  </si>
+  <si>
+    <t>Diphtheria toxin DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-interpretation-codes-pos-neg</t>
+  </si>
+  <si>
+    <t>104395-9</t>
+  </si>
+  <si>
+    <t>European tick borne encephalitis virus IgG Ab [Titer] in Serum by Immunoassay --2nd specimen</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-interpretation-codes-titer</t>
+  </si>
+  <si>
+    <t>11259-9</t>
+  </si>
+  <si>
+    <t>Hepatitis C virus RNA [Presence] in Serum or Plasma by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>13954-3</t>
+  </si>
+  <si>
+    <t>Hepatitis B virus e Ag [Presence] in Serum or Plasma by Immunoassay</t>
+  </si>
+  <si>
+    <t>14127-5</t>
+  </si>
+  <si>
+    <t>Neisseria gonorrhoeae [Presence] in Anal by Organism specific culture</t>
+  </si>
+  <si>
+    <t>14357-8</t>
+  </si>
+  <si>
+    <t>Microscopic observation [Identifier] in Cerebral spinal fluid by Gram stain</t>
+  </si>
+  <si>
+    <t>14463-4</t>
+  </si>
+  <si>
+    <t>Chlamydia trachomatis [Presence] in Cervix by Organism specific culture</t>
+  </si>
+  <si>
+    <t>14464-2</t>
+  </si>
+  <si>
+    <t>Chlamydia trachomatis [Presence] in Vaginal fluid by Organism specific culture</t>
+  </si>
+  <si>
+    <t>14465-9</t>
+  </si>
+  <si>
+    <t>Chlamydia trachomatis [Presence] in Urethra by Organism specific culture</t>
+  </si>
+  <si>
+    <t>16134-9</t>
+  </si>
+  <si>
+    <t>Neisseria meningitidis [Presence] in Specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>16600-9</t>
+  </si>
+  <si>
+    <t>Chlamydia trachomatis rRNA [Presence] in Genital specimen by Probe</t>
+  </si>
+  <si>
+    <t>16676-9</t>
+  </si>
+  <si>
+    <t>Corynebacterium diphtheriae [Presence] in Specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>17552-1</t>
+  </si>
+  <si>
+    <t>Rubella virus IgM Ab [Presence] in Cerebral spinal fluid</t>
+  </si>
+  <si>
+    <t>20458-6</t>
+  </si>
+  <si>
+    <t>Rubella virus IgG Ab [Interpretation] in Serum</t>
+  </si>
+  <si>
+    <t>20489-1</t>
+  </si>
+  <si>
+    <t>Streptococcus pneumoniae Ag [Presence] in Cerebral spinal fluid</t>
+  </si>
+  <si>
+    <t>21190-4</t>
+  </si>
+  <si>
+    <t>Chlamydia trachomatis DNA [Presence] in Cervix by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>21191-2</t>
+  </si>
+  <si>
+    <t>Chlamydia trachomatis DNA [Presence] in Urethra by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>21363-7</t>
+  </si>
+  <si>
+    <t>Legionella pneumophila DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>21415-5</t>
+  </si>
+  <si>
+    <t>Neisseria gonorrhoeae DNA [Presence] in Urethra by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>21416-3</t>
+  </si>
+  <si>
+    <t>Neisseria gonorrhoeae DNA [Presence] in Urine by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>21503-8</t>
+  </si>
+  <si>
+    <t>Measles virus IgM Ab [Presence] in Serum</t>
+  </si>
+  <si>
+    <t>21613-5</t>
+  </si>
+  <si>
+    <t>Chlamydia trachomatis DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>22314-9</t>
+  </si>
+  <si>
+    <t>Hepatitis A virus IgM Ab [Presence] in Serum</t>
+  </si>
+  <si>
+    <t>22502-9</t>
+  </si>
+  <si>
+    <t>Measles virus IgG Ab [Titer] in Serum</t>
+  </si>
+  <si>
+    <t>23126-6</t>
+  </si>
+  <si>
+    <t>Francisella tularensis Ag [Presence] in Tissue by Immune stain</t>
+  </si>
+  <si>
+    <t>23130-8</t>
+  </si>
+  <si>
+    <t>Francisella tularensis DNA [Presence] in Tissue by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>23838-6</t>
+  </si>
+  <si>
+    <t>Chlamydia trachomatis rRNA [Presence] in Genital fluid by Probe</t>
+  </si>
+  <si>
+    <t>24102-6</t>
+  </si>
+  <si>
+    <t>Corynebacterium toxin [Presence] in Specimen by Immune diffusion (ID)</t>
+  </si>
+  <si>
+    <t>24111-7</t>
+  </si>
+  <si>
+    <t>Neisseria gonorrhoeae DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>24113-3</t>
+  </si>
+  <si>
+    <t>Hepatitis B virus core IgM Ab [Presence] in Serum or Plasma by Immunoassay</t>
+  </si>
+  <si>
+    <t>24116-6</t>
+  </si>
+  <si>
+    <t>Rubella virus IgM Ab [Presence] in Serum or Plasma by Immunoassay</t>
+  </si>
+  <si>
+    <t>25338-5</t>
+  </si>
+  <si>
+    <t>Dengue virus IgM Ab [Presence] in Serum</t>
+  </si>
+  <si>
+    <t>29610-3</t>
+  </si>
+  <si>
+    <t>Hepatitis B virus DNA [Presence] in Serum or Plasma by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>29907-3</t>
+  </si>
+  <si>
+    <t>Haemophilus influenzae B DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>31204-1</t>
+  </si>
+  <si>
+    <t>Hepatitis B virus core IgM Ab [Presence] in Serum</t>
+  </si>
+  <si>
+    <t>31616-6</t>
+  </si>
+  <si>
+    <t>Rubella virus IgM Ab [Presence] in Serum</t>
+  </si>
+  <si>
+    <t>31777-6</t>
+  </si>
+  <si>
+    <t>Chlamydia trachomatis Ag [Presence] in Specimen</t>
+  </si>
+  <si>
+    <t>31798-2</t>
+  </si>
+  <si>
+    <t>Dengue virus Ag [Presence] in Serum</t>
+  </si>
+  <si>
+    <t>31799-0</t>
+  </si>
+  <si>
+    <t>Dengue virus Ag [Presence] in Specimen</t>
+  </si>
+  <si>
+    <t>31828-7</t>
+  </si>
+  <si>
+    <t>Francisella tularensis Ag [Presence] in Serum</t>
+  </si>
+  <si>
+    <t>31829-5</t>
+  </si>
+  <si>
+    <t>Francisella tularensis Ag [Presence] in Specimen</t>
+  </si>
+  <si>
+    <t>31844-4</t>
+  </si>
+  <si>
+    <t>Hepatitis B virus e Ag [Presence] in Serum</t>
+  </si>
+  <si>
+    <t>31859-2</t>
+  </si>
+  <si>
+    <t>Influenza virus A Ag [Presence] in Specimen</t>
+  </si>
+  <si>
+    <t>31864-2</t>
+  </si>
+  <si>
+    <t>Influenza virus B Ag [Presence] in Specimen</t>
+  </si>
+  <si>
+    <t>31868-3</t>
+  </si>
+  <si>
+    <t>Legionella pneumophila 1 Ag [Presence] in Urine</t>
+  </si>
+  <si>
+    <t>31870-9</t>
+  </si>
+  <si>
+    <t>Legionella pneumophila Ag [Presence] in Urine</t>
+  </si>
+  <si>
+    <t>31879-0</t>
+  </si>
+  <si>
+    <t>Measles virus Ag [Presence] in Nose</t>
+  </si>
+  <si>
+    <t>31881-6</t>
+  </si>
+  <si>
+    <t>Measles virus Ag [Presence] in Serum or Plasma</t>
+  </si>
+  <si>
+    <t>31883-2</t>
+  </si>
+  <si>
+    <t>Measles virus Ag [Presence] in Sputum</t>
+  </si>
+  <si>
+    <t>31884-0</t>
+  </si>
+  <si>
+    <t>Measles virus Ag [Presence] in Throat</t>
+  </si>
+  <si>
+    <t>31887-3</t>
+  </si>
+  <si>
+    <t>Measles virus Ag [Presence] in Specimen</t>
+  </si>
+  <si>
+    <t>31912-9</t>
+  </si>
+  <si>
+    <t>Neisseria meningitidis Ag [Presence] in Specimen</t>
+  </si>
+  <si>
+    <t>31969-9</t>
+  </si>
+  <si>
+    <t>Streptococcus pneumoniae Ag [Presence] in Specimen</t>
+  </si>
+  <si>
+    <t>32705-6</t>
+  </si>
+  <si>
+    <t>Neisseria gonorrhoeae DNA [Presence] in Vaginal fluid by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>32781-7</t>
+  </si>
+  <si>
+    <t>Legionella sp Ag [Presence] in Urine</t>
+  </si>
+  <si>
+    <t>33676-8</t>
+  </si>
+  <si>
+    <t>Francisella tularensis [Presence] in Specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>33679-2</t>
+  </si>
+  <si>
+    <t>Francisella tularensis DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>34487-9</t>
+  </si>
+  <si>
+    <t>Influenza virus A RNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>38353-9</t>
+  </si>
+  <si>
+    <t>Streptococcus sp identified in Specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>38382-8</t>
+  </si>
+  <si>
+    <t>Influenza virus B [Presence] in Specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>39007-0</t>
+  </si>
+  <si>
+    <t>Hepatitis B virus e Ag [Presence] in Specimen</t>
+  </si>
+  <si>
+    <t>40669-4</t>
+  </si>
+  <si>
+    <t>Rubella virus IgM Ab [Presence] in Cerebral spinal fluid by Immunoassay</t>
+  </si>
+  <si>
+    <t>40982-1</t>
+  </si>
+  <si>
+    <t>Influenza virus B RNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>41447-4</t>
+  </si>
+  <si>
+    <t>Plasmodium falciparum DNA [Presence] in Blood by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>41448-2</t>
+  </si>
+  <si>
+    <t>Plasmodium malariae DNA [Presence] in Blood by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>41449-0</t>
+  </si>
+  <si>
+    <t>Plasmodium ovale DNA [Presence] in Blood by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>41450-8</t>
+  </si>
+  <si>
+    <t>Plasmodium vivax DNA [Presence] in Blood by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>41763-4</t>
+  </si>
+  <si>
+    <t>Rubella virus IgG Ab [Titer] in Serum</t>
+  </si>
+  <si>
+    <t>42931-6</t>
+  </si>
+  <si>
+    <t>Chlamydia trachomatis rRNA [Presence] in Urine by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>43304-5</t>
+  </si>
+  <si>
+    <t>Chlamydia trachomatis rRNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>43305-2</t>
+  </si>
+  <si>
+    <t>Neisseria gonorrhoeae rRNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>43389-6</t>
+  </si>
+  <si>
+    <t>Streptococcus sp identified in Isolate by Organism specific culture</t>
+  </si>
+  <si>
+    <t>44012-3</t>
+  </si>
+  <si>
+    <t>Measles virus IgG and IgM [Interpretation] in Serum</t>
+  </si>
+  <si>
+    <t>45084-1</t>
+  </si>
+  <si>
+    <t>Chlamydia trachomatis DNA [Presence] in Vaginal fluid by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>45090-8</t>
+  </si>
+  <si>
+    <t>Chlamydia trachomatis DNA [Presence] in Anal by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>45093-2</t>
+  </si>
+  <si>
+    <t>Chlamydia trachomatis [Presence] in Anal by Organism specific culture</t>
+  </si>
+  <si>
+    <t>45095-7</t>
+  </si>
+  <si>
+    <t>Chlamydia trachomatis [Presence] in Genital specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>46454-5</t>
+  </si>
+  <si>
+    <t>Shigella sp [Presence] in Specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>46455-2</t>
+  </si>
+  <si>
+    <t>Shigella sp DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
     <t>46732-4</t>
   </si>
   <si>
     <t>Francisella tularensis subtype [Identifier] in Specimen by NAA with probe detection</t>
   </si>
   <si>
-    <t>related-to</t>
-  </si>
-  <si>
-    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-interpretation-codes-pos</t>
-  </si>
-  <si>
-    <t>100383-9</t>
-  </si>
-  <si>
-    <t>Monkeypox virus DNA [Presence] in Specimen by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>100749-1</t>
-  </si>
-  <si>
-    <t>Legionella pneumophila serogroup 1 [Presence] in Specimen by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>100911-7</t>
-  </si>
-  <si>
-    <t>Campylobacter sp [Presence] in Stool by Organism specific culture</t>
-  </si>
-  <si>
-    <t>100965-3</t>
-  </si>
-  <si>
-    <t>Dengue virus IgG Ab [Interpretation] in Serum, Plasma or Blood</t>
-  </si>
-  <si>
-    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-interpretation-codes-sero</t>
-  </si>
-  <si>
-    <t>101219-4</t>
-  </si>
-  <si>
-    <t>Legionella sp DNA [Presence] in Specimen by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>101307-7</t>
-  </si>
-  <si>
-    <t>Plasmodium vivax+ovale DNA [Presence] in Blood by NAA with non-probe detection</t>
-  </si>
-  <si>
-    <t>101364-8</t>
-  </si>
-  <si>
-    <t>Francisella tularensis DNA [Presence] in Blood by NAA with non-probe detection</t>
-  </si>
-  <si>
-    <t>101373-9</t>
-  </si>
-  <si>
-    <t>Francisella tularensis DNA [Presence] in Sputum by NAA with non-probe detection</t>
-  </si>
-  <si>
-    <t>101423-2</t>
-  </si>
-  <si>
-    <t>Influenza virus A H1 RNA [Presence] in Respiratory system specimen by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>101424-0</t>
-  </si>
-  <si>
-    <t>Influenza virus A H3 RNA [Presence] in Respiratory system specimen by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>101427-3</t>
-  </si>
-  <si>
-    <t>Shigella sp DNA [Presence] in Stool by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>101552-8</t>
-  </si>
-  <si>
-    <t>Campylobacter coli DNA [Presence] in Stool by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>101554-4</t>
-  </si>
-  <si>
-    <t>Campylobacter jejuni DNA [Presence] in Stool by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>101555-1</t>
-  </si>
-  <si>
-    <t>Campylobacter upsaliensis DNA [Presence] in Stool by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>103168-1</t>
-  </si>
-  <si>
-    <t>Campylobacter coli+jejuni DNA [Presence] in Wound by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>104371-0</t>
-  </si>
-  <si>
-    <t>Corynebacterium pseudotuberculosis [Presence] in Specimen by Organism specific culture</t>
-  </si>
-  <si>
-    <t>104372-8</t>
-  </si>
-  <si>
-    <t>Corynebacterium pseudotuberculosis [Presence] in Upper respiratory specimen by Organism specific culture</t>
-  </si>
-  <si>
-    <t>104373-6</t>
-  </si>
-  <si>
-    <t>Corynebacterium ulcerans [Presence] in Specimen by Organism specific culture</t>
-  </si>
-  <si>
-    <t>104374-4</t>
-  </si>
-  <si>
-    <t>Corynebacterium ulcerans [Presence] in Upper respiratory specimen by Organism specific culture</t>
-  </si>
-  <si>
-    <t>104375-1</t>
-  </si>
-  <si>
-    <t>Corynebacterium ulcerans DNA [Presence] in Specimen by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>104376-9</t>
-  </si>
-  <si>
-    <t>Diphtheria toxin DNA [Presence] in Specimen by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-interpretation-codes-pos-neg</t>
-  </si>
-  <si>
-    <t>11259-9</t>
-  </si>
-  <si>
-    <t>Hepatitis C virus RNA [Presence] in Serum or Plasma by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>13954-3</t>
-  </si>
-  <si>
-    <t>Hepatitis B virus e Ag [Presence] in Serum or Plasma by Immunoassay</t>
-  </si>
-  <si>
-    <t>14127-5</t>
-  </si>
-  <si>
-    <t>Neisseria gonorrhoeae [Presence] in Anal by Organism specific culture</t>
-  </si>
-  <si>
-    <t>14357-8</t>
-  </si>
-  <si>
-    <t>Microscopic observation [Identifier] in Cerebral spinal fluid by Gram stain</t>
-  </si>
-  <si>
-    <t>14463-4</t>
-  </si>
-  <si>
-    <t>Chlamydia trachomatis [Presence] in Cervix by Organism specific culture</t>
-  </si>
-  <si>
-    <t>14464-2</t>
-  </si>
-  <si>
-    <t>Chlamydia trachomatis [Presence] in Vaginal fluid by Organism specific culture</t>
-  </si>
-  <si>
-    <t>14465-9</t>
-  </si>
-  <si>
-    <t>Chlamydia trachomatis [Presence] in Urethra by Organism specific culture</t>
-  </si>
-  <si>
-    <t>16134-9</t>
-  </si>
-  <si>
-    <t>Neisseria meningitidis [Presence] in Specimen by Organism specific culture</t>
-  </si>
-  <si>
-    <t>16600-9</t>
-  </si>
-  <si>
-    <t>Chlamydia trachomatis rRNA [Presence] in Genital specimen by Probe</t>
-  </si>
-  <si>
-    <t>16676-9</t>
-  </si>
-  <si>
-    <t>Corynebacterium diphtheriae [Presence] in Specimen by Organism specific culture</t>
-  </si>
-  <si>
-    <t>20489-1</t>
-  </si>
-  <si>
-    <t>Streptococcus pneumoniae Ag [Presence] in Cerebral spinal fluid</t>
-  </si>
-  <si>
-    <t>21190-4</t>
-  </si>
-  <si>
-    <t>Chlamydia trachomatis DNA [Presence] in Cervix by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>21191-2</t>
-  </si>
-  <si>
-    <t>Chlamydia trachomatis DNA [Presence] in Urethra by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>21363-7</t>
-  </si>
-  <si>
-    <t>Legionella pneumophila DNA [Presence] in Specimen by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>21415-5</t>
-  </si>
-  <si>
-    <t>Neisseria gonorrhoeae DNA [Presence] in Urethra by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>21416-3</t>
-  </si>
-  <si>
-    <t>Neisseria gonorrhoeae DNA [Presence] in Urine by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>21503-8</t>
-  </si>
-  <si>
-    <t>Measles virus IgM Ab [Presence] in Serum</t>
-  </si>
-  <si>
-    <t>21613-5</t>
-  </si>
-  <si>
-    <t>Chlamydia trachomatis DNA [Presence] in Specimen by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>22502-9</t>
-  </si>
-  <si>
-    <t>Measles virus IgG Ab [Titer] in Serum</t>
-  </si>
-  <si>
-    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-interpretation-codes-titer</t>
-  </si>
-  <si>
-    <t>23126-6</t>
-  </si>
-  <si>
-    <t>Francisella tularensis Ag [Presence] in Tissue by Immune stain</t>
-  </si>
-  <si>
-    <t>23130-8</t>
-  </si>
-  <si>
-    <t>Francisella tularensis DNA [Presence] in Tissue by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>23838-6</t>
-  </si>
-  <si>
-    <t>Chlamydia trachomatis rRNA [Presence] in Genital fluid by Probe</t>
-  </si>
-  <si>
-    <t>24102-6</t>
-  </si>
-  <si>
-    <t>Corynebacterium toxin [Presence] in Specimen by Immune diffusion (ID)</t>
-  </si>
-  <si>
-    <t>24111-7</t>
-  </si>
-  <si>
-    <t>Neisseria gonorrhoeae DNA [Presence] in Specimen by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>24113-3</t>
-  </si>
-  <si>
-    <t>Hepatitis B virus core IgM Ab [Presence] in Serum or Plasma by Immunoassay</t>
-  </si>
-  <si>
-    <t>25338-5</t>
-  </si>
-  <si>
-    <t>Dengue virus IgM Ab [Presence] in Serum</t>
-  </si>
-  <si>
-    <t>29610-3</t>
-  </si>
-  <si>
-    <t>Hepatitis B virus DNA [Presence] in Serum or Plasma by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>29907-3</t>
-  </si>
-  <si>
-    <t>Haemophilus influenzae B DNA [Presence] in Specimen by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>31204-1</t>
-  </si>
-  <si>
-    <t>Hepatitis B virus core IgM Ab [Presence] in Serum</t>
-  </si>
-  <si>
-    <t>31777-6</t>
-  </si>
-  <si>
-    <t>Chlamydia trachomatis Ag [Presence] in Specimen</t>
-  </si>
-  <si>
-    <t>31798-2</t>
-  </si>
-  <si>
-    <t>Dengue virus Ag [Presence] in Serum</t>
-  </si>
-  <si>
-    <t>31799-0</t>
-  </si>
-  <si>
-    <t>Dengue virus Ag [Presence] in Specimen</t>
-  </si>
-  <si>
-    <t>31828-7</t>
-  </si>
-  <si>
-    <t>Francisella tularensis Ag [Presence] in Serum</t>
-  </si>
-  <si>
-    <t>31829-5</t>
-  </si>
-  <si>
-    <t>Francisella tularensis Ag [Presence] in Specimen</t>
-  </si>
-  <si>
-    <t>31844-4</t>
-  </si>
-  <si>
-    <t>Hepatitis B virus e Ag [Presence] in Serum</t>
-  </si>
-  <si>
-    <t>31859-2</t>
-  </si>
-  <si>
-    <t>Influenza virus A Ag [Presence] in Specimen</t>
-  </si>
-  <si>
-    <t>31864-2</t>
-  </si>
-  <si>
-    <t>Influenza virus B Ag [Presence] in Specimen</t>
-  </si>
-  <si>
-    <t>31868-3</t>
-  </si>
-  <si>
-    <t>Legionella pneumophila 1 Ag [Presence] in Urine</t>
-  </si>
-  <si>
-    <t>31870-9</t>
-  </si>
-  <si>
-    <t>Legionella pneumophila Ag [Presence] in Urine</t>
-  </si>
-  <si>
-    <t>31879-0</t>
-  </si>
-  <si>
-    <t>Measles virus Ag [Presence] in Nose</t>
-  </si>
-  <si>
-    <t>31881-6</t>
-  </si>
-  <si>
-    <t>Measles virus Ag [Presence] in Serum or Plasma</t>
-  </si>
-  <si>
-    <t>31883-2</t>
-  </si>
-  <si>
-    <t>Measles virus Ag [Presence] in Sputum</t>
-  </si>
-  <si>
-    <t>31884-0</t>
-  </si>
-  <si>
-    <t>Measles virus Ag [Presence] in Throat</t>
-  </si>
-  <si>
-    <t>31887-3</t>
-  </si>
-  <si>
-    <t>Measles virus Ag [Presence] in Specimen</t>
-  </si>
-  <si>
-    <t>31912-9</t>
-  </si>
-  <si>
-    <t>Neisseria meningitidis Ag [Presence] in Specimen</t>
-  </si>
-  <si>
-    <t>31969-9</t>
-  </si>
-  <si>
-    <t>Streptococcus pneumoniae Ag [Presence] in Specimen</t>
-  </si>
-  <si>
-    <t>32705-6</t>
-  </si>
-  <si>
-    <t>Neisseria gonorrhoeae DNA [Presence] in Vaginal fluid by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>32781-7</t>
-  </si>
-  <si>
-    <t>Legionella sp Ag [Presence] in Urine</t>
-  </si>
-  <si>
-    <t>33676-8</t>
-  </si>
-  <si>
-    <t>Francisella tularensis [Presence] in Specimen by Organism specific culture</t>
-  </si>
-  <si>
-    <t>33679-2</t>
-  </si>
-  <si>
-    <t>Francisella tularensis DNA [Presence] in Specimen by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>34487-9</t>
-  </si>
-  <si>
-    <t>Influenza virus A RNA [Presence] in Specimen by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>38353-9</t>
-  </si>
-  <si>
-    <t>Streptococcus sp identified in Specimen by Organism specific culture</t>
-  </si>
-  <si>
-    <t>38382-8</t>
-  </si>
-  <si>
-    <t>Influenza virus B [Presence] in Specimen by Organism specific culture</t>
-  </si>
-  <si>
-    <t>39007-0</t>
-  </si>
-  <si>
-    <t>Hepatitis B virus e Ag [Presence] in Specimen</t>
-  </si>
-  <si>
-    <t>40982-1</t>
-  </si>
-  <si>
-    <t>Influenza virus B RNA [Presence] in Specimen by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>41447-4</t>
-  </si>
-  <si>
-    <t>Plasmodium falciparum DNA [Presence] in Blood by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>41448-2</t>
-  </si>
-  <si>
-    <t>Plasmodium malariae DNA [Presence] in Blood by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>41449-0</t>
-  </si>
-  <si>
-    <t>Plasmodium ovale DNA [Presence] in Blood by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>41450-8</t>
-  </si>
-  <si>
-    <t>Plasmodium vivax DNA [Presence] in Blood by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>42931-6</t>
-  </si>
-  <si>
-    <t>Chlamydia trachomatis rRNA [Presence] in Urine by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>43304-5</t>
-  </si>
-  <si>
-    <t>Chlamydia trachomatis rRNA [Presence] in Specimen by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>43305-2</t>
-  </si>
-  <si>
-    <t>Neisseria gonorrhoeae rRNA [Presence] in Specimen by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>43389-6</t>
-  </si>
-  <si>
-    <t>Streptococcus sp identified in Isolate by Organism specific culture</t>
-  </si>
-  <si>
-    <t>44012-3</t>
-  </si>
-  <si>
-    <t>Measles virus IgG and IgM [Interpretation] in Serum</t>
-  </si>
-  <si>
-    <t>45084-1</t>
-  </si>
-  <si>
-    <t>Chlamydia trachomatis DNA [Presence] in Vaginal fluid by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>45090-8</t>
-  </si>
-  <si>
-    <t>Chlamydia trachomatis DNA [Presence] in Anal by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>45093-2</t>
-  </si>
-  <si>
-    <t>Chlamydia trachomatis [Presence] in Anal by Organism specific culture</t>
-  </si>
-  <si>
-    <t>45095-7</t>
-  </si>
-  <si>
-    <t>Chlamydia trachomatis [Presence] in Genital specimen by Organism specific culture</t>
-  </si>
-  <si>
-    <t>46454-5</t>
-  </si>
-  <si>
-    <t>Shigella sp [Presence] in Specimen by Organism specific culture</t>
-  </si>
-  <si>
-    <t>46455-2</t>
-  </si>
-  <si>
-    <t>Shigella sp DNA [Presence] in Specimen by NAA with probe detection</t>
-  </si>
-  <si>
     <t>47085-6</t>
   </si>
   <si>
@@ -811,6 +871,12 @@
     <t>Plasmodium sp [Presence] in Blood by Light microscopy</t>
   </si>
   <si>
+    <t>51664-1</t>
+  </si>
+  <si>
+    <t>Chikungunya virus RNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
     <t>5195-3</t>
   </si>
   <si>
@@ -877,12 +943,30 @@
     <t>Vibrio cholerae toxin ctx gene [Presence] in Specimen by NAA with probe detection</t>
   </si>
   <si>
+    <t>54091-4</t>
+  </si>
+  <si>
+    <t>Rubella virus RNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
     <t>55465-9</t>
   </si>
   <si>
     <t>Influenza virus A H1 2009 pandemic RNA [Presence] in Specimen by NAA with probe detection</t>
   </si>
   <si>
+    <t>56129-0</t>
+  </si>
+  <si>
+    <t>Chikungunya virus IgG Ab [Presence] in Serum or Plasma by Immunofluorescence</t>
+  </si>
+  <si>
+    <t>56131-6</t>
+  </si>
+  <si>
+    <t>Chikungunya virus IgM Ab [Presence] in Serum or Plasma by Immunofluorescence</t>
+  </si>
+  <si>
     <t>57287-5</t>
   </si>
   <si>
@@ -895,6 +979,12 @@
     <t>Neisseria gonorrhoeae rRNA [Presence] in Anal by NAA with probe detection</t>
   </si>
   <si>
+    <t>57934-2</t>
+  </si>
+  <si>
+    <t>Chikungunya virus IgM Ab [Presence] in Serum or Plasma</t>
+  </si>
+  <si>
     <t>58473-0</t>
   </si>
   <si>
@@ -931,6 +1021,12 @@
     <t>Neisseria gonorrhoeae rRNA [Presence] in Urine by NAA with probe detection</t>
   </si>
   <si>
+    <t>60274-8</t>
+  </si>
+  <si>
+    <t>Rubella virus RNA [Presence] in Serum or Plasma by NAA with probe detection</t>
+  </si>
+  <si>
     <t>60422-3</t>
   </si>
   <si>
@@ -949,6 +1045,12 @@
     <t>Campylobacter jejuni DNA [Presence] in Specimen by NAA with probe detection</t>
   </si>
   <si>
+    <t>61369-5</t>
+  </si>
+  <si>
+    <t>Listeria monocytogenes DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
     <t>61371-1</t>
   </si>
   <si>
@@ -1003,6 +1105,12 @@
     <t>Neisseria meningitidis Ag [Presence] in Cerebral spinal fluid</t>
   </si>
   <si>
+    <t>6548-2</t>
+  </si>
+  <si>
+    <t>Rubella virus identified in Serum by Organism specific culture</t>
+  </si>
+  <si>
     <t>6578-9</t>
   </si>
   <si>
@@ -1033,6 +1141,12 @@
     <t>Haemophilus sp identified in Specimen by Organism specific culture</t>
   </si>
   <si>
+    <t>6609-2</t>
+  </si>
+  <si>
+    <t>Listeria sp identified in Specimen by Organism specific culture</t>
+  </si>
+  <si>
     <t>67561-1</t>
   </si>
   <si>
@@ -1093,6 +1207,12 @@
     <t>Neisseria gonorrhoeae [Presence] in Urethra by Organism specific culture</t>
   </si>
   <si>
+    <t>69765-6</t>
+  </si>
+  <si>
+    <t>Rubella virus IgM Ab [Presence] in Body fluid by Immunoassay</t>
+  </si>
+  <si>
     <t>698-1</t>
   </si>
   <si>
@@ -1189,6 +1309,12 @@
     <t>Francisella tularensis IgM Ab [Presence] in Serum</t>
   </si>
   <si>
+    <t>7904-6</t>
+  </si>
+  <si>
+    <t>Hepatitis A virus RNA [Presence] in Serum by NAA with probe detection</t>
+  </si>
+  <si>
     <t>79189-7</t>
   </si>
   <si>
@@ -1243,6 +1369,12 @@
     <t>Campylobacter coli+jejuni tuf gene [Presence] in Stool by NAA with probe detection</t>
   </si>
   <si>
+    <t>82184-3</t>
+  </si>
+  <si>
+    <t>Listeria monocytogenes DNA [Presence] in Cerebral spinal fluid by NAA with non-probe detection</t>
+  </si>
+  <si>
     <t>82300-5</t>
   </si>
   <si>
@@ -1267,6 +1399,12 @@
     <t>Carbapenem resistance bla OXA-48-like gene [Presence] by Molecular method</t>
   </si>
   <si>
+    <t>86515-4</t>
+  </si>
+  <si>
+    <t>Chikungunya virus RNA [Presence] in Urine by NAA with probe detection</t>
+  </si>
+  <si>
     <t>86576-6</t>
   </si>
   <si>
@@ -1279,6 +1417,12 @@
     <t>Neisseria meningitidis [Presence] in Cerebral spinal fluid by Organism specific culture</t>
   </si>
   <si>
+    <t>86589-9</t>
+  </si>
+  <si>
+    <t>Rubella virus RNA [Presence] in Urine by NAA with probe detection</t>
+  </si>
+  <si>
     <t>88224-1</t>
   </si>
   <si>
@@ -1327,6 +1471,18 @@
     <t>Influenza virus A RNA [Presence] in Lower respiratory specimen by NAA with probe detection</t>
   </si>
   <si>
+    <t>88629-1</t>
+  </si>
+  <si>
+    <t>Chikungunya virus IgM Ab [Presence] in Serum or Plasma by Immunoassay</t>
+  </si>
+  <si>
+    <t>89596-1</t>
+  </si>
+  <si>
+    <t>Listeria monocytogenes DNA [Presence] in Blood by NAA with probe detection</t>
+  </si>
+  <si>
     <t>90066-2</t>
   </si>
   <si>
@@ -1363,6 +1519,18 @@
     <t>Measles virus [Presence] in Upper respiratory specimen by Organism specific culture</t>
   </si>
   <si>
+    <t>91792-2</t>
+  </si>
+  <si>
+    <t>Rubella virus RNA [Presence] in Upper respiratory specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>91823-5</t>
+  </si>
+  <si>
+    <t>Rubella virus RNA [Presence] in Lower respiratory specimen by NAA with probe detection</t>
+  </si>
+  <si>
     <t>92141-1</t>
   </si>
   <si>
@@ -1435,6 +1603,12 @@
     <t>Francisella tularensis IgG and IgM [Interpretation] in Serum</t>
   </si>
   <si>
+    <t>93979-3</t>
+  </si>
+  <si>
+    <t>Chikungunya virus IgG Ab [Presence] in Serum or Plasma</t>
+  </si>
+  <si>
     <t>94309-2</t>
   </si>
   <si>
@@ -1489,6 +1663,24 @@
     <t>SARS-CoV-2 (COVID-19) RNA [Presence] in Nose by NAA with probe detection</t>
   </si>
   <si>
+    <t>95687-0</t>
+  </si>
+  <si>
+    <t>Chikungunya virus IgM Ab [Presence] in Specimen by Immunoassay</t>
+  </si>
+  <si>
+    <t>96509-5</t>
+  </si>
+  <si>
+    <t>Tick-borne encephalitis virus IgG Ab [Presence] in Specimen by Immunoassay</t>
+  </si>
+  <si>
+    <t>96535-0</t>
+  </si>
+  <si>
+    <t>Tick-borne encephalitis virus IgM Ab [Presence] in Specimen by Immunoassay</t>
+  </si>
+  <si>
     <t>96599-6</t>
   </si>
   <si>
@@ -1513,10 +1705,22 @@
     <t>Campylobacter sp [Presence] in Specimen by Organism specific culture</t>
   </si>
   <si>
+    <t>97523-5</t>
+  </si>
+  <si>
+    <t>Hepatitis A virus RNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
     <t>97621-7</t>
   </si>
   <si>
     <t>Haemophilus influenzae DNA [Presence] in Synovial fluid by NAA with non-probe detection</t>
+  </si>
+  <si>
+    <t>97920-3</t>
+  </si>
+  <si>
+    <t>Tick-borne encephalitis virus RNA [Presence] in Specimen by NAA with probe detection</t>
   </si>
   <si>
     <t>99090-3</t>
@@ -1820,7 +2024,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E235"/>
+  <dimension ref="A1:E269"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1931,22 +2135,22 @@
         <v>38</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="B8" t="s" s="2">
+      <c r="C8" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="C8" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D8" t="s" s="2">
-        <v>39</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -2186,22 +2390,22 @@
         <v>38</v>
       </c>
       <c r="D24" t="s" s="2">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="E24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="B25" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="B25" t="s" s="2">
+      <c r="C25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D25" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D25" t="s" s="2">
-        <v>39</v>
       </c>
       <c r="E25" s="2"/>
     </row>
@@ -2216,16 +2420,16 @@
         <v>38</v>
       </c>
       <c r="D26" t="s" s="2">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="E26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>38</v>
@@ -2237,10 +2441,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C28" t="s" s="2">
         <v>38</v>
@@ -2252,10 +2456,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C29" t="s" s="2">
         <v>38</v>
@@ -2267,10 +2471,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C30" t="s" s="2">
         <v>38</v>
@@ -2282,10 +2486,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>38</v>
@@ -2297,10 +2501,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C32" t="s" s="2">
         <v>38</v>
@@ -2312,10 +2516,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C33" t="s" s="2">
         <v>38</v>
@@ -2327,10 +2531,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C34" t="s" s="2">
         <v>38</v>
@@ -2342,10 +2546,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C35" t="s" s="2">
         <v>38</v>
@@ -2357,10 +2561,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C36" t="s" s="2">
         <v>38</v>
@@ -2372,10 +2576,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C37" t="s" s="2">
         <v>38</v>
@@ -2387,25 +2591,25 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D38" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E38" s="2"/>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C39" t="s" s="2">
         <v>38</v>
@@ -2417,10 +2621,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C40" t="s" s="2">
         <v>38</v>
@@ -2432,10 +2636,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C41" t="s" s="2">
         <v>38</v>
@@ -2447,10 +2651,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C42" t="s" s="2">
         <v>38</v>
@@ -2462,16 +2666,16 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C43" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D43" t="s" s="2">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="E43" s="2"/>
     </row>
@@ -2531,7 +2735,7 @@
         <v>38</v>
       </c>
       <c r="D47" t="s" s="2">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="E47" s="2"/>
     </row>
@@ -2546,7 +2750,7 @@
         <v>38</v>
       </c>
       <c r="D48" t="s" s="2">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="E48" s="2"/>
     </row>
@@ -2606,7 +2810,7 @@
         <v>38</v>
       </c>
       <c r="D52" t="s" s="2">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="E52" s="2"/>
     </row>
@@ -3146,7 +3350,7 @@
         <v>38</v>
       </c>
       <c r="D88" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E88" s="2"/>
     </row>
@@ -3206,7 +3410,7 @@
         <v>38</v>
       </c>
       <c r="D92" t="s" s="2">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="E92" s="2"/>
     </row>
@@ -3281,7 +3485,7 @@
         <v>38</v>
       </c>
       <c r="D97" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E97" s="2"/>
     </row>
@@ -3296,7 +3500,7 @@
         <v>38</v>
       </c>
       <c r="D98" t="s" s="2">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="E98" s="2"/>
     </row>
@@ -3446,7 +3650,7 @@
         <v>38</v>
       </c>
       <c r="D108" t="s" s="2">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="E108" s="2"/>
     </row>
@@ -3851,7 +4055,7 @@
         <v>38</v>
       </c>
       <c r="D135" t="s" s="2">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="E135" s="2"/>
     </row>
@@ -4091,7 +4295,7 @@
         <v>38</v>
       </c>
       <c r="D151" t="s" s="2">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="E151" s="2"/>
     </row>
@@ -4121,7 +4325,7 @@
         <v>38</v>
       </c>
       <c r="D153" t="s" s="2">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="E153" s="2"/>
     </row>
@@ -4406,7 +4610,7 @@
         <v>38</v>
       </c>
       <c r="D172" t="s" s="2">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="E172" s="2"/>
     </row>
@@ -4511,7 +4715,7 @@
         <v>38</v>
       </c>
       <c r="D179" t="s" s="2">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="E179" s="2"/>
     </row>
@@ -4691,7 +4895,7 @@
         <v>38</v>
       </c>
       <c r="D191" t="s" s="2">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="E191" s="2"/>
     </row>
@@ -4826,7 +5030,7 @@
         <v>38</v>
       </c>
       <c r="D200" t="s" s="2">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="E200" s="2"/>
     </row>
@@ -4871,7 +5075,7 @@
         <v>38</v>
       </c>
       <c r="D203" t="s" s="2">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="E203" s="2"/>
     </row>
@@ -4886,7 +5090,7 @@
         <v>38</v>
       </c>
       <c r="D204" t="s" s="2">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="E204" s="2"/>
     </row>
@@ -5036,7 +5240,7 @@
         <v>38</v>
       </c>
       <c r="D214" t="s" s="2">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="E214" s="2"/>
     </row>
@@ -5096,7 +5300,7 @@
         <v>38</v>
       </c>
       <c r="D218" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E218" s="2"/>
     </row>
@@ -5111,7 +5315,7 @@
         <v>38</v>
       </c>
       <c r="D219" t="s" s="2">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="E219" s="2"/>
     </row>
@@ -5171,7 +5375,7 @@
         <v>38</v>
       </c>
       <c r="D223" t="s" s="2">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="E223" s="2"/>
     </row>
@@ -5186,7 +5390,7 @@
         <v>38</v>
       </c>
       <c r="D224" t="s" s="2">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="E224" s="2"/>
     </row>
@@ -5201,7 +5405,7 @@
         <v>38</v>
       </c>
       <c r="D225" t="s" s="2">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="E225" s="2"/>
     </row>
@@ -5231,7 +5435,7 @@
         <v>38</v>
       </c>
       <c r="D227" t="s" s="2">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="E227" s="2"/>
     </row>
@@ -5261,7 +5465,7 @@
         <v>38</v>
       </c>
       <c r="D229" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E229" s="2"/>
     </row>
@@ -5276,7 +5480,7 @@
         <v>38</v>
       </c>
       <c r="D230" t="s" s="2">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="E230" s="2"/>
     </row>
@@ -5354,6 +5558,516 @@
         <v>39</v>
       </c>
       <c r="E235" s="2"/>
+    </row>
+    <row r="236">
+      <c r="A236" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="B236" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="C236" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D236" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E236" s="2"/>
+    </row>
+    <row r="237">
+      <c r="A237" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="B237" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="C237" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D237" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E237" s="2"/>
+    </row>
+    <row r="238">
+      <c r="A238" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="B238" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="C238" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D238" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E238" s="2"/>
+    </row>
+    <row r="239">
+      <c r="A239" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="B239" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="C239" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D239" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E239" s="2"/>
+    </row>
+    <row r="240">
+      <c r="A240" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="B240" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="C240" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D240" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E240" s="2"/>
+    </row>
+    <row r="241">
+      <c r="A241" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="B241" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="C241" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D241" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E241" s="2"/>
+    </row>
+    <row r="242">
+      <c r="A242" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="B242" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="C242" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D242" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E242" s="2"/>
+    </row>
+    <row r="243">
+      <c r="A243" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="B243" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="C243" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D243" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E243" s="2"/>
+    </row>
+    <row r="244">
+      <c r="A244" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="B244" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="C244" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D244" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E244" s="2"/>
+    </row>
+    <row r="245">
+      <c r="A245" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="B245" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="C245" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D245" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E245" s="2"/>
+    </row>
+    <row r="246">
+      <c r="A246" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="B246" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="C246" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D246" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="E246" s="2"/>
+    </row>
+    <row r="247">
+      <c r="A247" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="B247" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="C247" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D247" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E247" s="2"/>
+    </row>
+    <row r="248">
+      <c r="A248" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="B248" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="C248" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D248" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="E248" s="2"/>
+    </row>
+    <row r="249">
+      <c r="A249" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="B249" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="C249" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D249" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E249" s="2"/>
+    </row>
+    <row r="250">
+      <c r="A250" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="B250" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="C250" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D250" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E250" s="2"/>
+    </row>
+    <row r="251">
+      <c r="A251" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="B251" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="C251" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D251" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E251" s="2"/>
+    </row>
+    <row r="252">
+      <c r="A252" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="B252" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="C252" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D252" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="E252" s="2"/>
+    </row>
+    <row r="253">
+      <c r="A253" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="B253" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="C253" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D253" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="E253" s="2"/>
+    </row>
+    <row r="254">
+      <c r="A254" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="B254" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="C254" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D254" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="E254" s="2"/>
+    </row>
+    <row r="255">
+      <c r="A255" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="B255" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="C255" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D255" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E255" s="2"/>
+    </row>
+    <row r="256">
+      <c r="A256" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="B256" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="C256" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D256" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="E256" s="2"/>
+    </row>
+    <row r="257">
+      <c r="A257" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="B257" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="C257" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D257" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E257" s="2"/>
+    </row>
+    <row r="258">
+      <c r="A258" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="B258" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="C258" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D258" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E258" s="2"/>
+    </row>
+    <row r="259">
+      <c r="A259" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="B259" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="C259" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D259" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E259" s="2"/>
+    </row>
+    <row r="260">
+      <c r="A260" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="B260" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="C260" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D260" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E260" s="2"/>
+    </row>
+    <row r="261">
+      <c r="A261" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="B261" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="C261" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D261" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="E261" s="2"/>
+    </row>
+    <row r="262">
+      <c r="A262" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="B262" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="C262" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D262" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E262" s="2"/>
+    </row>
+    <row r="263">
+      <c r="A263" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="B263" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="C263" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D263" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E263" s="2"/>
+    </row>
+    <row r="264">
+      <c r="A264" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="B264" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="C264" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D264" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E264" s="2"/>
+    </row>
+    <row r="265">
+      <c r="A265" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="B265" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="C265" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D265" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E265" s="2"/>
+    </row>
+    <row r="266">
+      <c r="A266" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="B266" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="C266" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D266" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E266" s="2"/>
+    </row>
+    <row r="267">
+      <c r="A267" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="B267" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="C267" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D267" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E267" s="2"/>
+    </row>
+    <row r="268">
+      <c r="A268" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="B268" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="C268" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D268" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E268" s="2"/>
+    </row>
+    <row r="269">
+      <c r="A269" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="B269" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="C269" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D269" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E269" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -5387,7 +6101,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>507</v>
+        <v>575</v>
       </c>
       <c r="B2" t="s" s="2">
         <v>34</v>
@@ -5404,10 +6118,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>508</v>
+        <v>576</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>509</v>
+        <v>577</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>38</v>

--- a/ig/ch-elm/ch-elm-results-to-interpretation-code.xlsx
+++ b/ig/ch-elm/ch-elm-results-to-interpretation-code.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="683">
   <si>
     <t>Property</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.0</t>
+    <t>1.6.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-24T11:18:39+00:00</t>
+    <t>2024-10-31T11:15:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -169,6 +169,12 @@
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-interpretation-codes-sero</t>
   </si>
   <si>
+    <t>101003-2</t>
+  </si>
+  <si>
+    <t>Monkeypox virus clade [Type] in Specimen by Sequencing</t>
+  </si>
+  <si>
     <t>101219-4</t>
   </si>
   <si>
@@ -229,12 +235,39 @@
     <t>Campylobacter upsaliensis DNA [Presence] in Stool by NAA with probe detection</t>
   </si>
   <si>
+    <t>101662-5</t>
+  </si>
+  <si>
+    <t>Abnormal Prion Protein [Presence] in Cerebral spinal fluid by RT-QuIC</t>
+  </si>
+  <si>
+    <t>101802-7</t>
+  </si>
+  <si>
+    <t>Brucella sp IgA Ab [Presence] in Serum</t>
+  </si>
+  <si>
     <t>103168-1</t>
   </si>
   <si>
     <t>Campylobacter coli+jejuni DNA [Presence] in Wound by NAA with probe detection</t>
   </si>
   <si>
+    <t>103717-5</t>
+  </si>
+  <si>
+    <t>Crimean-Congo hemorrhagic fever virus RNA [Presence] in Blood by NAA with non-probe detection</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-interpretation-codes-pos-neg</t>
+  </si>
+  <si>
+    <t>103719-1</t>
+  </si>
+  <si>
+    <t>Lassa virus RNA [Presence] in Blood by NAA with non-probe detection</t>
+  </si>
+  <si>
     <t>104371-0</t>
   </si>
   <si>
@@ -271,9 +304,6 @@
     <t>Diphtheria toxin DNA [Presence] in Specimen by NAA with probe detection</t>
   </si>
   <si>
-    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-interpretation-codes-pos-neg</t>
-  </si>
-  <si>
     <t>104395-9</t>
   </si>
   <si>
@@ -283,6 +313,12 @@
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-interpretation-codes-titer</t>
   </si>
   <si>
+    <t>104476-7</t>
+  </si>
+  <si>
+    <t>Zika virus IgG Ab [Titer] in Serum by Immunoassay --2nd specimen</t>
+  </si>
+  <si>
     <t>11259-9</t>
   </si>
   <si>
@@ -349,6 +385,12 @@
     <t>Rubella virus IgM Ab [Presence] in Cerebral spinal fluid</t>
   </si>
   <si>
+    <t>17563-8</t>
+  </si>
+  <si>
+    <t>Salmonella sp identified in Specimen by Organism specific culture</t>
+  </si>
+  <si>
     <t>20458-6</t>
   </si>
   <si>
@@ -415,6 +457,18 @@
     <t>Measles virus IgG Ab [Titer] in Serum</t>
   </si>
   <si>
+    <t>22866-8</t>
+  </si>
+  <si>
+    <t>Bacillus anthracis Ag [Presence] in Tissue by Immunofluorescence</t>
+  </si>
+  <si>
+    <t>22867-6</t>
+  </si>
+  <si>
+    <t>Bacillus anthracis Ag [Presence] in Specimen by Immunofluorescence</t>
+  </si>
+  <si>
     <t>23126-6</t>
   </si>
   <si>
@@ -457,6 +511,18 @@
     <t>Rubella virus IgM Ab [Presence] in Serum or Plasma by Immunoassay</t>
   </si>
   <si>
+    <t>24396-4</t>
+  </si>
+  <si>
+    <t>Brucella sp IgG Ab [Presence] in Serum</t>
+  </si>
+  <si>
+    <t>24397-2</t>
+  </si>
+  <si>
+    <t>Brucella sp IgM Ab [Presence] in Serum</t>
+  </si>
+  <si>
     <t>25338-5</t>
   </si>
   <si>
@@ -487,6 +553,12 @@
     <t>Rubella virus IgM Ab [Presence] in Serum</t>
   </si>
   <si>
+    <t>31726-3</t>
+  </si>
+  <si>
+    <t>Bacillus anthracis Ag [Presence] in Specimen</t>
+  </si>
+  <si>
     <t>31777-6</t>
   </si>
   <si>
@@ -589,6 +661,12 @@
     <t>Streptococcus pneumoniae Ag [Presence] in Specimen</t>
   </si>
   <si>
+    <t>31989-7</t>
+  </si>
+  <si>
+    <t>14-3-3 Ag [Presence] in Cerebral spinal fluid</t>
+  </si>
+  <si>
     <t>32705-6</t>
   </si>
   <si>
@@ -613,12 +691,42 @@
     <t>Francisella tularensis DNA [Presence] in Specimen by NAA with probe detection</t>
   </si>
   <si>
+    <t>33685-9</t>
+  </si>
+  <si>
+    <t>Yersinia pestis [Presence] in Specimen by Organism specific culture</t>
+  </si>
+  <si>
+    <t>33687-5</t>
+  </si>
+  <si>
+    <t>Yersinia pestis Ag [Presence] in Specimen by Immunofluorescence</t>
+  </si>
+  <si>
+    <t>33691-7</t>
+  </si>
+  <si>
+    <t>Yersinia pestis DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>33696-6</t>
+  </si>
+  <si>
+    <t>Clostridium botulinum toxin [Presence] in Specimen by Mouse bioassay</t>
+  </si>
+  <si>
     <t>34487-9</t>
   </si>
   <si>
     <t>Influenza virus A RNA [Presence] in Specimen by NAA with probe detection</t>
   </si>
   <si>
+    <t>38275-4</t>
+  </si>
+  <si>
+    <t>Transmissible spongiform encephalopathy [Presence] in Brain by Light microscopy</t>
+  </si>
+  <si>
     <t>38353-9</t>
   </si>
   <si>
@@ -673,12 +781,54 @@
     <t>Plasmodium vivax DNA [Presence] in Blood by NAA with probe detection</t>
   </si>
   <si>
+    <t>41458-1</t>
+  </si>
+  <si>
+    <t>SARS coronavirus RNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>41623-0</t>
+  </si>
+  <si>
+    <t>Bacillus anthracis DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>41625-5</t>
+  </si>
+  <si>
+    <t>Brucella sp DNA [Identifier] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>41626-3</t>
+  </si>
+  <si>
+    <t>Brucella sp DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>41636-2</t>
+  </si>
+  <si>
+    <t>Ebola virus RNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>41638-8</t>
+  </si>
+  <si>
+    <t>Marburg virus RNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
     <t>41763-4</t>
   </si>
   <si>
     <t>Rubella virus IgG Ab [Titer] in Serum</t>
   </si>
   <si>
+    <t>41856-6</t>
+  </si>
+  <si>
+    <t>Variola virus DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
     <t>42931-6</t>
   </si>
   <si>
@@ -709,6 +859,12 @@
     <t>Measles virus IgG and IgM [Interpretation] in Serum</t>
   </si>
   <si>
+    <t>44797-9</t>
+  </si>
+  <si>
+    <t>Brucella sp [Presence] in Specimen by Organism specific culture</t>
+  </si>
+  <si>
     <t>45084-1</t>
   </si>
   <si>
@@ -787,10 +943,10 @@
     <t>Influenza virus A H3 RNA [Presence] in Specimen by NAA with probe detection</t>
   </si>
   <si>
-    <t>49609-1</t>
-  </si>
-  <si>
-    <t>Vibrio sp DNA [Identifier] in Specimen by NAA with probe detection</t>
+    <t>49612-5</t>
+  </si>
+  <si>
+    <t>Salmonella sp DNA [Presence] in Specimen by NAA with probe detection</t>
   </si>
   <si>
     <t>49614-1</t>
@@ -895,6 +1051,15 @@
     <t>Hepatitis C virus Ab [Presence] in Serum by Immunoblot</t>
   </si>
   <si>
+    <t>52986-7</t>
+  </si>
+  <si>
+    <t>Rubella virus IgG Ab avidity [Ratio] in Serum by Immunoassay</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-interpretation-codes-avidity</t>
+  </si>
+  <si>
     <t>53607-8</t>
   </si>
   <si>
@@ -949,6 +1114,12 @@
     <t>Rubella virus RNA [Presence] in Specimen by NAA with probe detection</t>
   </si>
   <si>
+    <t>552-0</t>
+  </si>
+  <si>
+    <t>Brucella sp identified in Specimen by Organism specific culture</t>
+  </si>
+  <si>
     <t>55465-9</t>
   </si>
   <si>
@@ -967,6 +1138,12 @@
     <t>Chikungunya virus IgM Ab [Presence] in Serum or Plasma by Immunofluorescence</t>
   </si>
   <si>
+    <t>56475-7</t>
+  </si>
+  <si>
+    <t>Salmonella sp antigenic formula [Identifier] in Isolate by Agglutination</t>
+  </si>
+  <si>
     <t>57287-5</t>
   </si>
   <si>
@@ -1033,6 +1210,12 @@
     <t>Measles virus genotype [Identifier] in Specimen by NAA with probe detection</t>
   </si>
   <si>
+    <t>60534-5</t>
+  </si>
+  <si>
+    <t>SARS coronavirus RNA [Presence] in Serum or Plasma by NAA with probe detection</t>
+  </si>
+  <si>
     <t>61366-1</t>
   </si>
   <si>
@@ -1111,6 +1294,12 @@
     <t>Rubella virus identified in Serum by Organism specific culture</t>
   </si>
   <si>
+    <t>65756-9</t>
+  </si>
+  <si>
+    <t>Salmonella sp serovar [Type] in Isolate</t>
+  </si>
+  <si>
     <t>6578-9</t>
   </si>
   <si>
@@ -1243,6 +1432,18 @@
     <t>Campylobacter sp DNA.diarrheagenic [Presence] in Stool by NAA with probe detection</t>
   </si>
   <si>
+    <t>72307-2</t>
+  </si>
+  <si>
+    <t>Brucella sp IgG Ab [Titer] in Serum --2nd specimen</t>
+  </si>
+  <si>
+    <t>74037-3</t>
+  </si>
+  <si>
+    <t>Transmissible spongiform encephalopathy [Identifier] in Brain by Light microscopy</t>
+  </si>
+  <si>
     <t>74785-7</t>
   </si>
   <si>
@@ -1255,6 +1456,12 @@
     <t>Influenza virus B Yamagata lineage RNA [Presence] in Specimen by NAA with probe detection</t>
   </si>
   <si>
+    <t>75756-7</t>
+  </si>
+  <si>
+    <t>Bacteria identified in Isolate by MS.MALDI-TOF</t>
+  </si>
+  <si>
     <t>76078-5</t>
   </si>
   <si>
@@ -1321,6 +1528,12 @@
     <t>Hepatitis C virus core Ag [Presence] in Serum or Plasma by Immunoassay</t>
   </si>
   <si>
+    <t>79190-5</t>
+  </si>
+  <si>
+    <t>Zika virus RNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
     <t>7964-0</t>
   </si>
   <si>
@@ -1363,6 +1576,12 @@
     <t>Vibrio cholerae toxin ctxA gene [Presence] in Stool by NAA with probe detection</t>
   </si>
   <si>
+    <t>80824-6</t>
+  </si>
+  <si>
+    <t>Zika virus IgM Ab [Presence] in Serum or Plasma by Immunoassay</t>
+  </si>
+  <si>
     <t>81656-1</t>
   </si>
   <si>
@@ -1381,6 +1600,18 @@
     <t>Shigella sp [Presence] in Stool by Culture</t>
   </si>
   <si>
+    <t>82301-3</t>
+  </si>
+  <si>
+    <t>Salmonella sp [Presence] in Stool by Culture</t>
+  </si>
+  <si>
+    <t>82731-1</t>
+  </si>
+  <si>
+    <t>Zika virus IgM Ab [Presence] in Serum by Immunofluorescence</t>
+  </si>
+  <si>
     <t>85477-8</t>
   </si>
   <si>
@@ -1393,6 +1624,18 @@
     <t>Influenza virus B RNA [Presence] in Upper respiratory specimen by NAA with probe detection</t>
   </si>
   <si>
+    <t>85622-9</t>
+  </si>
+  <si>
+    <t>Zika virus RNA [Presence] in Serum or Plasma by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>85623-7</t>
+  </si>
+  <si>
+    <t>Zika virus RNA [Presence] in Urine by NAA with probe detection</t>
+  </si>
+  <si>
     <t>85827-4</t>
   </si>
   <si>
@@ -1405,6 +1648,18 @@
     <t>Chikungunya virus RNA [Presence] in Urine by NAA with probe detection</t>
   </si>
   <si>
+    <t>86518-8</t>
+  </si>
+  <si>
+    <t>Ebola virus RNA [Presence] in Blood by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>86574-1</t>
+  </si>
+  <si>
+    <t>Marburg virus RNA [Presence] in Blood by NAA with probe detection</t>
+  </si>
+  <si>
     <t>86576-6</t>
   </si>
   <si>
@@ -1423,6 +1678,24 @@
     <t>Rubella virus RNA [Presence] in Urine by NAA with probe detection</t>
   </si>
   <si>
+    <t>87622-7</t>
+  </si>
+  <si>
+    <t>Zika virus IgM Ab [Presence] in Specimen by Immunoassay</t>
+  </si>
+  <si>
+    <t>88192-0</t>
+  </si>
+  <si>
+    <t>Crimean-Congo hemorrhagic fever virus RNA [Presence] in Serum by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>88199-5</t>
+  </si>
+  <si>
+    <t>Middle East respiratory syndrome coronavirus (MERS-CoV) RNA [Presence] in Aspirate by NAA with probe detection</t>
+  </si>
+  <si>
     <t>88224-1</t>
   </si>
   <si>
@@ -1501,6 +1774,12 @@
     <t>Measles virus RNA [Presence] in Upper respiratory specimen by NAA with probe detection</t>
   </si>
   <si>
+    <t>91078-6</t>
+  </si>
+  <si>
+    <t>Zika virus RNA [Presence] in Blood by NAA with probe detection</t>
+  </si>
+  <si>
     <t>91132-1</t>
   </si>
   <si>
@@ -1525,12 +1804,24 @@
     <t>Rubella virus RNA [Presence] in Upper respiratory specimen by NAA with probe detection</t>
   </si>
   <si>
+    <t>91807-8</t>
+  </si>
+  <si>
+    <t>Middle East respiratory syndrome coronavirus (MERS-CoV) RNA [Presence] in Upper respiratory specimen by NAA with probe detection</t>
+  </si>
+  <si>
     <t>91823-5</t>
   </si>
   <si>
     <t>Rubella virus RNA [Presence] in Lower respiratory specimen by NAA with probe detection</t>
   </si>
   <si>
+    <t>91830-0</t>
+  </si>
+  <si>
+    <t>Middle East respiratory syndrome coronavirus (MERS-CoV) RNA [Presence] in Lower respiratory specimen by NAA with probe detection</t>
+  </si>
+  <si>
     <t>92141-1</t>
   </si>
   <si>
@@ -1573,6 +1864,12 @@
     <t>Influenza virus A H1 RNA [Presence] in Upper respiratory specimen by NAA with probe detection</t>
   </si>
   <si>
+    <t>93385-3</t>
+  </si>
+  <si>
+    <t>Salmonella sp DNA [Presence] by NAA with probe detection in Positive blood culture</t>
+  </si>
+  <si>
     <t>93388-7</t>
   </si>
   <si>
@@ -1639,6 +1936,12 @@
     <t>SARS-CoV-2 (COVID-19) RNA [Presence] in Respiratory system specimen by NAA with probe detection</t>
   </si>
   <si>
+    <t>94501-4</t>
+  </si>
+  <si>
+    <t>Middle East respiratory syndrome coronavirus (MERS-CoV) RNA [Presence] in Respiratory system specimen by NAA with probe detection</t>
+  </si>
+  <si>
     <t>94759-8</t>
   </si>
   <si>
@@ -1693,6 +1996,12 @@
     <t>SARS-CoV-2 (COVID-19) RNA [Presence] in Oropharyngeal wash by NAA with probe detection</t>
   </si>
   <si>
+    <t>97313-1</t>
+  </si>
+  <si>
+    <t>Salmonella sp DNA [Presence] in Stool by NAA with probe detection</t>
+  </si>
+  <si>
     <t>97314-9</t>
   </si>
   <si>
@@ -1715,6 +2024,12 @@
   </si>
   <si>
     <t>Haemophilus influenzae DNA [Presence] in Synovial fluid by NAA with non-probe detection</t>
+  </si>
+  <si>
+    <t>97646-4</t>
+  </si>
+  <si>
+    <t>Lassa virus RNA [Presence] in Specimen by NAA with probe detection</t>
   </si>
   <si>
     <t>97920-3</t>
@@ -2024,7 +2339,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E269"/>
+  <dimension ref="A1:E321"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2375,37 +2690,37 @@
         <v>38</v>
       </c>
       <c r="D23" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="E23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D24" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="C24" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D24" t="s" s="2">
-        <v>39</v>
       </c>
       <c r="E24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D25" t="s" s="2">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="E25" s="2"/>
     </row>
@@ -2420,16 +2735,16 @@
         <v>38</v>
       </c>
       <c r="D26" t="s" s="2">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="E26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="B27" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>38</v>
@@ -2441,10 +2756,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="B28" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>92</v>
       </c>
       <c r="C28" t="s" s="2">
         <v>38</v>
@@ -2456,10 +2771,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="B29" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="C29" t="s" s="2">
         <v>38</v>
@@ -2471,31 +2786,31 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="B30" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="B30" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="C30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D30" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="E30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="B31" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="B31" t="s" s="2">
+      <c r="C31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D31" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D31" t="s" s="2">
-        <v>39</v>
       </c>
       <c r="E31" s="2"/>
     </row>
@@ -2510,7 +2825,7 @@
         <v>38</v>
       </c>
       <c r="D32" t="s" s="2">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="E32" s="2"/>
     </row>
@@ -2600,7 +2915,7 @@
         <v>38</v>
       </c>
       <c r="D38" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E38" s="2"/>
     </row>
@@ -2705,7 +3020,7 @@
         <v>38</v>
       </c>
       <c r="D45" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E45" s="2"/>
     </row>
@@ -2750,7 +3065,7 @@
         <v>38</v>
       </c>
       <c r="D48" t="s" s="2">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="E48" s="2"/>
     </row>
@@ -2810,7 +3125,7 @@
         <v>38</v>
       </c>
       <c r="D52" t="s" s="2">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="E52" s="2"/>
     </row>
@@ -2855,7 +3170,7 @@
         <v>38</v>
       </c>
       <c r="D55" t="s" s="2">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="E55" s="2"/>
     </row>
@@ -2870,7 +3185,7 @@
         <v>38</v>
       </c>
       <c r="D56" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="E56" s="2"/>
     </row>
@@ -2885,7 +3200,7 @@
         <v>38</v>
       </c>
       <c r="D57" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="E57" s="2"/>
     </row>
@@ -2945,7 +3260,7 @@
         <v>38</v>
       </c>
       <c r="D61" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="E61" s="2"/>
     </row>
@@ -3110,7 +3425,7 @@
         <v>38</v>
       </c>
       <c r="D72" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="E72" s="2"/>
     </row>
@@ -3410,7 +3725,7 @@
         <v>38</v>
       </c>
       <c r="D92" t="s" s="2">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="E92" s="2"/>
     </row>
@@ -3455,7 +3770,7 @@
         <v>38</v>
       </c>
       <c r="D95" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="E95" s="2"/>
     </row>
@@ -3470,7 +3785,7 @@
         <v>38</v>
       </c>
       <c r="D96" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="E96" s="2"/>
     </row>
@@ -3485,7 +3800,7 @@
         <v>38</v>
       </c>
       <c r="D97" t="s" s="2">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="E97" s="2"/>
     </row>
@@ -3500,7 +3815,7 @@
         <v>38</v>
       </c>
       <c r="D98" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="E98" s="2"/>
     </row>
@@ -3650,7 +3965,7 @@
         <v>38</v>
       </c>
       <c r="D108" t="s" s="2">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="E108" s="2"/>
     </row>
@@ -3680,7 +3995,7 @@
         <v>38</v>
       </c>
       <c r="D110" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="E110" s="2"/>
     </row>
@@ -3695,7 +4010,7 @@
         <v>38</v>
       </c>
       <c r="D111" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="E111" s="2"/>
     </row>
@@ -3740,7 +4055,7 @@
         <v>38</v>
       </c>
       <c r="D114" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="E114" s="2"/>
     </row>
@@ -3755,7 +4070,7 @@
         <v>38</v>
       </c>
       <c r="D115" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="E115" s="2"/>
     </row>
@@ -3770,7 +4085,7 @@
         <v>38</v>
       </c>
       <c r="D116" t="s" s="2">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="E116" s="2"/>
     </row>
@@ -3785,7 +4100,7 @@
         <v>38</v>
       </c>
       <c r="D117" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="E117" s="2"/>
     </row>
@@ -3860,7 +4175,7 @@
         <v>38</v>
       </c>
       <c r="D122" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E122" s="2"/>
     </row>
@@ -4040,7 +4355,7 @@
         <v>38</v>
       </c>
       <c r="D134" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="E134" s="2"/>
     </row>
@@ -4295,7 +4610,7 @@
         <v>38</v>
       </c>
       <c r="D151" t="s" s="2">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="E151" s="2"/>
     </row>
@@ -4355,16 +4670,16 @@
         <v>38</v>
       </c>
       <c r="D155" t="s" s="2">
-        <v>39</v>
+        <v>347</v>
       </c>
       <c r="E155" s="2"/>
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C156" t="s" s="2">
         <v>38</v>
@@ -4376,10 +4691,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C157" t="s" s="2">
         <v>38</v>
@@ -4391,10 +4706,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C158" t="s" s="2">
         <v>38</v>
@@ -4406,10 +4721,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C159" t="s" s="2">
         <v>38</v>
@@ -4421,10 +4736,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C160" t="s" s="2">
         <v>38</v>
@@ -4436,10 +4751,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C161" t="s" s="2">
         <v>38</v>
@@ -4451,10 +4766,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C162" t="s" s="2">
         <v>38</v>
@@ -4466,10 +4781,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C163" t="s" s="2">
         <v>38</v>
@@ -4481,10 +4796,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C164" t="s" s="2">
         <v>38</v>
@@ -4496,10 +4811,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C165" t="s" s="2">
         <v>38</v>
@@ -4511,10 +4826,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C166" t="s" s="2">
         <v>38</v>
@@ -4526,10 +4841,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C167" t="s" s="2">
         <v>38</v>
@@ -4541,10 +4856,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C168" t="s" s="2">
         <v>38</v>
@@ -4556,10 +4871,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C169" t="s" s="2">
         <v>38</v>
@@ -4571,10 +4886,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C170" t="s" s="2">
         <v>38</v>
@@ -4586,10 +4901,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C171" t="s" s="2">
         <v>38</v>
@@ -4601,25 +4916,25 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C172" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D172" t="s" s="2">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="E172" s="2"/>
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C173" t="s" s="2">
         <v>38</v>
@@ -4631,10 +4946,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C174" t="s" s="2">
         <v>38</v>
@@ -4646,10 +4961,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C175" t="s" s="2">
         <v>38</v>
@@ -4661,10 +4976,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C176" t="s" s="2">
         <v>38</v>
@@ -4676,10 +4991,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C177" t="s" s="2">
         <v>38</v>
@@ -4691,10 +5006,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C178" t="s" s="2">
         <v>38</v>
@@ -4706,10 +5021,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C179" t="s" s="2">
         <v>38</v>
@@ -4721,40 +5036,40 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C180" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D180" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="E180" s="2"/>
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C181" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D181" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="E181" s="2"/>
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C182" t="s" s="2">
         <v>38</v>
@@ -4766,10 +5081,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C183" t="s" s="2">
         <v>38</v>
@@ -4781,10 +5096,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C184" t="s" s="2">
         <v>38</v>
@@ -4796,10 +5111,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C185" t="s" s="2">
         <v>38</v>
@@ -4811,10 +5126,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C186" t="s" s="2">
         <v>38</v>
@@ -4826,10 +5141,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C187" t="s" s="2">
         <v>38</v>
@@ -4841,10 +5156,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C188" t="s" s="2">
         <v>38</v>
@@ -4856,10 +5171,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C189" t="s" s="2">
         <v>38</v>
@@ -4871,10 +5186,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C190" t="s" s="2">
         <v>38</v>
@@ -4886,10 +5201,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C191" t="s" s="2">
         <v>38</v>
@@ -4901,10 +5216,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C192" t="s" s="2">
         <v>38</v>
@@ -4916,10 +5231,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C193" t="s" s="2">
         <v>38</v>
@@ -4931,10 +5246,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C194" t="s" s="2">
         <v>38</v>
@@ -4946,10 +5261,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C195" t="s" s="2">
         <v>38</v>
@@ -4961,10 +5276,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C196" t="s" s="2">
         <v>38</v>
@@ -4976,10 +5291,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C197" t="s" s="2">
         <v>38</v>
@@ -4991,10 +5306,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C198" t="s" s="2">
         <v>38</v>
@@ -5006,10 +5321,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C199" t="s" s="2">
         <v>38</v>
@@ -5021,25 +5336,25 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C200" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D200" t="s" s="2">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="E200" s="2"/>
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C201" t="s" s="2">
         <v>38</v>
@@ -5051,10 +5366,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C202" t="s" s="2">
         <v>38</v>
@@ -5066,25 +5381,25 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C203" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D203" t="s" s="2">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="E203" s="2"/>
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C204" t="s" s="2">
         <v>38</v>
@@ -5096,10 +5411,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C205" t="s" s="2">
         <v>38</v>
@@ -5111,10 +5426,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C206" t="s" s="2">
         <v>38</v>
@@ -5126,10 +5441,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C207" t="s" s="2">
         <v>38</v>
@@ -5141,10 +5456,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C208" t="s" s="2">
         <v>38</v>
@@ -5156,10 +5471,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C209" t="s" s="2">
         <v>38</v>
@@ -5171,10 +5486,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C210" t="s" s="2">
         <v>38</v>
@@ -5186,10 +5501,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C211" t="s" s="2">
         <v>38</v>
@@ -5201,10 +5516,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C212" t="s" s="2">
         <v>38</v>
@@ -5216,10 +5531,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C213" t="s" s="2">
         <v>38</v>
@@ -5231,25 +5546,25 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C214" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D214" t="s" s="2">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="E214" s="2"/>
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C215" t="s" s="2">
         <v>38</v>
@@ -5261,10 +5576,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C216" t="s" s="2">
         <v>38</v>
@@ -5276,10 +5591,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C217" t="s" s="2">
         <v>38</v>
@@ -5291,25 +5606,25 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C218" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D218" t="s" s="2">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="E218" s="2"/>
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C219" t="s" s="2">
         <v>38</v>
@@ -5321,10 +5636,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C220" t="s" s="2">
         <v>38</v>
@@ -5336,10 +5651,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C221" t="s" s="2">
         <v>38</v>
@@ -5351,25 +5666,25 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C222" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D222" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="E222" s="2"/>
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C223" t="s" s="2">
         <v>38</v>
@@ -5381,10 +5696,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C224" t="s" s="2">
         <v>38</v>
@@ -5396,10 +5711,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C225" t="s" s="2">
         <v>38</v>
@@ -5411,10 +5726,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C226" t="s" s="2">
         <v>38</v>
@@ -5426,10 +5741,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C227" t="s" s="2">
         <v>38</v>
@@ -5441,10 +5756,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C228" t="s" s="2">
         <v>38</v>
@@ -5456,40 +5771,40 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C229" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D229" t="s" s="2">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="E229" s="2"/>
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C230" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D230" t="s" s="2">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="E230" s="2"/>
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C231" t="s" s="2">
         <v>38</v>
@@ -5501,10 +5816,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C232" t="s" s="2">
         <v>38</v>
@@ -5516,10 +5831,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C233" t="s" s="2">
         <v>38</v>
@@ -5531,10 +5846,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C234" t="s" s="2">
         <v>38</v>
@@ -5546,25 +5861,25 @@
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C235" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D235" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="E235" s="2"/>
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C236" t="s" s="2">
         <v>38</v>
@@ -5576,10 +5891,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C237" t="s" s="2">
         <v>38</v>
@@ -5591,10 +5906,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C238" t="s" s="2">
         <v>38</v>
@@ -5606,10 +5921,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C239" t="s" s="2">
         <v>38</v>
@@ -5621,10 +5936,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C240" t="s" s="2">
         <v>38</v>
@@ -5636,10 +5951,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C241" t="s" s="2">
         <v>38</v>
@@ -5651,10 +5966,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C242" t="s" s="2">
         <v>38</v>
@@ -5666,10 +5981,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B243" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C243" t="s" s="2">
         <v>38</v>
@@ -5681,10 +5996,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C244" t="s" s="2">
         <v>38</v>
@@ -5696,10 +6011,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B245" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C245" t="s" s="2">
         <v>38</v>
@@ -5711,25 +6026,25 @@
     </row>
     <row r="246">
       <c r="A246" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B246" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C246" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D246" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E246" s="2"/>
     </row>
     <row r="247">
       <c r="A247" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B247" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C247" t="s" s="2">
         <v>38</v>
@@ -5741,25 +6056,25 @@
     </row>
     <row r="248">
       <c r="A248" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B248" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C248" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D248" t="s" s="2">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="E248" s="2"/>
     </row>
     <row r="249">
       <c r="A249" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B249" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C249" t="s" s="2">
         <v>38</v>
@@ -5771,10 +6086,10 @@
     </row>
     <row r="250">
       <c r="A250" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B250" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C250" t="s" s="2">
         <v>38</v>
@@ -5786,10 +6101,10 @@
     </row>
     <row r="251">
       <c r="A251" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B251" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C251" t="s" s="2">
         <v>38</v>
@@ -5801,85 +6116,85 @@
     </row>
     <row r="252">
       <c r="A252" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B252" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C252" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D252" t="s" s="2">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="E252" s="2"/>
     </row>
     <row r="253">
       <c r="A253" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B253" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C253" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D253" t="s" s="2">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="E253" s="2"/>
     </row>
     <row r="254">
       <c r="A254" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B254" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C254" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D254" t="s" s="2">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E254" s="2"/>
     </row>
     <row r="255">
       <c r="A255" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B255" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C255" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D255" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="E255" s="2"/>
     </row>
     <row r="256">
       <c r="A256" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B256" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C256" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D256" t="s" s="2">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E256" s="2"/>
     </row>
     <row r="257">
       <c r="A257" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B257" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C257" t="s" s="2">
         <v>38</v>
@@ -5891,10 +6206,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B258" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C258" t="s" s="2">
         <v>38</v>
@@ -5906,10 +6221,10 @@
     </row>
     <row r="259">
       <c r="A259" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B259" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C259" t="s" s="2">
         <v>38</v>
@@ -5921,40 +6236,40 @@
     </row>
     <row r="260">
       <c r="A260" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B260" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C260" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D260" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="E260" s="2"/>
     </row>
     <row r="261">
       <c r="A261" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B261" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C261" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D261" t="s" s="2">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E261" s="2"/>
     </row>
     <row r="262">
       <c r="A262" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B262" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C262" t="s" s="2">
         <v>38</v>
@@ -5966,10 +6281,10 @@
     </row>
     <row r="263">
       <c r="A263" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B263" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C263" t="s" s="2">
         <v>38</v>
@@ -5981,10 +6296,10 @@
     </row>
     <row r="264">
       <c r="A264" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B264" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C264" t="s" s="2">
         <v>38</v>
@@ -5996,10 +6311,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B265" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C265" t="s" s="2">
         <v>38</v>
@@ -6011,10 +6326,10 @@
     </row>
     <row r="266">
       <c r="A266" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B266" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C266" t="s" s="2">
         <v>38</v>
@@ -6026,10 +6341,10 @@
     </row>
     <row r="267">
       <c r="A267" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B267" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C267" t="s" s="2">
         <v>38</v>
@@ -6041,10 +6356,10 @@
     </row>
     <row r="268">
       <c r="A268" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B268" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C268" t="s" s="2">
         <v>38</v>
@@ -6056,10 +6371,10 @@
     </row>
     <row r="269">
       <c r="A269" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B269" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C269" t="s" s="2">
         <v>38</v>
@@ -6068,6 +6383,786 @@
         <v>39</v>
       </c>
       <c r="E269" s="2"/>
+    </row>
+    <row r="270">
+      <c r="A270" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="B270" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="C270" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D270" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E270" s="2"/>
+    </row>
+    <row r="271">
+      <c r="A271" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="B271" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="C271" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D271" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E271" s="2"/>
+    </row>
+    <row r="272">
+      <c r="A272" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="B272" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="C272" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D272" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E272" s="2"/>
+    </row>
+    <row r="273">
+      <c r="A273" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="B273" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="C273" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D273" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E273" s="2"/>
+    </row>
+    <row r="274">
+      <c r="A274" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="B274" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="C274" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D274" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E274" s="2"/>
+    </row>
+    <row r="275">
+      <c r="A275" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="B275" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="C275" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D275" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E275" s="2"/>
+    </row>
+    <row r="276">
+      <c r="A276" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="B276" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="C276" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D276" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E276" s="2"/>
+    </row>
+    <row r="277">
+      <c r="A277" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="B277" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="C277" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D277" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E277" s="2"/>
+    </row>
+    <row r="278">
+      <c r="A278" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="B278" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="C278" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D278" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E278" s="2"/>
+    </row>
+    <row r="279">
+      <c r="A279" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="B279" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="C279" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D279" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E279" s="2"/>
+    </row>
+    <row r="280">
+      <c r="A280" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="B280" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="C280" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D280" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E280" s="2"/>
+    </row>
+    <row r="281">
+      <c r="A281" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="B281" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="C281" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D281" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E281" s="2"/>
+    </row>
+    <row r="282">
+      <c r="A282" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="B282" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="C282" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D282" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E282" s="2"/>
+    </row>
+    <row r="283">
+      <c r="A283" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="B283" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="C283" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D283" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E283" s="2"/>
+    </row>
+    <row r="284">
+      <c r="A284" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="B284" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="C284" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D284" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E284" s="2"/>
+    </row>
+    <row r="285">
+      <c r="A285" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="B285" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="C285" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D285" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E285" s="2"/>
+    </row>
+    <row r="286">
+      <c r="A286" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="B286" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="C286" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D286" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E286" s="2"/>
+    </row>
+    <row r="287">
+      <c r="A287" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="B287" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="C287" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D287" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E287" s="2"/>
+    </row>
+    <row r="288">
+      <c r="A288" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="B288" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="C288" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D288" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E288" s="2"/>
+    </row>
+    <row r="289">
+      <c r="A289" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="B289" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="C289" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D289" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E289" s="2"/>
+    </row>
+    <row r="290">
+      <c r="A290" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="B290" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="C290" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D290" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E290" s="2"/>
+    </row>
+    <row r="291">
+      <c r="A291" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="B291" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="C291" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D291" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E291" s="2"/>
+    </row>
+    <row r="292">
+      <c r="A292" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="B292" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="C292" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D292" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E292" s="2"/>
+    </row>
+    <row r="293">
+      <c r="A293" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="B293" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="C293" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D293" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E293" s="2"/>
+    </row>
+    <row r="294">
+      <c r="A294" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="B294" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="C294" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D294" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E294" s="2"/>
+    </row>
+    <row r="295">
+      <c r="A295" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="B295" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="C295" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D295" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="E295" s="2"/>
+    </row>
+    <row r="296">
+      <c r="A296" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="B296" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="C296" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D296" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E296" s="2"/>
+    </row>
+    <row r="297">
+      <c r="A297" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="B297" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="C297" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D297" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E297" s="2"/>
+    </row>
+    <row r="298">
+      <c r="A298" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="B298" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="C298" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D298" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E298" s="2"/>
+    </row>
+    <row r="299">
+      <c r="A299" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="B299" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="C299" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D299" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E299" s="2"/>
+    </row>
+    <row r="300">
+      <c r="A300" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="B300" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="C300" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D300" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E300" s="2"/>
+    </row>
+    <row r="301">
+      <c r="A301" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="B301" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="C301" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D301" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E301" s="2"/>
+    </row>
+    <row r="302">
+      <c r="A302" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="B302" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="C302" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D302" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E302" s="2"/>
+    </row>
+    <row r="303">
+      <c r="A303" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="B303" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="C303" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D303" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E303" s="2"/>
+    </row>
+    <row r="304">
+      <c r="A304" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="B304" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="C304" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D304" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E304" s="2"/>
+    </row>
+    <row r="305">
+      <c r="A305" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="B305" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="C305" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D305" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E305" s="2"/>
+    </row>
+    <row r="306">
+      <c r="A306" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="B306" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="C306" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D306" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E306" s="2"/>
+    </row>
+    <row r="307">
+      <c r="A307" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="B307" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="C307" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D307" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E307" s="2"/>
+    </row>
+    <row r="308">
+      <c r="A308" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="B308" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="C308" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D308" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E308" s="2"/>
+    </row>
+    <row r="309">
+      <c r="A309" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="B309" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="C309" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D309" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E309" s="2"/>
+    </row>
+    <row r="310">
+      <c r="A310" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="B310" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="C310" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D310" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E310" s="2"/>
+    </row>
+    <row r="311">
+      <c r="A311" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="B311" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="C311" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D311" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E311" s="2"/>
+    </row>
+    <row r="312">
+      <c r="A312" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="B312" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="C312" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D312" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E312" s="2"/>
+    </row>
+    <row r="313">
+      <c r="A313" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="B313" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="C313" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D313" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E313" s="2"/>
+    </row>
+    <row r="314">
+      <c r="A314" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="B314" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="C314" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D314" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E314" s="2"/>
+    </row>
+    <row r="315">
+      <c r="A315" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="B315" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="C315" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D315" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E315" s="2"/>
+    </row>
+    <row r="316">
+      <c r="A316" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="B316" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="C316" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D316" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E316" s="2"/>
+    </row>
+    <row r="317">
+      <c r="A317" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="B317" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="C317" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D317" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E317" s="2"/>
+    </row>
+    <row r="318">
+      <c r="A318" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="B318" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="C318" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D318" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E318" s="2"/>
+    </row>
+    <row r="319">
+      <c r="A319" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="B319" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="C319" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D319" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E319" s="2"/>
+    </row>
+    <row r="320">
+      <c r="A320" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="B320" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="C320" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D320" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E320" s="2"/>
+    </row>
+    <row r="321">
+      <c r="A321" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="B321" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="C321" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D321" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E321" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -6101,7 +7196,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>575</v>
+        <v>680</v>
       </c>
       <c r="B2" t="s" s="2">
         <v>34</v>
@@ -6118,10 +7213,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>576</v>
+        <v>681</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>577</v>
+        <v>682</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>38</v>

--- a/ig/ch-elm/ch-elm-results-to-interpretation-code.xlsx
+++ b/ig/ch-elm/ch-elm-results-to-interpretation-code.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="765">
   <si>
     <t>Property</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.6.0</t>
+    <t>1.7.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-31T11:15:20+00:00</t>
+    <t>2024-11-28T14:18:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -313,12 +313,36 @@
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-interpretation-codes-titer</t>
   </si>
   <si>
+    <t>104407-2</t>
+  </si>
+  <si>
+    <t>Hantavirus IgG Ab [Titer] in Serum by Immunoassay --2nd specimen</t>
+  </si>
+  <si>
+    <t>104454-4</t>
+  </si>
+  <si>
+    <t>Trichinella spiralis IgG Ab [Titer] in Serum by Immunoassay --2nd specimen</t>
+  </si>
+  <si>
     <t>104476-7</t>
   </si>
   <si>
     <t>Zika virus IgG Ab [Titer] in Serum by Immunoassay --2nd specimen</t>
   </si>
   <si>
+    <t>105065-7</t>
+  </si>
+  <si>
+    <t>Shigella species+EIEC invasion plasmid antigen H ipaH gene [Presence] in Specimen</t>
+  </si>
+  <si>
+    <t>105640-7</t>
+  </si>
+  <si>
+    <t>Campylobacter sp DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
     <t>11259-9</t>
   </si>
   <si>
@@ -391,6 +415,12 @@
     <t>Salmonella sp identified in Specimen by Organism specific culture</t>
   </si>
   <si>
+    <t>17735-2</t>
+  </si>
+  <si>
+    <t>Trichinella spiralis IgM Ab [Presence] in Serum</t>
+  </si>
+  <si>
     <t>20458-6</t>
   </si>
   <si>
@@ -457,6 +487,12 @@
     <t>Measles virus IgG Ab [Titer] in Serum</t>
   </si>
   <si>
+    <t>22826-2</t>
+  </si>
+  <si>
+    <t>Influenza virus A identified in Specimen by Bioassay</t>
+  </si>
+  <si>
     <t>22866-8</t>
   </si>
   <si>
@@ -481,6 +517,12 @@
     <t>Francisella tularensis DNA [Presence] in Tissue by NAA with probe detection</t>
   </si>
   <si>
+    <t>23499-7</t>
+  </si>
+  <si>
+    <t>Trichinella spiralis [Presence] in Tissue by Light microscopy</t>
+  </si>
+  <si>
     <t>23838-6</t>
   </si>
   <si>
@@ -529,6 +571,18 @@
     <t>Dengue virus IgM Ab [Presence] in Serum</t>
   </si>
   <si>
+    <t>26620-5</t>
+  </si>
+  <si>
+    <t>Hantavirus IgG Ab [Presence] in Serum</t>
+  </si>
+  <si>
+    <t>29566-7</t>
+  </si>
+  <si>
+    <t>West Nile virus IgG Ab [Presence] in Serum by Immunoassay</t>
+  </si>
+  <si>
     <t>29610-3</t>
   </si>
   <si>
@@ -553,6 +607,12 @@
     <t>Rubella virus IgM Ab [Presence] in Serum</t>
   </si>
   <si>
+    <t>31703-2</t>
+  </si>
+  <si>
+    <t>West Nile virus IgM Ab [Presence] in Cerebral spinal fluid</t>
+  </si>
+  <si>
     <t>31726-3</t>
   </si>
   <si>
@@ -667,6 +727,12 @@
     <t>14-3-3 Ag [Presence] in Cerebral spinal fluid</t>
   </si>
   <si>
+    <t>32131-5</t>
+  </si>
+  <si>
+    <t>Hantavirus IgM Ab [Presence] in Serum</t>
+  </si>
+  <si>
     <t>32705-6</t>
   </si>
   <si>
@@ -715,12 +781,36 @@
     <t>Clostridium botulinum toxin [Presence] in Specimen by Mouse bioassay</t>
   </si>
   <si>
+    <t>34460-6</t>
+  </si>
+  <si>
+    <t>West Nile virus RNA [Presence] in Blood by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>34461-4</t>
+  </si>
+  <si>
+    <t>West Nile virus RNA [Presence] in Cerebral spinal fluid by NAA with probe detection</t>
+  </si>
+  <si>
     <t>34487-9</t>
   </si>
   <si>
     <t>Influenza virus A RNA [Presence] in Specimen by NAA with probe detection</t>
   </si>
   <si>
+    <t>38270-5</t>
+  </si>
+  <si>
+    <t>Influenza virus A H7 RNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>38272-1</t>
+  </si>
+  <si>
+    <t>Influenza virus A H5 RNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
     <t>38275-4</t>
   </si>
   <si>
@@ -745,6 +835,12 @@
     <t>Hepatitis B virus e Ag [Presence] in Specimen</t>
   </si>
   <si>
+    <t>39025-2</t>
+  </si>
+  <si>
+    <t>Influenza virus A hemagglutinin cDNA [Identifier] in Specimen by Sequencing</t>
+  </si>
+  <si>
     <t>40669-4</t>
   </si>
   <si>
@@ -757,6 +853,12 @@
     <t>Influenza virus B RNA [Presence] in Specimen by NAA with probe detection</t>
   </si>
   <si>
+    <t>41216-3</t>
+  </si>
+  <si>
+    <t>Yellow fever virus IgM Ab [Presence] in Serum</t>
+  </si>
+  <si>
     <t>41447-4</t>
   </si>
   <si>
@@ -943,6 +1045,12 @@
     <t>Influenza virus A H3 RNA [Presence] in Specimen by NAA with probe detection</t>
   </si>
   <si>
+    <t>49528-3</t>
+  </si>
+  <si>
+    <t>Influenza virus A H9 RNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
     <t>49612-5</t>
   </si>
   <si>
@@ -1015,6 +1123,12 @@
     <t>Plasmodium sp Ag [Presence] in Blood</t>
   </si>
   <si>
+    <t>50697-2</t>
+  </si>
+  <si>
+    <t>Influenza virus A Ag [Identifier] in Isolate</t>
+  </si>
+  <si>
     <t>51578-3</t>
   </si>
   <si>
@@ -1027,6 +1141,12 @@
     <t>Plasmodium sp [Presence] in Blood by Light microscopy</t>
   </si>
   <si>
+    <t>51646-8</t>
+  </si>
+  <si>
+    <t>Rabies virus RNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
     <t>51664-1</t>
   </si>
   <si>
@@ -1186,6 +1306,12 @@
     <t>Legionella sp identified in Specimen by Organism specific culture</t>
   </si>
   <si>
+    <t>59423-4</t>
+  </si>
+  <si>
+    <t>Influenza virus A hemagglutinin type RNA [Identifier] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
     <t>60255-7</t>
   </si>
   <si>
@@ -1216,6 +1342,12 @@
     <t>SARS coronavirus RNA [Presence] in Serum or Plasma by NAA with probe detection</t>
   </si>
   <si>
+    <t>60546-9</t>
+  </si>
+  <si>
+    <t>Polio virus identified [Type] in Isolate by Organism specific culture</t>
+  </si>
+  <si>
     <t>61366-1</t>
   </si>
   <si>
@@ -1240,6 +1372,12 @@
     <t>Vibrio cholerae DNA [Presence] in Specimen by NAA with probe detection</t>
   </si>
   <si>
+    <t>62469-2</t>
+  </si>
+  <si>
+    <t>HIV 1 RNA [Units/volume] (viral load) in Serum or Plasma by NAA with probe detection</t>
+  </si>
+  <si>
     <t>6329-7</t>
   </si>
   <si>
@@ -1288,6 +1426,18 @@
     <t>Neisseria meningitidis Ag [Presence] in Cerebral spinal fluid</t>
   </si>
   <si>
+    <t>6532-6</t>
+  </si>
+  <si>
+    <t>Rabies virus Ag [Presence] in Specimen by Immunofluorescence</t>
+  </si>
+  <si>
+    <t>6539-1</t>
+  </si>
+  <si>
+    <t>Rabies virus identified in Specimen by Organism specific culture</t>
+  </si>
+  <si>
     <t>6548-2</t>
   </si>
   <si>
@@ -1330,6 +1480,12 @@
     <t>Haemophilus sp identified in Specimen by Organism specific culture</t>
   </si>
   <si>
+    <t>6604-3</t>
+  </si>
+  <si>
+    <t>Influenza virus identified in Specimen by Organism specific culture</t>
+  </si>
+  <si>
     <t>6609-2</t>
   </si>
   <si>
@@ -1426,18 +1582,36 @@
     <t>Plasmodium sp Ag [Identifier] in Blood by Rapid immunoassay</t>
   </si>
   <si>
+    <t>70858-6</t>
+  </si>
+  <si>
+    <t>Rabies virus neutralizing antibody [Presence] in Serum by Neutralization test</t>
+  </si>
+  <si>
     <t>71429-5</t>
   </si>
   <si>
     <t>Campylobacter sp DNA.diarrheagenic [Presence] in Stool by NAA with probe detection</t>
   </si>
   <si>
+    <t>71782-7</t>
+  </si>
+  <si>
+    <t>Yellow fever virus IgM Ab [Presence] in Cerebral spinal fluid by Immunoassay</t>
+  </si>
+  <si>
     <t>72307-2</t>
   </si>
   <si>
     <t>Brucella sp IgG Ab [Titer] in Serum --2nd specimen</t>
   </si>
   <si>
+    <t>73907-8</t>
+  </si>
+  <si>
+    <t>Polio virus identified in Specimen by Organism specific culture</t>
+  </si>
+  <si>
     <t>74037-3</t>
   </si>
   <si>
@@ -1504,6 +1678,12 @@
     <t>Influenza virus A H1 2009 pandemic RNA [Presence] in Nasopharynx by NAA with probe detection</t>
   </si>
   <si>
+    <t>77955-3</t>
+  </si>
+  <si>
+    <t>Yellow fever virus IgM Ab [Presence] in Serum by Immunofluorescence</t>
+  </si>
+  <si>
     <t>7889-9</t>
   </si>
   <si>
@@ -1516,6 +1696,12 @@
     <t>Francisella tularensis IgM Ab [Presence] in Serum</t>
   </si>
   <si>
+    <t>7899-8</t>
+  </si>
+  <si>
+    <t>Hantavirus RNA [Presence] in Serum by NAA with probe detection</t>
+  </si>
+  <si>
     <t>7904-6</t>
   </si>
   <si>
@@ -1570,6 +1756,12 @@
     <t>Neisseria gonorrhoeae [Presence] in Anorectal by Organism specific culture</t>
   </si>
   <si>
+    <t>8043-2</t>
+  </si>
+  <si>
+    <t>Trichinella spiralis IgG Ab [Presence] in Serum</t>
+  </si>
+  <si>
     <t>80680-2</t>
   </si>
   <si>
@@ -1654,6 +1846,12 @@
     <t>Ebola virus RNA [Presence] in Blood by NAA with probe detection</t>
   </si>
   <si>
+    <t>86520-4</t>
+  </si>
+  <si>
+    <t>Hantavirus RNA [Presence] in Blood by NAA with probe detection</t>
+  </si>
+  <si>
     <t>86574-1</t>
   </si>
   <si>
@@ -1684,6 +1882,12 @@
     <t>Zika virus IgM Ab [Presence] in Specimen by Immunoassay</t>
   </si>
   <si>
+    <t>87985-8</t>
+  </si>
+  <si>
+    <t>Trichinella spiralis DNA [Presence] in Tissue by NAA with probe detection</t>
+  </si>
+  <si>
     <t>88192-0</t>
   </si>
   <si>
@@ -1762,6 +1966,12 @@
     <t>Corynebacterium sp identified in Isolate by Organism specific culture</t>
   </si>
   <si>
+    <t>90459-9</t>
+  </si>
+  <si>
+    <t>Yellow fever virus RNA [Presence] in Blood by NAA with probe detection</t>
+  </si>
+  <si>
     <t>91071-1</t>
   </si>
   <si>
@@ -1906,6 +2116,18 @@
     <t>Chikungunya virus IgG Ab [Presence] in Serum or Plasma</t>
   </si>
   <si>
+    <t>94184-9</t>
+  </si>
+  <si>
+    <t>Yellow fever virus RNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>94289-6</t>
+  </si>
+  <si>
+    <t>West Nile virus neutralizing antibody [Presence] in Specimen by Neutralization test</t>
+  </si>
+  <si>
     <t>94309-2</t>
   </si>
   <si>
@@ -1972,6 +2194,12 @@
     <t>Chikungunya virus IgM Ab [Presence] in Specimen by Immunoassay</t>
   </si>
   <si>
+    <t>95690-4</t>
+  </si>
+  <si>
+    <t>Yellow fever virus IgM Ab [Presence] in Specimen by Immunoassay</t>
+  </si>
+  <si>
     <t>96509-5</t>
   </si>
   <si>
@@ -2059,10 +2287,28 @@
     <t>http://snomed.info/sct</t>
   </si>
   <si>
+    <t>19030005</t>
+  </si>
+  <si>
+    <t>Human immunodeficiency virus (organism)</t>
+  </si>
+  <si>
+    <t>36115006</t>
+  </si>
+  <si>
+    <t>Human immunodeficiency virus type 2 (organism)</t>
+  </si>
+  <si>
     <t>72904005</t>
   </si>
   <si>
     <t>Treponema pallidum (organism)</t>
+  </si>
+  <si>
+    <t>89293008</t>
+  </si>
+  <si>
+    <t>Human immunodeficiency virus type I (organism)</t>
   </si>
 </sst>
 </file>
@@ -2339,7 +2585,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E321"/>
+  <dimension ref="A1:E359"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2840,7 +3086,7 @@
         <v>38</v>
       </c>
       <c r="D33" t="s" s="2">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="E33" s="2"/>
     </row>
@@ -2855,7 +3101,7 @@
         <v>38</v>
       </c>
       <c r="D34" t="s" s="2">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="E34" s="2"/>
     </row>
@@ -3020,7 +3266,7 @@
         <v>38</v>
       </c>
       <c r="D45" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E45" s="2"/>
     </row>
@@ -3095,7 +3341,7 @@
         <v>38</v>
       </c>
       <c r="D50" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E50" s="2"/>
     </row>
@@ -3170,7 +3416,7 @@
         <v>38</v>
       </c>
       <c r="D55" t="s" s="2">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="E55" s="2"/>
     </row>
@@ -3185,7 +3431,7 @@
         <v>38</v>
       </c>
       <c r="D56" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="E56" s="2"/>
     </row>
@@ -3200,7 +3446,7 @@
         <v>38</v>
       </c>
       <c r="D57" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="E57" s="2"/>
     </row>
@@ -3245,7 +3491,7 @@
         <v>38</v>
       </c>
       <c r="D60" t="s" s="2">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="E60" s="2"/>
     </row>
@@ -3275,7 +3521,7 @@
         <v>38</v>
       </c>
       <c r="D62" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="E62" s="2"/>
     </row>
@@ -3290,7 +3536,7 @@
         <v>38</v>
       </c>
       <c r="D63" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="E63" s="2"/>
     </row>
@@ -3365,7 +3611,7 @@
         <v>38</v>
       </c>
       <c r="D68" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="E68" s="2"/>
     </row>
@@ -3425,7 +3671,7 @@
         <v>38</v>
       </c>
       <c r="D72" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="E72" s="2"/>
     </row>
@@ -3575,7 +3821,7 @@
         <v>38</v>
       </c>
       <c r="D82" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="E82" s="2"/>
     </row>
@@ -3770,7 +4016,7 @@
         <v>38</v>
       </c>
       <c r="D95" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="E95" s="2"/>
     </row>
@@ -3785,7 +4031,7 @@
         <v>38</v>
       </c>
       <c r="D96" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="E96" s="2"/>
     </row>
@@ -3800,7 +4046,7 @@
         <v>38</v>
       </c>
       <c r="D97" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="E97" s="2"/>
     </row>
@@ -3815,7 +4061,7 @@
         <v>38</v>
       </c>
       <c r="D98" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="E98" s="2"/>
     </row>
@@ -3935,7 +4181,7 @@
         <v>38</v>
       </c>
       <c r="D106" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="E106" s="2"/>
     </row>
@@ -3950,7 +4196,7 @@
         <v>38</v>
       </c>
       <c r="D107" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="E107" s="2"/>
     </row>
@@ -3965,7 +4211,7 @@
         <v>38</v>
       </c>
       <c r="D108" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="E108" s="2"/>
     </row>
@@ -3980,7 +4226,7 @@
         <v>38</v>
       </c>
       <c r="D109" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="E109" s="2"/>
     </row>
@@ -3995,7 +4241,7 @@
         <v>38</v>
       </c>
       <c r="D110" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="E110" s="2"/>
     </row>
@@ -4010,7 +4256,7 @@
         <v>38</v>
       </c>
       <c r="D111" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="E111" s="2"/>
     </row>
@@ -4040,7 +4286,7 @@
         <v>38</v>
       </c>
       <c r="D113" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="E113" s="2"/>
     </row>
@@ -4070,7 +4316,7 @@
         <v>38</v>
       </c>
       <c r="D115" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="E115" s="2"/>
     </row>
@@ -4085,7 +4331,7 @@
         <v>38</v>
       </c>
       <c r="D116" t="s" s="2">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="E116" s="2"/>
     </row>
@@ -4100,7 +4346,7 @@
         <v>38</v>
       </c>
       <c r="D117" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="E117" s="2"/>
     </row>
@@ -4130,7 +4376,7 @@
         <v>38</v>
       </c>
       <c r="D119" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="E119" s="2"/>
     </row>
@@ -4175,7 +4421,7 @@
         <v>38</v>
       </c>
       <c r="D122" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E122" s="2"/>
     </row>
@@ -4250,7 +4496,7 @@
         <v>38</v>
       </c>
       <c r="D127" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="E127" s="2"/>
     </row>
@@ -4265,7 +4511,7 @@
         <v>38</v>
       </c>
       <c r="D128" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="E128" s="2"/>
     </row>
@@ -4310,7 +4556,7 @@
         <v>38</v>
       </c>
       <c r="D131" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="E131" s="2"/>
     </row>
@@ -4325,7 +4571,7 @@
         <v>38</v>
       </c>
       <c r="D132" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="E132" s="2"/>
     </row>
@@ -4340,7 +4586,7 @@
         <v>38</v>
       </c>
       <c r="D133" t="s" s="2">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="E133" s="2"/>
     </row>
@@ -4430,7 +4676,7 @@
         <v>38</v>
       </c>
       <c r="D139" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E139" s="2"/>
     </row>
@@ -4610,7 +4856,7 @@
         <v>38</v>
       </c>
       <c r="D151" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="E151" s="2"/>
     </row>
@@ -4655,7 +4901,7 @@
         <v>38</v>
       </c>
       <c r="D154" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="E154" s="2"/>
     </row>
@@ -4670,16 +4916,16 @@
         <v>38</v>
       </c>
       <c r="D155" t="s" s="2">
-        <v>347</v>
+        <v>39</v>
       </c>
       <c r="E155" s="2"/>
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="B156" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="B156" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="C156" t="s" s="2">
         <v>38</v>
@@ -4691,10 +4937,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="B157" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="B157" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="C157" t="s" s="2">
         <v>38</v>
@@ -4706,10 +4952,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="B158" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="B158" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="C158" t="s" s="2">
         <v>38</v>
@@ -4721,10 +4967,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="B159" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="B159" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="C159" t="s" s="2">
         <v>38</v>
@@ -4736,10 +4982,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="B160" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="B160" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="C160" t="s" s="2">
         <v>38</v>
@@ -4751,10 +4997,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="B161" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="B161" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="C161" t="s" s="2">
         <v>38</v>
@@ -4766,10 +5012,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="B162" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="B162" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="C162" t="s" s="2">
         <v>38</v>
@@ -4781,10 +5027,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="B163" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="B163" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="C163" t="s" s="2">
         <v>38</v>
@@ -4796,10 +5042,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="B164" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="B164" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="C164" t="s" s="2">
         <v>38</v>
@@ -4811,10 +5057,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="B165" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="B165" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="C165" t="s" s="2">
         <v>38</v>
@@ -4826,10 +5072,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="B166" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="B166" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="C166" t="s" s="2">
         <v>38</v>
@@ -4841,25 +5087,25 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="B167" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="B167" t="s" s="2">
-        <v>371</v>
-      </c>
       <c r="C167" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D167" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="E167" s="2"/>
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="B168" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="B168" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="C168" t="s" s="2">
         <v>38</v>
@@ -4871,10 +5117,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="B169" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="B169" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="C169" t="s" s="2">
         <v>38</v>
@@ -4886,10 +5132,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="B170" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="B170" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="C170" t="s" s="2">
         <v>38</v>
@@ -4901,10 +5147,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="B171" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="B171" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="C171" t="s" s="2">
         <v>38</v>
@@ -4916,10 +5162,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="B172" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="B172" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="C172" t="s" s="2">
         <v>38</v>
@@ -4931,10 +5177,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="B173" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="B173" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="C173" t="s" s="2">
         <v>38</v>
@@ -4946,10 +5192,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="B174" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="B174" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="C174" t="s" s="2">
         <v>38</v>
@@ -4961,16 +5207,16 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="B175" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="B175" t="s" s="2">
+      <c r="C175" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D175" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="C175" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D175" t="s" s="2">
-        <v>39</v>
       </c>
       <c r="E175" s="2"/>
     </row>
@@ -5045,7 +5291,7 @@
         <v>38</v>
       </c>
       <c r="D180" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="E180" s="2"/>
     </row>
@@ -5060,7 +5306,7 @@
         <v>38</v>
       </c>
       <c r="D181" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="E181" s="2"/>
     </row>
@@ -5090,7 +5336,7 @@
         <v>38</v>
       </c>
       <c r="D183" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="E183" s="2"/>
     </row>
@@ -5105,7 +5351,7 @@
         <v>38</v>
       </c>
       <c r="D184" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="E184" s="2"/>
     </row>
@@ -5300,7 +5546,7 @@
         <v>38</v>
       </c>
       <c r="D197" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="E197" s="2"/>
     </row>
@@ -5345,7 +5591,7 @@
         <v>38</v>
       </c>
       <c r="D200" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="E200" s="2"/>
     </row>
@@ -5360,7 +5606,7 @@
         <v>38</v>
       </c>
       <c r="D201" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="E201" s="2"/>
     </row>
@@ -5375,7 +5621,7 @@
         <v>38</v>
       </c>
       <c r="D202" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="E202" s="2"/>
     </row>
@@ -5390,7 +5636,7 @@
         <v>38</v>
       </c>
       <c r="D203" t="s" s="2">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="E203" s="2"/>
     </row>
@@ -5615,7 +5861,7 @@
         <v>38</v>
       </c>
       <c r="D218" t="s" s="2">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="E218" s="2"/>
     </row>
@@ -5675,7 +5921,7 @@
         <v>38</v>
       </c>
       <c r="D222" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="E222" s="2"/>
     </row>
@@ -5735,7 +5981,7 @@
         <v>38</v>
       </c>
       <c r="D226" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="E226" s="2"/>
     </row>
@@ -5780,7 +6026,7 @@
         <v>38</v>
       </c>
       <c r="D229" t="s" s="2">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="E229" s="2"/>
     </row>
@@ -5870,7 +6116,7 @@
         <v>38</v>
       </c>
       <c r="D235" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="E235" s="2"/>
     </row>
@@ -6035,7 +6281,7 @@
         <v>38</v>
       </c>
       <c r="D246" t="s" s="2">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="E246" s="2"/>
     </row>
@@ -6110,7 +6356,7 @@
         <v>38</v>
       </c>
       <c r="D251" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="E251" s="2"/>
     </row>
@@ -6155,7 +6401,7 @@
         <v>38</v>
       </c>
       <c r="D254" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="E254" s="2"/>
     </row>
@@ -6170,7 +6416,7 @@
         <v>38</v>
       </c>
       <c r="D255" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="E255" s="2"/>
     </row>
@@ -6185,7 +6431,7 @@
         <v>38</v>
       </c>
       <c r="D256" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="E256" s="2"/>
     </row>
@@ -6245,7 +6491,7 @@
         <v>38</v>
       </c>
       <c r="D260" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="E260" s="2"/>
     </row>
@@ -6260,7 +6506,7 @@
         <v>38</v>
       </c>
       <c r="D261" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="E261" s="2"/>
     </row>
@@ -6335,7 +6581,7 @@
         <v>38</v>
       </c>
       <c r="D266" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="E266" s="2"/>
     </row>
@@ -6440,7 +6686,7 @@
         <v>38</v>
       </c>
       <c r="D273" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="E273" s="2"/>
     </row>
@@ -6455,7 +6701,7 @@
         <v>38</v>
       </c>
       <c r="D274" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="E274" s="2"/>
     </row>
@@ -6485,7 +6731,7 @@
         <v>38</v>
       </c>
       <c r="D276" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="E276" s="2"/>
     </row>
@@ -6545,7 +6791,7 @@
         <v>38</v>
       </c>
       <c r="D280" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="E280" s="2"/>
     </row>
@@ -6575,7 +6821,7 @@
         <v>38</v>
       </c>
       <c r="D282" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="E282" s="2"/>
     </row>
@@ -6635,7 +6881,7 @@
         <v>38</v>
       </c>
       <c r="D286" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="E286" s="2"/>
     </row>
@@ -6665,7 +6911,7 @@
         <v>38</v>
       </c>
       <c r="D288" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="E288" s="2"/>
     </row>
@@ -6680,7 +6926,7 @@
         <v>38</v>
       </c>
       <c r="D289" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="E289" s="2"/>
     </row>
@@ -6710,7 +6956,7 @@
         <v>38</v>
       </c>
       <c r="D291" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="E291" s="2"/>
     </row>
@@ -6755,7 +7001,7 @@
         <v>38</v>
       </c>
       <c r="D294" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="E294" s="2"/>
     </row>
@@ -6770,7 +7016,7 @@
         <v>38</v>
       </c>
       <c r="D295" t="s" s="2">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="E295" s="2"/>
     </row>
@@ -6800,7 +7046,7 @@
         <v>38</v>
       </c>
       <c r="D297" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="E297" s="2"/>
     </row>
@@ -6860,7 +7106,7 @@
         <v>38</v>
       </c>
       <c r="D301" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="E301" s="2"/>
     </row>
@@ -6875,7 +7121,7 @@
         <v>38</v>
       </c>
       <c r="D302" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="E302" s="2"/>
     </row>
@@ -6890,7 +7136,7 @@
         <v>38</v>
       </c>
       <c r="D303" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="E303" s="2"/>
     </row>
@@ -6905,7 +7151,7 @@
         <v>38</v>
       </c>
       <c r="D304" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="E304" s="2"/>
     </row>
@@ -6935,7 +7181,7 @@
         <v>38</v>
       </c>
       <c r="D306" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="E306" s="2"/>
     </row>
@@ -6980,7 +7226,7 @@
         <v>38</v>
       </c>
       <c r="D309" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="E309" s="2"/>
     </row>
@@ -7055,7 +7301,7 @@
         <v>38</v>
       </c>
       <c r="D314" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="E314" s="2"/>
     </row>
@@ -7070,7 +7316,7 @@
         <v>38</v>
       </c>
       <c r="D315" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="E315" s="2"/>
     </row>
@@ -7085,7 +7331,7 @@
         <v>38</v>
       </c>
       <c r="D316" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="E316" s="2"/>
     </row>
@@ -7163,6 +7409,576 @@
         <v>39</v>
       </c>
       <c r="E321" s="2"/>
+    </row>
+    <row r="322">
+      <c r="A322" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="B322" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="C322" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D322" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E322" s="2"/>
+    </row>
+    <row r="323">
+      <c r="A323" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="B323" t="s" s="2">
+        <v>683</v>
+      </c>
+      <c r="C323" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D323" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E323" s="2"/>
+    </row>
+    <row r="324">
+      <c r="A324" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="B324" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="C324" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D324" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E324" s="2"/>
+    </row>
+    <row r="325">
+      <c r="A325" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="B325" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="C325" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D325" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E325" s="2"/>
+    </row>
+    <row r="326">
+      <c r="A326" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="B326" t="s" s="2">
+        <v>689</v>
+      </c>
+      <c r="C326" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D326" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E326" s="2"/>
+    </row>
+    <row r="327">
+      <c r="A327" t="s" s="2">
+        <v>690</v>
+      </c>
+      <c r="B327" t="s" s="2">
+        <v>691</v>
+      </c>
+      <c r="C327" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D327" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E327" s="2"/>
+    </row>
+    <row r="328">
+      <c r="A328" t="s" s="2">
+        <v>692</v>
+      </c>
+      <c r="B328" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="C328" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D328" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E328" s="2"/>
+    </row>
+    <row r="329">
+      <c r="A329" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="B329" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="C329" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D329" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E329" s="2"/>
+    </row>
+    <row r="330">
+      <c r="A330" t="s" s="2">
+        <v>696</v>
+      </c>
+      <c r="B330" t="s" s="2">
+        <v>697</v>
+      </c>
+      <c r="C330" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D330" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="E330" s="2"/>
+    </row>
+    <row r="331">
+      <c r="A331" t="s" s="2">
+        <v>698</v>
+      </c>
+      <c r="B331" t="s" s="2">
+        <v>699</v>
+      </c>
+      <c r="C331" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D331" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E331" s="2"/>
+    </row>
+    <row r="332">
+      <c r="A332" t="s" s="2">
+        <v>700</v>
+      </c>
+      <c r="B332" t="s" s="2">
+        <v>701</v>
+      </c>
+      <c r="C332" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D332" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E332" s="2"/>
+    </row>
+    <row r="333">
+      <c r="A333" t="s" s="2">
+        <v>702</v>
+      </c>
+      <c r="B333" t="s" s="2">
+        <v>703</v>
+      </c>
+      <c r="C333" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D333" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E333" s="2"/>
+    </row>
+    <row r="334">
+      <c r="A334" t="s" s="2">
+        <v>704</v>
+      </c>
+      <c r="B334" t="s" s="2">
+        <v>705</v>
+      </c>
+      <c r="C334" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D334" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E334" s="2"/>
+    </row>
+    <row r="335">
+      <c r="A335" t="s" s="2">
+        <v>706</v>
+      </c>
+      <c r="B335" t="s" s="2">
+        <v>707</v>
+      </c>
+      <c r="C335" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D335" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E335" s="2"/>
+    </row>
+    <row r="336">
+      <c r="A336" t="s" s="2">
+        <v>708</v>
+      </c>
+      <c r="B336" t="s" s="2">
+        <v>709</v>
+      </c>
+      <c r="C336" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D336" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E336" s="2"/>
+    </row>
+    <row r="337">
+      <c r="A337" t="s" s="2">
+        <v>710</v>
+      </c>
+      <c r="B337" t="s" s="2">
+        <v>711</v>
+      </c>
+      <c r="C337" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D337" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E337" s="2"/>
+    </row>
+    <row r="338">
+      <c r="A338" t="s" s="2">
+        <v>712</v>
+      </c>
+      <c r="B338" t="s" s="2">
+        <v>713</v>
+      </c>
+      <c r="C338" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D338" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E338" s="2"/>
+    </row>
+    <row r="339">
+      <c r="A339" t="s" s="2">
+        <v>714</v>
+      </c>
+      <c r="B339" t="s" s="2">
+        <v>715</v>
+      </c>
+      <c r="C339" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D339" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E339" s="2"/>
+    </row>
+    <row r="340">
+      <c r="A340" t="s" s="2">
+        <v>716</v>
+      </c>
+      <c r="B340" t="s" s="2">
+        <v>717</v>
+      </c>
+      <c r="C340" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D340" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E340" s="2"/>
+    </row>
+    <row r="341">
+      <c r="A341" t="s" s="2">
+        <v>718</v>
+      </c>
+      <c r="B341" t="s" s="2">
+        <v>719</v>
+      </c>
+      <c r="C341" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D341" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E341" s="2"/>
+    </row>
+    <row r="342">
+      <c r="A342" t="s" s="2">
+        <v>720</v>
+      </c>
+      <c r="B342" t="s" s="2">
+        <v>721</v>
+      </c>
+      <c r="C342" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D342" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E342" s="2"/>
+    </row>
+    <row r="343">
+      <c r="A343" t="s" s="2">
+        <v>722</v>
+      </c>
+      <c r="B343" t="s" s="2">
+        <v>723</v>
+      </c>
+      <c r="C343" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D343" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E343" s="2"/>
+    </row>
+    <row r="344">
+      <c r="A344" t="s" s="2">
+        <v>724</v>
+      </c>
+      <c r="B344" t="s" s="2">
+        <v>725</v>
+      </c>
+      <c r="C344" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D344" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E344" s="2"/>
+    </row>
+    <row r="345">
+      <c r="A345" t="s" s="2">
+        <v>726</v>
+      </c>
+      <c r="B345" t="s" s="2">
+        <v>727</v>
+      </c>
+      <c r="C345" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D345" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E345" s="2"/>
+    </row>
+    <row r="346">
+      <c r="A346" t="s" s="2">
+        <v>728</v>
+      </c>
+      <c r="B346" t="s" s="2">
+        <v>729</v>
+      </c>
+      <c r="C346" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D346" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E346" s="2"/>
+    </row>
+    <row r="347">
+      <c r="A347" t="s" s="2">
+        <v>730</v>
+      </c>
+      <c r="B347" t="s" s="2">
+        <v>731</v>
+      </c>
+      <c r="C347" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D347" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E347" s="2"/>
+    </row>
+    <row r="348">
+      <c r="A348" t="s" s="2">
+        <v>732</v>
+      </c>
+      <c r="B348" t="s" s="2">
+        <v>733</v>
+      </c>
+      <c r="C348" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D348" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E348" s="2"/>
+    </row>
+    <row r="349">
+      <c r="A349" t="s" s="2">
+        <v>734</v>
+      </c>
+      <c r="B349" t="s" s="2">
+        <v>735</v>
+      </c>
+      <c r="C349" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D349" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E349" s="2"/>
+    </row>
+    <row r="350">
+      <c r="A350" t="s" s="2">
+        <v>736</v>
+      </c>
+      <c r="B350" t="s" s="2">
+        <v>737</v>
+      </c>
+      <c r="C350" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D350" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E350" s="2"/>
+    </row>
+    <row r="351">
+      <c r="A351" t="s" s="2">
+        <v>738</v>
+      </c>
+      <c r="B351" t="s" s="2">
+        <v>739</v>
+      </c>
+      <c r="C351" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D351" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E351" s="2"/>
+    </row>
+    <row r="352">
+      <c r="A352" t="s" s="2">
+        <v>740</v>
+      </c>
+      <c r="B352" t="s" s="2">
+        <v>741</v>
+      </c>
+      <c r="C352" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D352" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E352" s="2"/>
+    </row>
+    <row r="353">
+      <c r="A353" t="s" s="2">
+        <v>742</v>
+      </c>
+      <c r="B353" t="s" s="2">
+        <v>743</v>
+      </c>
+      <c r="C353" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D353" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E353" s="2"/>
+    </row>
+    <row r="354">
+      <c r="A354" t="s" s="2">
+        <v>744</v>
+      </c>
+      <c r="B354" t="s" s="2">
+        <v>745</v>
+      </c>
+      <c r="C354" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D354" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E354" s="2"/>
+    </row>
+    <row r="355">
+      <c r="A355" t="s" s="2">
+        <v>746</v>
+      </c>
+      <c r="B355" t="s" s="2">
+        <v>747</v>
+      </c>
+      <c r="C355" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D355" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E355" s="2"/>
+    </row>
+    <row r="356">
+      <c r="A356" t="s" s="2">
+        <v>748</v>
+      </c>
+      <c r="B356" t="s" s="2">
+        <v>749</v>
+      </c>
+      <c r="C356" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D356" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E356" s="2"/>
+    </row>
+    <row r="357">
+      <c r="A357" t="s" s="2">
+        <v>750</v>
+      </c>
+      <c r="B357" t="s" s="2">
+        <v>751</v>
+      </c>
+      <c r="C357" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D357" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E357" s="2"/>
+    </row>
+    <row r="358">
+      <c r="A358" t="s" s="2">
+        <v>752</v>
+      </c>
+      <c r="B358" t="s" s="2">
+        <v>753</v>
+      </c>
+      <c r="C358" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D358" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E358" s="2"/>
+    </row>
+    <row r="359">
+      <c r="A359" t="s" s="2">
+        <v>754</v>
+      </c>
+      <c r="B359" t="s" s="2">
+        <v>755</v>
+      </c>
+      <c r="C359" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D359" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E359" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -7171,7 +7987,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7196,7 +8012,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>680</v>
+        <v>756</v>
       </c>
       <c r="B2" t="s" s="2">
         <v>34</v>
@@ -7213,10 +8029,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>681</v>
+        <v>757</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>682</v>
+        <v>758</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>38</v>
@@ -7225,6 +8041,51 @@
         <v>39</v>
       </c>
       <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>759</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>760</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>761</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>762</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>763</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>764</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E6" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/ig/ch-elm/ch-elm-results-to-interpretation-code.xlsx
+++ b/ig/ch-elm/ch-elm-results-to-interpretation-code.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="777">
   <si>
     <t>Property</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.7.0</t>
+    <t>1.8.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-28T14:18:34+00:00</t>
+    <t>2025-02-04T09:19:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -217,24 +217,6 @@
     <t>Shigella sp DNA [Presence] in Stool by NAA with probe detection</t>
   </si>
   <si>
-    <t>101552-8</t>
-  </si>
-  <si>
-    <t>Campylobacter coli DNA [Presence] in Stool by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>101554-4</t>
-  </si>
-  <si>
-    <t>Campylobacter jejuni DNA [Presence] in Stool by NAA with probe detection</t>
-  </si>
-  <si>
-    <t>101555-1</t>
-  </si>
-  <si>
-    <t>Campylobacter upsaliensis DNA [Presence] in Stool by NAA with probe detection</t>
-  </si>
-  <si>
     <t>101662-5</t>
   </si>
   <si>
@@ -349,6 +331,12 @@
     <t>Hepatitis C virus RNA [Presence] in Serum or Plasma by NAA with probe detection</t>
   </si>
   <si>
+    <t>11469-4</t>
+  </si>
+  <si>
+    <t>Bacillus anthracis [Presence] in Specimen by Organism specific culture</t>
+  </si>
+  <si>
     <t>13954-3</t>
   </si>
   <si>
@@ -445,6 +433,12 @@
     <t>Chlamydia trachomatis DNA [Presence] in Urethra by NAA with probe detection</t>
   </si>
   <si>
+    <t>21262-1</t>
+  </si>
+  <si>
+    <t>Escherichia coli shiga-like toxin [Presence] in Stool by Immunoassay</t>
+  </si>
+  <si>
     <t>21363-7</t>
   </si>
   <si>
@@ -505,6 +499,12 @@
     <t>Bacillus anthracis Ag [Presence] in Specimen by Immunofluorescence</t>
   </si>
   <si>
+    <t>23024-3</t>
+  </si>
+  <si>
+    <t>Coxiella burnetii DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
     <t>23126-6</t>
   </si>
   <si>
@@ -601,6 +601,18 @@
     <t>Hepatitis B virus core IgM Ab [Presence] in Serum</t>
   </si>
   <si>
+    <t>31314-8</t>
+  </si>
+  <si>
+    <t>Coxiella burnetii phase 2 IgG Ab [Presence] in Serum</t>
+  </si>
+  <si>
+    <t>31315-5</t>
+  </si>
+  <si>
+    <t>Coxiella burnetii phase 2 IgM Ab [Presence] in Serum</t>
+  </si>
+  <si>
     <t>31616-6</t>
   </si>
   <si>
@@ -1033,6 +1045,12 @@
     <t>Measles virus RNA [Presence] in Specimen by NAA with probe detection</t>
   </si>
   <si>
+    <t>49124-1</t>
+  </si>
+  <si>
+    <t>Coxiella burnetii identified in Specimen by Sequencing</t>
+  </si>
+  <si>
     <t>49521-8</t>
   </si>
   <si>
@@ -1057,12 +1075,6 @@
     <t>Salmonella sp DNA [Presence] in Specimen by NAA with probe detection</t>
   </si>
   <si>
-    <t>49614-1</t>
-  </si>
-  <si>
-    <t>Campylobacter sp DNA [Identifier] in Specimen by NAA with probe detection</t>
-  </si>
-  <si>
     <t>49671-1</t>
   </si>
   <si>
@@ -1075,12 +1087,6 @@
     <t>Streptococcus pneumoniae DNA [Presence] in Specimen by NAA with probe detection</t>
   </si>
   <si>
-    <t>4992-4</t>
-  </si>
-  <si>
-    <t>Campylobacter sp rRNA [Presence] in Specimen by Probe</t>
-  </si>
-  <si>
     <t>5007-0</t>
   </si>
   <si>
@@ -1153,6 +1159,18 @@
     <t>Chikungunya virus RNA [Presence] in Specimen by NAA with probe detection</t>
   </si>
   <si>
+    <t>51939-7</t>
+  </si>
+  <si>
+    <t>Escherichia coli shiga-like toxin 2 [Presence] in Stool by Immunoassay</t>
+  </si>
+  <si>
+    <t>51940-5</t>
+  </si>
+  <si>
+    <t>Escherichia coli shiga-like toxin 1 [Presence] in Stool by Immunoassay</t>
+  </si>
+  <si>
     <t>5195-3</t>
   </si>
   <si>
@@ -1228,6 +1246,12 @@
     <t>Vibrio cholerae toxin ctx gene [Presence] in Specimen by NAA with probe detection</t>
   </si>
   <si>
+    <t>53946-0</t>
+  </si>
+  <si>
+    <t>Escherichia coli shiga-like toxin identified in Specimen</t>
+  </si>
+  <si>
     <t>54091-4</t>
   </si>
   <si>
@@ -1324,6 +1348,12 @@
     <t>Neisseria gonorrhoeae rRNA [Presence] in Urine by NAA with probe detection</t>
   </si>
   <si>
+    <t>60261-5</t>
+  </si>
+  <si>
+    <t>Coxiella burnetii DNA [Presence] in Serum or Plasma by NAA with probe detection</t>
+  </si>
+  <si>
     <t>60274-8</t>
   </si>
   <si>
@@ -1354,12 +1384,6 @@
     <t>Haemophilus influenzae DNA [Presence] in Specimen by NAA with probe detection</t>
   </si>
   <si>
-    <t>61368-7</t>
-  </si>
-  <si>
-    <t>Campylobacter jejuni DNA [Presence] in Specimen by NAA with probe detection</t>
-  </si>
-  <si>
     <t>61369-5</t>
   </si>
   <si>
@@ -1378,24 +1402,6 @@
     <t>HIV 1 RNA [Units/volume] (viral load) in Serum or Plasma by NAA with probe detection</t>
   </si>
   <si>
-    <t>6329-7</t>
-  </si>
-  <si>
-    <t>Campylobacter coli rRNA [Presence] in Specimen by Probe</t>
-  </si>
-  <si>
-    <t>6333-9</t>
-  </si>
-  <si>
-    <t>Campylobacter jejuni rRNA [Presence] in Specimen by Probe</t>
-  </si>
-  <si>
-    <t>6334-7</t>
-  </si>
-  <si>
-    <t>Campylobacter lari rRNA [Presence] in Specimen by Probe</t>
-  </si>
-  <si>
     <t>6349-5</t>
   </si>
   <si>
@@ -1588,12 +1594,6 @@
     <t>Rabies virus neutralizing antibody [Presence] in Serum by Neutralization test</t>
   </si>
   <si>
-    <t>71429-5</t>
-  </si>
-  <si>
-    <t>Campylobacter sp DNA.diarrheagenic [Presence] in Stool by NAA with probe detection</t>
-  </si>
-  <si>
     <t>71782-7</t>
   </si>
   <si>
@@ -1720,6 +1720,18 @@
     <t>Zika virus RNA [Presence] in Specimen by NAA with probe detection</t>
   </si>
   <si>
+    <t>79386-9</t>
+  </si>
+  <si>
+    <t>Escherichia coli Stx1 toxin stx1 gene [Presence] in Stool by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>79387-7</t>
+  </si>
+  <si>
+    <t>Escherichia coli Stx2 toxin stx2 gene [Presence] in Stool by NAA with probe detection</t>
+  </si>
+  <si>
     <t>7964-0</t>
   </si>
   <si>
@@ -1828,12 +1840,6 @@
     <t>Zika virus RNA [Presence] in Urine by NAA with probe detection</t>
   </si>
   <si>
-    <t>85827-4</t>
-  </si>
-  <si>
-    <t>Carbapenem resistance bla OXA-48-like gene [Presence] by Molecular method</t>
-  </si>
-  <si>
     <t>86515-4</t>
   </si>
   <si>
@@ -1888,6 +1894,18 @@
     <t>Trichinella spiralis DNA [Presence] in Tissue by NAA with probe detection</t>
   </si>
   <si>
+    <t>88177-1</t>
+  </si>
+  <si>
+    <t>Coxiella burnetii DNA [Presence] in Blood by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>88178-9</t>
+  </si>
+  <si>
+    <t>Coxiella burnetii DNA [Presence] in Tissue by NAA with probe detection</t>
+  </si>
+  <si>
     <t>88192-0</t>
   </si>
   <si>
@@ -2224,6 +2242,18 @@
     <t>SARS-CoV-2 (COVID-19) RNA [Presence] in Oropharyngeal wash by NAA with probe detection</t>
   </si>
   <si>
+    <t>9709-7</t>
+  </si>
+  <si>
+    <t>Coxiella burnetii phase 2 IgG Ab [Titer] in Serum</t>
+  </si>
+  <si>
+    <t>9711-3</t>
+  </si>
+  <si>
+    <t>Coxiella burnetii phase 2 IgM Ab [Titer] in Serum</t>
+  </si>
+  <si>
     <t>97313-1</t>
   </si>
   <si>
@@ -2303,6 +2333,12 @@
   </si>
   <si>
     <t>Treponema pallidum (organism)</t>
+  </si>
+  <si>
+    <t>734351004</t>
+  </si>
+  <si>
+    <t>Carbapenemase-producing Enterobacteriaceae (organism)</t>
   </si>
   <si>
     <t>89293008</t>
@@ -2585,7 +2621,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E359"/>
+  <dimension ref="A1:E364"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2891,52 +2927,52 @@
         <v>38</v>
       </c>
       <c r="D20" t="s" s="2">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D21" t="s" s="2">
         <v>75</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D21" t="s" s="2">
-        <v>39</v>
       </c>
       <c r="E21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D22" t="s" s="2">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="E22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D23" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E23" s="2"/>
     </row>
@@ -2951,7 +2987,7 @@
         <v>38</v>
       </c>
       <c r="D24" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E24" s="2"/>
     </row>
@@ -2966,7 +3002,7 @@
         <v>38</v>
       </c>
       <c r="D25" t="s" s="2">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="E25" s="2"/>
     </row>
@@ -2981,7 +3017,7 @@
         <v>38</v>
       </c>
       <c r="D26" t="s" s="2">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="E26" s="2"/>
     </row>
@@ -2996,7 +3032,7 @@
         <v>38</v>
       </c>
       <c r="D27" t="s" s="2">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="E27" s="2"/>
     </row>
@@ -3011,52 +3047,52 @@
         <v>38</v>
       </c>
       <c r="D28" t="s" s="2">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="E28" s="2"/>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="C29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D29" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="C29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D29" t="s" s="2">
-        <v>39</v>
       </c>
       <c r="E29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D30" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="E30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D31" t="s" s="2">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E31" s="2"/>
     </row>
@@ -3071,7 +3107,7 @@
         <v>38</v>
       </c>
       <c r="D32" t="s" s="2">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="E32" s="2"/>
     </row>
@@ -3086,7 +3122,7 @@
         <v>38</v>
       </c>
       <c r="D33" t="s" s="2">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="E33" s="2"/>
     </row>
@@ -3101,7 +3137,7 @@
         <v>38</v>
       </c>
       <c r="D34" t="s" s="2">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="E34" s="2"/>
     </row>
@@ -3116,7 +3152,7 @@
         <v>38</v>
       </c>
       <c r="D35" t="s" s="2">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="E35" s="2"/>
     </row>
@@ -3251,7 +3287,7 @@
         <v>38</v>
       </c>
       <c r="D44" t="s" s="2">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="E44" s="2"/>
     </row>
@@ -3311,7 +3347,7 @@
         <v>38</v>
       </c>
       <c r="D48" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E48" s="2"/>
     </row>
@@ -3341,7 +3377,7 @@
         <v>38</v>
       </c>
       <c r="D50" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E50" s="2"/>
     </row>
@@ -3476,7 +3512,7 @@
         <v>38</v>
       </c>
       <c r="D59" t="s" s="2">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="E59" s="2"/>
     </row>
@@ -3491,7 +3527,7 @@
         <v>38</v>
       </c>
       <c r="D60" t="s" s="2">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="E60" s="2"/>
     </row>
@@ -3506,7 +3542,7 @@
         <v>38</v>
       </c>
       <c r="D61" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E61" s="2"/>
     </row>
@@ -3521,7 +3557,7 @@
         <v>38</v>
       </c>
       <c r="D62" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E62" s="2"/>
     </row>
@@ -3536,7 +3572,7 @@
         <v>38</v>
       </c>
       <c r="D63" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="E63" s="2"/>
     </row>
@@ -3611,7 +3647,7 @@
         <v>38</v>
       </c>
       <c r="D68" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E68" s="2"/>
     </row>
@@ -3821,7 +3857,7 @@
         <v>38</v>
       </c>
       <c r="D82" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="E82" s="2"/>
     </row>
@@ -3851,7 +3887,7 @@
         <v>38</v>
       </c>
       <c r="D84" t="s" s="2">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="E84" s="2"/>
     </row>
@@ -4181,7 +4217,7 @@
         <v>38</v>
       </c>
       <c r="D106" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="E106" s="2"/>
     </row>
@@ -4196,7 +4232,7 @@
         <v>38</v>
       </c>
       <c r="D107" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="E107" s="2"/>
     </row>
@@ -4211,7 +4247,7 @@
         <v>38</v>
       </c>
       <c r="D108" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E108" s="2"/>
     </row>
@@ -4226,7 +4262,7 @@
         <v>38</v>
       </c>
       <c r="D109" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E109" s="2"/>
     </row>
@@ -4241,7 +4277,7 @@
         <v>38</v>
       </c>
       <c r="D110" t="s" s="2">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="E110" s="2"/>
     </row>
@@ -4256,7 +4292,7 @@
         <v>38</v>
       </c>
       <c r="D111" t="s" s="2">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="E111" s="2"/>
     </row>
@@ -4286,7 +4322,7 @@
         <v>38</v>
       </c>
       <c r="D113" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="E113" s="2"/>
     </row>
@@ -4301,7 +4337,7 @@
         <v>38</v>
       </c>
       <c r="D114" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="E114" s="2"/>
     </row>
@@ -4316,7 +4352,7 @@
         <v>38</v>
       </c>
       <c r="D115" t="s" s="2">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="E115" s="2"/>
     </row>
@@ -4331,7 +4367,7 @@
         <v>38</v>
       </c>
       <c r="D116" t="s" s="2">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="E116" s="2"/>
     </row>
@@ -4376,7 +4412,7 @@
         <v>38</v>
       </c>
       <c r="D119" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="E119" s="2"/>
     </row>
@@ -4406,7 +4442,7 @@
         <v>38</v>
       </c>
       <c r="D121" t="s" s="2">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="E121" s="2"/>
     </row>
@@ -4496,7 +4532,7 @@
         <v>38</v>
       </c>
       <c r="D127" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="E127" s="2"/>
     </row>
@@ -4511,7 +4547,7 @@
         <v>38</v>
       </c>
       <c r="D128" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="E128" s="2"/>
     </row>
@@ -4526,7 +4562,7 @@
         <v>38</v>
       </c>
       <c r="D129" t="s" s="2">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="E129" s="2"/>
     </row>
@@ -4541,7 +4577,7 @@
         <v>38</v>
       </c>
       <c r="D130" t="s" s="2">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="E130" s="2"/>
     </row>
@@ -4556,7 +4592,7 @@
         <v>38</v>
       </c>
       <c r="D131" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="E131" s="2"/>
     </row>
@@ -4571,7 +4607,7 @@
         <v>38</v>
       </c>
       <c r="D132" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="E132" s="2"/>
     </row>
@@ -4586,7 +4622,7 @@
         <v>38</v>
       </c>
       <c r="D133" t="s" s="2">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="E133" s="2"/>
     </row>
@@ -4601,7 +4637,7 @@
         <v>38</v>
       </c>
       <c r="D134" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E134" s="2"/>
     </row>
@@ -4616,7 +4652,7 @@
         <v>38</v>
       </c>
       <c r="D135" t="s" s="2">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="E135" s="2"/>
     </row>
@@ -4631,7 +4667,7 @@
         <v>38</v>
       </c>
       <c r="D136" t="s" s="2">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="E136" s="2"/>
     </row>
@@ -4676,7 +4712,7 @@
         <v>38</v>
       </c>
       <c r="D139" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E139" s="2"/>
     </row>
@@ -4706,7 +4742,7 @@
         <v>38</v>
       </c>
       <c r="D141" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E141" s="2"/>
     </row>
@@ -4856,7 +4892,7 @@
         <v>38</v>
       </c>
       <c r="D151" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="E151" s="2"/>
     </row>
@@ -4886,7 +4922,7 @@
         <v>38</v>
       </c>
       <c r="D153" t="s" s="2">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="E153" s="2"/>
     </row>
@@ -4901,7 +4937,7 @@
         <v>38</v>
       </c>
       <c r="D154" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="E154" s="2"/>
     </row>
@@ -4946,7 +4982,7 @@
         <v>38</v>
       </c>
       <c r="D157" t="s" s="2">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="E157" s="2"/>
     </row>
@@ -5096,7 +5132,7 @@
         <v>38</v>
       </c>
       <c r="D167" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="E167" s="2"/>
     </row>
@@ -5111,7 +5147,7 @@
         <v>38</v>
       </c>
       <c r="D168" t="s" s="2">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="E168" s="2"/>
     </row>
@@ -5216,16 +5252,16 @@
         <v>38</v>
       </c>
       <c r="D175" t="s" s="2">
-        <v>387</v>
+        <v>39</v>
       </c>
       <c r="E175" s="2"/>
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="B176" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="B176" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="C176" t="s" s="2">
         <v>38</v>
@@ -5237,10 +5273,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="B177" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="B177" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="C177" t="s" s="2">
         <v>38</v>
@@ -5252,16 +5288,16 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="B178" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="B178" t="s" s="2">
+      <c r="C178" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D178" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="C178" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D178" t="s" s="2">
-        <v>39</v>
       </c>
       <c r="E178" s="2"/>
     </row>
@@ -5336,7 +5372,7 @@
         <v>38</v>
       </c>
       <c r="D183" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="E183" s="2"/>
     </row>
@@ -5351,7 +5387,7 @@
         <v>38</v>
       </c>
       <c r="D184" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="E184" s="2"/>
     </row>
@@ -5381,7 +5417,7 @@
         <v>38</v>
       </c>
       <c r="D186" t="s" s="2">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="E186" s="2"/>
     </row>
@@ -5411,7 +5447,7 @@
         <v>38</v>
       </c>
       <c r="D188" t="s" s="2">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="E188" s="2"/>
     </row>
@@ -5546,7 +5582,7 @@
         <v>38</v>
       </c>
       <c r="D197" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="E197" s="2"/>
     </row>
@@ -5591,7 +5627,7 @@
         <v>38</v>
       </c>
       <c r="D200" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="E200" s="2"/>
     </row>
@@ -5606,7 +5642,7 @@
         <v>38</v>
       </c>
       <c r="D201" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E201" s="2"/>
     </row>
@@ -5621,7 +5657,7 @@
         <v>38</v>
       </c>
       <c r="D202" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="E202" s="2"/>
     </row>
@@ -5666,7 +5702,7 @@
         <v>38</v>
       </c>
       <c r="D205" t="s" s="2">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="E205" s="2"/>
     </row>
@@ -5681,7 +5717,7 @@
         <v>38</v>
       </c>
       <c r="D206" t="s" s="2">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="E206" s="2"/>
     </row>
@@ -5696,7 +5732,7 @@
         <v>38</v>
       </c>
       <c r="D207" t="s" s="2">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="E207" s="2"/>
     </row>
@@ -5981,7 +6017,7 @@
         <v>38</v>
       </c>
       <c r="D226" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="E226" s="2"/>
     </row>
@@ -5996,7 +6032,7 @@
         <v>38</v>
       </c>
       <c r="D227" t="s" s="2">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="E227" s="2"/>
     </row>
@@ -6026,7 +6062,7 @@
         <v>38</v>
       </c>
       <c r="D229" t="s" s="2">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="E229" s="2"/>
     </row>
@@ -6041,7 +6077,7 @@
         <v>38</v>
       </c>
       <c r="D230" t="s" s="2">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="E230" s="2"/>
     </row>
@@ -6281,7 +6317,7 @@
         <v>38</v>
       </c>
       <c r="D246" t="s" s="2">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E246" s="2"/>
     </row>
@@ -6356,7 +6392,7 @@
         <v>38</v>
       </c>
       <c r="D251" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E251" s="2"/>
     </row>
@@ -6581,7 +6617,7 @@
         <v>38</v>
       </c>
       <c r="D266" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="E266" s="2"/>
     </row>
@@ -6611,7 +6647,7 @@
         <v>38</v>
       </c>
       <c r="D268" t="s" s="2">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="E268" s="2"/>
     </row>
@@ -6686,7 +6722,7 @@
         <v>38</v>
       </c>
       <c r="D273" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="E273" s="2"/>
     </row>
@@ -6716,7 +6752,7 @@
         <v>38</v>
       </c>
       <c r="D275" t="s" s="2">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="E275" s="2"/>
     </row>
@@ -6881,7 +6917,7 @@
         <v>38</v>
       </c>
       <c r="D286" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="E286" s="2"/>
     </row>
@@ -6896,7 +6932,7 @@
         <v>38</v>
       </c>
       <c r="D287" t="s" s="2">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="E287" s="2"/>
     </row>
@@ -6911,7 +6947,7 @@
         <v>38</v>
       </c>
       <c r="D288" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="E288" s="2"/>
     </row>
@@ -6926,7 +6962,7 @@
         <v>38</v>
       </c>
       <c r="D289" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E289" s="2"/>
     </row>
@@ -6941,7 +6977,7 @@
         <v>38</v>
       </c>
       <c r="D290" t="s" s="2">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="E290" s="2"/>
     </row>
@@ -6956,7 +6992,7 @@
         <v>38</v>
       </c>
       <c r="D291" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="E291" s="2"/>
     </row>
@@ -6971,7 +7007,7 @@
         <v>38</v>
       </c>
       <c r="D292" t="s" s="2">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="E292" s="2"/>
     </row>
@@ -7001,7 +7037,7 @@
         <v>38</v>
       </c>
       <c r="D294" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="E294" s="2"/>
     </row>
@@ -7016,7 +7052,7 @@
         <v>38</v>
       </c>
       <c r="D295" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="E295" s="2"/>
     </row>
@@ -7046,7 +7082,7 @@
         <v>38</v>
       </c>
       <c r="D297" t="s" s="2">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="E297" s="2"/>
     </row>
@@ -7061,7 +7097,7 @@
         <v>38</v>
       </c>
       <c r="D298" t="s" s="2">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="E298" s="2"/>
     </row>
@@ -7106,7 +7142,7 @@
         <v>38</v>
       </c>
       <c r="D301" t="s" s="2">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="E301" s="2"/>
     </row>
@@ -7226,7 +7262,7 @@
         <v>38</v>
       </c>
       <c r="D309" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E309" s="2"/>
     </row>
@@ -7256,7 +7292,7 @@
         <v>38</v>
       </c>
       <c r="D311" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="E311" s="2"/>
     </row>
@@ -7271,7 +7307,7 @@
         <v>38</v>
       </c>
       <c r="D312" t="s" s="2">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="E312" s="2"/>
     </row>
@@ -7301,7 +7337,7 @@
         <v>38</v>
       </c>
       <c r="D314" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E314" s="2"/>
     </row>
@@ -7316,7 +7352,7 @@
         <v>38</v>
       </c>
       <c r="D315" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="E315" s="2"/>
     </row>
@@ -7331,7 +7367,7 @@
         <v>38</v>
       </c>
       <c r="D316" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="E316" s="2"/>
     </row>
@@ -7346,7 +7382,7 @@
         <v>38</v>
       </c>
       <c r="D317" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E317" s="2"/>
     </row>
@@ -7361,7 +7397,7 @@
         <v>38</v>
       </c>
       <c r="D318" t="s" s="2">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="E318" s="2"/>
     </row>
@@ -7376,7 +7412,7 @@
         <v>38</v>
       </c>
       <c r="D319" t="s" s="2">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="E319" s="2"/>
     </row>
@@ -7391,7 +7427,7 @@
         <v>38</v>
       </c>
       <c r="D320" t="s" s="2">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="E320" s="2"/>
     </row>
@@ -7466,7 +7502,7 @@
         <v>38</v>
       </c>
       <c r="D325" t="s" s="2">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="E325" s="2"/>
     </row>
@@ -7541,7 +7577,7 @@
         <v>38</v>
       </c>
       <c r="D330" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E330" s="2"/>
     </row>
@@ -7586,7 +7622,7 @@
         <v>38</v>
       </c>
       <c r="D333" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E333" s="2"/>
     </row>
@@ -7601,7 +7637,7 @@
         <v>38</v>
       </c>
       <c r="D334" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="E334" s="2"/>
     </row>
@@ -7646,7 +7682,7 @@
         <v>38</v>
       </c>
       <c r="D337" t="s" s="2">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="E337" s="2"/>
     </row>
@@ -7661,7 +7697,7 @@
         <v>38</v>
       </c>
       <c r="D338" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="E338" s="2"/>
     </row>
@@ -7676,7 +7712,7 @@
         <v>38</v>
       </c>
       <c r="D339" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="E339" s="2"/>
     </row>
@@ -7691,7 +7727,7 @@
         <v>38</v>
       </c>
       <c r="D340" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="E340" s="2"/>
     </row>
@@ -7706,7 +7742,7 @@
         <v>38</v>
       </c>
       <c r="D341" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E341" s="2"/>
     </row>
@@ -7721,7 +7757,7 @@
         <v>38</v>
       </c>
       <c r="D342" t="s" s="2">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="E342" s="2"/>
     </row>
@@ -7736,7 +7772,7 @@
         <v>38</v>
       </c>
       <c r="D343" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E343" s="2"/>
     </row>
@@ -7751,7 +7787,7 @@
         <v>38</v>
       </c>
       <c r="D344" t="s" s="2">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="E344" s="2"/>
     </row>
@@ -7781,7 +7817,7 @@
         <v>38</v>
       </c>
       <c r="D346" t="s" s="2">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="E346" s="2"/>
     </row>
@@ -7826,7 +7862,7 @@
         <v>38</v>
       </c>
       <c r="D349" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="E349" s="2"/>
     </row>
@@ -7871,7 +7907,7 @@
         <v>38</v>
       </c>
       <c r="D352" t="s" s="2">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="E352" s="2"/>
     </row>
@@ -7916,7 +7952,7 @@
         <v>38</v>
       </c>
       <c r="D355" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="E355" s="2"/>
     </row>
@@ -7979,6 +8015,81 @@
         <v>39</v>
       </c>
       <c r="E359" s="2"/>
+    </row>
+    <row r="360">
+      <c r="A360" t="s" s="2">
+        <v>756</v>
+      </c>
+      <c r="B360" t="s" s="2">
+        <v>757</v>
+      </c>
+      <c r="C360" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D360" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E360" s="2"/>
+    </row>
+    <row r="361">
+      <c r="A361" t="s" s="2">
+        <v>758</v>
+      </c>
+      <c r="B361" t="s" s="2">
+        <v>759</v>
+      </c>
+      <c r="C361" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D361" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E361" s="2"/>
+    </row>
+    <row r="362">
+      <c r="A362" t="s" s="2">
+        <v>760</v>
+      </c>
+      <c r="B362" t="s" s="2">
+        <v>761</v>
+      </c>
+      <c r="C362" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D362" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E362" s="2"/>
+    </row>
+    <row r="363">
+      <c r="A363" t="s" s="2">
+        <v>762</v>
+      </c>
+      <c r="B363" t="s" s="2">
+        <v>763</v>
+      </c>
+      <c r="C363" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D363" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E363" s="2"/>
+    </row>
+    <row r="364">
+      <c r="A364" t="s" s="2">
+        <v>764</v>
+      </c>
+      <c r="B364" t="s" s="2">
+        <v>765</v>
+      </c>
+      <c r="C364" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D364" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E364" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -7987,7 +8098,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8012,7 +8123,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>756</v>
+        <v>766</v>
       </c>
       <c r="B2" t="s" s="2">
         <v>34</v>
@@ -8029,10 +8140,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>757</v>
+        <v>767</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>758</v>
+        <v>768</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>38</v>
@@ -8044,10 +8155,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>759</v>
+        <v>769</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>760</v>
+        <v>770</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>38</v>
@@ -8059,10 +8170,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>761</v>
+        <v>771</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>762</v>
+        <v>772</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>38</v>
@@ -8074,10 +8185,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>763</v>
+        <v>773</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="C6" t="s" s="2">
         <v>38</v>
@@ -8086,6 +8197,21 @@
         <v>39</v>
       </c>
       <c r="E6" s="2"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>775</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>776</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E7" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/ig/ch-elm/ch-elm-results-to-interpretation-code.xlsx
+++ b/ig/ch-elm/ch-elm-results-to-interpretation-code.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="805">
   <si>
     <t>Property</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.0</t>
+    <t>1.9.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T09:19:33+00:00</t>
+    <t>2025-03-18T17:14:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -211,12 +211,6 @@
     <t>Influenza virus A H3 RNA [Presence] in Respiratory system specimen by NAA with probe detection</t>
   </si>
   <si>
-    <t>101427-3</t>
-  </si>
-  <si>
-    <t>Shigella sp DNA [Presence] in Stool by NAA with probe detection</t>
-  </si>
-  <si>
     <t>101662-5</t>
   </si>
   <si>
@@ -325,6 +319,18 @@
     <t>Campylobacter sp DNA [Presence] in Specimen by NAA with probe detection</t>
   </si>
   <si>
+    <t>106554-9</t>
+  </si>
+  <si>
+    <t>Escherichia coli shiga-like toxin DNA [Presence] in Stool by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>107242-0</t>
+  </si>
+  <si>
+    <t>Tick-borne encephalitis virus Ab [Interpretation] in Serum or Plasma</t>
+  </si>
+  <si>
     <t>11259-9</t>
   </si>
   <si>
@@ -337,6 +343,30 @@
     <t>Bacillus anthracis [Presence] in Specimen by Organism specific culture</t>
   </si>
   <si>
+    <t>11477-7</t>
+  </si>
+  <si>
+    <t>Microscopic observation [Identifier] in Sputum by Acid fast stain</t>
+  </si>
+  <si>
+    <t>11479-3</t>
+  </si>
+  <si>
+    <t>Microscopic observation [Identifier] in Tissue by Acid fast stain</t>
+  </si>
+  <si>
+    <t>11480-1</t>
+  </si>
+  <si>
+    <t>Microscopic observation [Identifier] in Urine by Acid fast stain</t>
+  </si>
+  <si>
+    <t>11545-1</t>
+  </si>
+  <si>
+    <t>Microscopic observation [Identifier] in Specimen by Acid fast stain</t>
+  </si>
+  <si>
     <t>13954-3</t>
   </si>
   <si>
@@ -529,6 +559,12 @@
     <t>Chlamydia trachomatis rRNA [Presence] in Genital fluid by Probe</t>
   </si>
   <si>
+    <t>24002-8</t>
+  </si>
+  <si>
+    <t>Microscopic observation [Identifier] in Bronchial specimen by Acid fast stain</t>
+  </si>
+  <si>
     <t>24102-6</t>
   </si>
   <si>
@@ -745,6 +781,12 @@
     <t>Hantavirus IgM Ab [Presence] in Serum</t>
   </si>
   <si>
+    <t>32188-5</t>
+  </si>
+  <si>
+    <t>Microscopic observation [Identifier] in Cerebral spinal fluid by Acid fast stain</t>
+  </si>
+  <si>
     <t>32705-6</t>
   </si>
   <si>
@@ -835,6 +877,12 @@
     <t>Streptococcus sp identified in Specimen by Organism specific culture</t>
   </si>
   <si>
+    <t>38379-4</t>
+  </si>
+  <si>
+    <t>Mycobacterium tuberculosis complex DNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
     <t>38382-8</t>
   </si>
   <si>
@@ -1009,12 +1057,6 @@
     <t>Shigella sp [Presence] in Specimen by Organism specific culture</t>
   </si>
   <si>
-    <t>46455-2</t>
-  </si>
-  <si>
-    <t>Shigella sp DNA [Presence] in Specimen by NAA with probe detection</t>
-  </si>
-  <si>
     <t>46732-4</t>
   </si>
   <si>
@@ -1198,6 +1240,12 @@
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-interpretation-codes-avidity</t>
   </si>
   <si>
+    <t>534-8</t>
+  </si>
+  <si>
+    <t>Mycobacterium sp identified in Cerebral spinal fluid by Organism specific culture</t>
+  </si>
+  <si>
     <t>53607-8</t>
   </si>
   <si>
@@ -1252,12 +1300,36 @@
     <t>Escherichia coli shiga-like toxin identified in Specimen</t>
   </si>
   <si>
+    <t>539-7</t>
+  </si>
+  <si>
+    <t>Mycobacterium sp identified in Sputum by Organism specific culture</t>
+  </si>
+  <si>
+    <t>540-5</t>
+  </si>
+  <si>
+    <t>Mycobacterium sp identified in Tissue by Organism specific culture</t>
+  </si>
+  <si>
     <t>54091-4</t>
   </si>
   <si>
     <t>Rubella virus RNA [Presence] in Specimen by NAA with probe detection</t>
   </si>
   <si>
+    <t>541-3</t>
+  </si>
+  <si>
+    <t>Mycobacterium sp identified in Urine by Organism specific culture</t>
+  </si>
+  <si>
+    <t>543-9</t>
+  </si>
+  <si>
+    <t>Mycobacterium sp identified in Specimen by Organism specific culture</t>
+  </si>
+  <si>
     <t>552-0</t>
   </si>
   <si>
@@ -1816,6 +1888,12 @@
     <t>Zika virus IgM Ab [Presence] in Serum by Immunofluorescence</t>
   </si>
   <si>
+    <t>85362-2</t>
+  </si>
+  <si>
+    <t>Mycobacterium tuberculosis complex DNA [Presence] in Sputum or Bronchial by NAA with probe detection</t>
+  </si>
+  <si>
     <t>85477-8</t>
   </si>
   <si>
@@ -2294,6 +2372,12 @@
   </si>
   <si>
     <t>Tick-borne encephalitis virus RNA [Presence] in Specimen by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>9823-6</t>
+  </si>
+  <si>
+    <t>Mycobacterium sp identified in Bronchial specimen by Organism specific culture</t>
   </si>
   <si>
     <t>99090-3</t>
@@ -2621,7 +2705,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E364"/>
+  <dimension ref="A1:E378"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2912,22 +2996,22 @@
         <v>38</v>
       </c>
       <c r="D19" t="s" s="2">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D20" t="s" s="2">
         <v>73</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D20" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="E20" s="2"/>
     </row>
@@ -2942,7 +3026,7 @@
         <v>38</v>
       </c>
       <c r="D21" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E21" s="2"/>
     </row>
@@ -2957,7 +3041,7 @@
         <v>38</v>
       </c>
       <c r="D22" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E22" s="2"/>
     </row>
@@ -2972,7 +3056,7 @@
         <v>38</v>
       </c>
       <c r="D23" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E23" s="2"/>
     </row>
@@ -2987,7 +3071,7 @@
         <v>38</v>
       </c>
       <c r="D24" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E24" s="2"/>
     </row>
@@ -3002,7 +3086,7 @@
         <v>38</v>
       </c>
       <c r="D25" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E25" s="2"/>
     </row>
@@ -3017,7 +3101,7 @@
         <v>38</v>
       </c>
       <c r="D26" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E26" s="2"/>
     </row>
@@ -3032,22 +3116,22 @@
         <v>38</v>
       </c>
       <c r="D27" t="s" s="2">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="E27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D28" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="C28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D28" t="s" s="2">
-        <v>92</v>
       </c>
       <c r="E28" s="2"/>
     </row>
@@ -3062,7 +3146,7 @@
         <v>38</v>
       </c>
       <c r="D29" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E29" s="2"/>
     </row>
@@ -3077,7 +3161,7 @@
         <v>38</v>
       </c>
       <c r="D30" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E30" s="2"/>
     </row>
@@ -3092,7 +3176,7 @@
         <v>38</v>
       </c>
       <c r="D31" t="s" s="2">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="E31" s="2"/>
     </row>
@@ -3137,7 +3221,7 @@
         <v>38</v>
       </c>
       <c r="D34" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E34" s="2"/>
     </row>
@@ -3152,7 +3236,7 @@
         <v>38</v>
       </c>
       <c r="D35" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="E35" s="2"/>
     </row>
@@ -3167,7 +3251,7 @@
         <v>38</v>
       </c>
       <c r="D36" t="s" s="2">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E36" s="2"/>
     </row>
@@ -3287,7 +3371,7 @@
         <v>38</v>
       </c>
       <c r="D44" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="E44" s="2"/>
     </row>
@@ -3347,7 +3431,7 @@
         <v>38</v>
       </c>
       <c r="D48" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E48" s="2"/>
     </row>
@@ -3362,7 +3446,7 @@
         <v>38</v>
       </c>
       <c r="D49" t="s" s="2">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E49" s="2"/>
     </row>
@@ -3422,7 +3506,7 @@
         <v>38</v>
       </c>
       <c r="D53" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E53" s="2"/>
     </row>
@@ -3512,7 +3596,7 @@
         <v>38</v>
       </c>
       <c r="D59" t="s" s="2">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="E59" s="2"/>
     </row>
@@ -3527,7 +3611,7 @@
         <v>38</v>
       </c>
       <c r="D60" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="E60" s="2"/>
     </row>
@@ -3542,7 +3626,7 @@
         <v>38</v>
       </c>
       <c r="D61" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="E61" s="2"/>
     </row>
@@ -3557,7 +3641,7 @@
         <v>38</v>
       </c>
       <c r="D62" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="E62" s="2"/>
     </row>
@@ -3587,7 +3671,7 @@
         <v>38</v>
       </c>
       <c r="D64" t="s" s="2">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="E64" s="2"/>
     </row>
@@ -3602,7 +3686,7 @@
         <v>38</v>
       </c>
       <c r="D65" t="s" s="2">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E65" s="2"/>
     </row>
@@ -3617,7 +3701,7 @@
         <v>38</v>
       </c>
       <c r="D66" t="s" s="2">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E66" s="2"/>
     </row>
@@ -3632,7 +3716,7 @@
         <v>38</v>
       </c>
       <c r="D67" t="s" s="2">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E67" s="2"/>
     </row>
@@ -3647,7 +3731,7 @@
         <v>38</v>
       </c>
       <c r="D68" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="E68" s="2"/>
     </row>
@@ -3737,7 +3821,7 @@
         <v>38</v>
       </c>
       <c r="D74" t="s" s="2">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E74" s="2"/>
     </row>
@@ -3887,7 +3971,7 @@
         <v>38</v>
       </c>
       <c r="D84" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="E84" s="2"/>
     </row>
@@ -3977,7 +4061,7 @@
         <v>38</v>
       </c>
       <c r="D90" t="s" s="2">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E90" s="2"/>
     </row>
@@ -4247,7 +4331,7 @@
         <v>38</v>
       </c>
       <c r="D108" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="E108" s="2"/>
     </row>
@@ -4262,7 +4346,7 @@
         <v>38</v>
       </c>
       <c r="D109" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="E109" s="2"/>
     </row>
@@ -4277,7 +4361,7 @@
         <v>38</v>
       </c>
       <c r="D110" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="E110" s="2"/>
     </row>
@@ -4292,7 +4376,7 @@
         <v>38</v>
       </c>
       <c r="D111" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="E111" s="2"/>
     </row>
@@ -4352,7 +4436,7 @@
         <v>38</v>
       </c>
       <c r="D115" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E115" s="2"/>
     </row>
@@ -4367,7 +4451,7 @@
         <v>38</v>
       </c>
       <c r="D116" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E116" s="2"/>
     </row>
@@ -4382,7 +4466,7 @@
         <v>38</v>
       </c>
       <c r="D117" t="s" s="2">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E117" s="2"/>
     </row>
@@ -4397,7 +4481,7 @@
         <v>38</v>
       </c>
       <c r="D118" t="s" s="2">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E118" s="2"/>
     </row>
@@ -4442,7 +4526,7 @@
         <v>38</v>
       </c>
       <c r="D121" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="E121" s="2"/>
     </row>
@@ -4457,7 +4541,7 @@
         <v>38</v>
       </c>
       <c r="D122" t="s" s="2">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E122" s="2"/>
     </row>
@@ -4472,7 +4556,7 @@
         <v>38</v>
       </c>
       <c r="D123" t="s" s="2">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E123" s="2"/>
     </row>
@@ -4562,7 +4646,7 @@
         <v>38</v>
       </c>
       <c r="D129" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E129" s="2"/>
     </row>
@@ -4577,7 +4661,7 @@
         <v>38</v>
       </c>
       <c r="D130" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="E130" s="2"/>
     </row>
@@ -4622,7 +4706,7 @@
         <v>38</v>
       </c>
       <c r="D133" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="E133" s="2"/>
     </row>
@@ -4637,7 +4721,7 @@
         <v>38</v>
       </c>
       <c r="D134" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="E134" s="2"/>
     </row>
@@ -4652,7 +4736,7 @@
         <v>38</v>
       </c>
       <c r="D135" t="s" s="2">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="E135" s="2"/>
     </row>
@@ -4667,7 +4751,7 @@
         <v>38</v>
       </c>
       <c r="D136" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="E136" s="2"/>
     </row>
@@ -4682,7 +4766,7 @@
         <v>38</v>
       </c>
       <c r="D137" t="s" s="2">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E137" s="2"/>
     </row>
@@ -4697,7 +4781,7 @@
         <v>38</v>
       </c>
       <c r="D138" t="s" s="2">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E138" s="2"/>
     </row>
@@ -4742,7 +4826,7 @@
         <v>38</v>
       </c>
       <c r="D141" t="s" s="2">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="E141" s="2"/>
     </row>
@@ -4757,7 +4841,7 @@
         <v>38</v>
       </c>
       <c r="D142" t="s" s="2">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E142" s="2"/>
     </row>
@@ -4772,7 +4856,7 @@
         <v>38</v>
       </c>
       <c r="D143" t="s" s="2">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="E143" s="2"/>
     </row>
@@ -4787,7 +4871,7 @@
         <v>38</v>
       </c>
       <c r="D144" t="s" s="2">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E144" s="2"/>
     </row>
@@ -4862,7 +4946,7 @@
         <v>38</v>
       </c>
       <c r="D149" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E149" s="2"/>
     </row>
@@ -4922,7 +5006,7 @@
         <v>38</v>
       </c>
       <c r="D153" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="E153" s="2"/>
     </row>
@@ -4982,7 +5066,7 @@
         <v>38</v>
       </c>
       <c r="D157" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="E157" s="2"/>
     </row>
@@ -5027,7 +5111,7 @@
         <v>38</v>
       </c>
       <c r="D160" t="s" s="2">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E160" s="2"/>
     </row>
@@ -5087,7 +5171,7 @@
         <v>38</v>
       </c>
       <c r="D164" t="s" s="2">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E164" s="2"/>
     </row>
@@ -5147,7 +5231,7 @@
         <v>38</v>
       </c>
       <c r="D168" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="E168" s="2"/>
     </row>
@@ -5252,7 +5336,7 @@
         <v>38</v>
       </c>
       <c r="D175" t="s" s="2">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E175" s="2"/>
     </row>
@@ -5297,16 +5381,16 @@
         <v>38</v>
       </c>
       <c r="D178" t="s" s="2">
-        <v>393</v>
+        <v>39</v>
       </c>
       <c r="E178" s="2"/>
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="B179" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="B179" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="C179" t="s" s="2">
         <v>38</v>
@@ -5318,10 +5402,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="B180" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="B180" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="C180" t="s" s="2">
         <v>38</v>
@@ -5333,10 +5417,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="B181" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="B181" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="C181" t="s" s="2">
         <v>38</v>
@@ -5348,10 +5432,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="B182" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="B182" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="C182" t="s" s="2">
         <v>38</v>
@@ -5363,10 +5447,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B183" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="B183" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="C183" t="s" s="2">
         <v>38</v>
@@ -5378,10 +5462,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="B184" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="B184" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="C184" t="s" s="2">
         <v>38</v>
@@ -5393,16 +5477,16 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="B185" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="B185" t="s" s="2">
+      <c r="C185" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D185" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="C185" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D185" t="s" s="2">
-        <v>39</v>
       </c>
       <c r="E185" s="2"/>
     </row>
@@ -5417,7 +5501,7 @@
         <v>38</v>
       </c>
       <c r="D186" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="E186" s="2"/>
     </row>
@@ -5447,7 +5531,7 @@
         <v>38</v>
       </c>
       <c r="D188" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="E188" s="2"/>
     </row>
@@ -5537,7 +5621,7 @@
         <v>38</v>
       </c>
       <c r="D194" t="s" s="2">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E194" s="2"/>
     </row>
@@ -5597,7 +5681,7 @@
         <v>38</v>
       </c>
       <c r="D198" t="s" s="2">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E198" s="2"/>
     </row>
@@ -5642,7 +5726,7 @@
         <v>38</v>
       </c>
       <c r="D201" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="E201" s="2"/>
     </row>
@@ -5702,7 +5786,7 @@
         <v>38</v>
       </c>
       <c r="D205" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="E205" s="2"/>
     </row>
@@ -5717,7 +5801,7 @@
         <v>38</v>
       </c>
       <c r="D206" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="E206" s="2"/>
     </row>
@@ -5732,7 +5816,7 @@
         <v>38</v>
       </c>
       <c r="D207" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="E207" s="2"/>
     </row>
@@ -5822,7 +5906,7 @@
         <v>38</v>
       </c>
       <c r="D213" t="s" s="2">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E213" s="2"/>
     </row>
@@ -5882,7 +5966,7 @@
         <v>38</v>
       </c>
       <c r="D217" t="s" s="2">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E217" s="2"/>
     </row>
@@ -5897,7 +5981,7 @@
         <v>38</v>
       </c>
       <c r="D218" t="s" s="2">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E218" s="2"/>
     </row>
@@ -5912,7 +5996,7 @@
         <v>38</v>
       </c>
       <c r="D219" t="s" s="2">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E219" s="2"/>
     </row>
@@ -6032,7 +6116,7 @@
         <v>38</v>
       </c>
       <c r="D227" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="E227" s="2"/>
     </row>
@@ -6062,7 +6146,7 @@
         <v>38</v>
       </c>
       <c r="D229" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="E229" s="2"/>
     </row>
@@ -6077,7 +6161,7 @@
         <v>38</v>
       </c>
       <c r="D230" t="s" s="2">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="E230" s="2"/>
     </row>
@@ -6212,7 +6296,7 @@
         <v>38</v>
       </c>
       <c r="D239" t="s" s="2">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E239" s="2"/>
     </row>
@@ -6242,7 +6326,7 @@
         <v>38</v>
       </c>
       <c r="D241" t="s" s="2">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E241" s="2"/>
     </row>
@@ -6257,7 +6341,7 @@
         <v>38</v>
       </c>
       <c r="D242" t="s" s="2">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="E242" s="2"/>
     </row>
@@ -6317,7 +6401,7 @@
         <v>38</v>
       </c>
       <c r="D246" t="s" s="2">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="E246" s="2"/>
     </row>
@@ -6392,7 +6476,7 @@
         <v>38</v>
       </c>
       <c r="D251" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="E251" s="2"/>
     </row>
@@ -6497,7 +6581,7 @@
         <v>38</v>
       </c>
       <c r="D258" t="s" s="2">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="E258" s="2"/>
     </row>
@@ -6572,7 +6656,7 @@
         <v>38</v>
       </c>
       <c r="D263" t="s" s="2">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E263" s="2"/>
     </row>
@@ -6647,7 +6731,7 @@
         <v>38</v>
       </c>
       <c r="D268" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="E268" s="2"/>
     </row>
@@ -6752,7 +6836,7 @@
         <v>38</v>
       </c>
       <c r="D275" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="E275" s="2"/>
     </row>
@@ -6827,7 +6911,7 @@
         <v>38</v>
       </c>
       <c r="D280" t="s" s="2">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E280" s="2"/>
     </row>
@@ -6932,7 +7016,7 @@
         <v>38</v>
       </c>
       <c r="D287" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E287" s="2"/>
     </row>
@@ -6962,7 +7046,7 @@
         <v>38</v>
       </c>
       <c r="D289" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="E289" s="2"/>
     </row>
@@ -6977,7 +7061,7 @@
         <v>38</v>
       </c>
       <c r="D290" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="E290" s="2"/>
     </row>
@@ -7007,7 +7091,7 @@
         <v>38</v>
       </c>
       <c r="D292" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="E292" s="2"/>
     </row>
@@ -7082,7 +7166,7 @@
         <v>38</v>
       </c>
       <c r="D297" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="E297" s="2"/>
     </row>
@@ -7097,7 +7181,7 @@
         <v>38</v>
       </c>
       <c r="D298" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="E298" s="2"/>
     </row>
@@ -7127,7 +7211,7 @@
         <v>38</v>
       </c>
       <c r="D300" t="s" s="2">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E300" s="2"/>
     </row>
@@ -7142,7 +7226,7 @@
         <v>38</v>
       </c>
       <c r="D301" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="E301" s="2"/>
     </row>
@@ -7157,7 +7241,7 @@
         <v>38</v>
       </c>
       <c r="D302" t="s" s="2">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E302" s="2"/>
     </row>
@@ -7172,7 +7256,7 @@
         <v>38</v>
       </c>
       <c r="D303" t="s" s="2">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E303" s="2"/>
     </row>
@@ -7202,7 +7286,7 @@
         <v>38</v>
       </c>
       <c r="D305" t="s" s="2">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E305" s="2"/>
     </row>
@@ -7262,7 +7346,7 @@
         <v>38</v>
       </c>
       <c r="D309" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="E309" s="2"/>
     </row>
@@ -7277,7 +7361,7 @@
         <v>38</v>
       </c>
       <c r="D310" t="s" s="2">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E310" s="2"/>
     </row>
@@ -7292,7 +7376,7 @@
         <v>38</v>
       </c>
       <c r="D311" t="s" s="2">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E311" s="2"/>
     </row>
@@ -7307,7 +7391,7 @@
         <v>38</v>
       </c>
       <c r="D312" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="E312" s="2"/>
     </row>
@@ -7337,7 +7421,7 @@
         <v>38</v>
       </c>
       <c r="D314" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E314" s="2"/>
     </row>
@@ -7382,7 +7466,7 @@
         <v>38</v>
       </c>
       <c r="D317" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="E317" s="2"/>
     </row>
@@ -7397,7 +7481,7 @@
         <v>38</v>
       </c>
       <c r="D318" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="E318" s="2"/>
     </row>
@@ -7412,7 +7496,7 @@
         <v>38</v>
       </c>
       <c r="D319" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="E319" s="2"/>
     </row>
@@ -7427,7 +7511,7 @@
         <v>38</v>
       </c>
       <c r="D320" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="E320" s="2"/>
     </row>
@@ -7457,7 +7541,7 @@
         <v>38</v>
       </c>
       <c r="D322" t="s" s="2">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E322" s="2"/>
     </row>
@@ -7502,7 +7586,7 @@
         <v>38</v>
       </c>
       <c r="D325" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E325" s="2"/>
     </row>
@@ -7532,7 +7616,7 @@
         <v>38</v>
       </c>
       <c r="D327" t="s" s="2">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E327" s="2"/>
     </row>
@@ -7577,7 +7661,7 @@
         <v>38</v>
       </c>
       <c r="D330" t="s" s="2">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E330" s="2"/>
     </row>
@@ -7592,7 +7676,7 @@
         <v>38</v>
       </c>
       <c r="D331" t="s" s="2">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E331" s="2"/>
     </row>
@@ -7607,7 +7691,7 @@
         <v>38</v>
       </c>
       <c r="D332" t="s" s="2">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E332" s="2"/>
     </row>
@@ -7622,7 +7706,7 @@
         <v>38</v>
       </c>
       <c r="D333" t="s" s="2">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="E333" s="2"/>
     </row>
@@ -7682,7 +7766,7 @@
         <v>38</v>
       </c>
       <c r="D337" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="E337" s="2"/>
     </row>
@@ -7697,7 +7781,7 @@
         <v>38</v>
       </c>
       <c r="D338" t="s" s="2">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E338" s="2"/>
     </row>
@@ -7742,7 +7826,7 @@
         <v>38</v>
       </c>
       <c r="D341" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="E341" s="2"/>
     </row>
@@ -7757,7 +7841,7 @@
         <v>38</v>
       </c>
       <c r="D342" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="E342" s="2"/>
     </row>
@@ -7772,7 +7856,7 @@
         <v>38</v>
       </c>
       <c r="D343" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="E343" s="2"/>
     </row>
@@ -7787,7 +7871,7 @@
         <v>38</v>
       </c>
       <c r="D344" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="E344" s="2"/>
     </row>
@@ -7817,7 +7901,7 @@
         <v>38</v>
       </c>
       <c r="D346" t="s" s="2">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="E346" s="2"/>
     </row>
@@ -7877,7 +7961,7 @@
         <v>38</v>
       </c>
       <c r="D350" t="s" s="2">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E350" s="2"/>
     </row>
@@ -7907,7 +7991,7 @@
         <v>38</v>
       </c>
       <c r="D352" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="E352" s="2"/>
     </row>
@@ -7937,7 +8021,7 @@
         <v>38</v>
       </c>
       <c r="D354" t="s" s="2">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E354" s="2"/>
     </row>
@@ -7952,7 +8036,7 @@
         <v>38</v>
       </c>
       <c r="D355" t="s" s="2">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E355" s="2"/>
     </row>
@@ -7967,7 +8051,7 @@
         <v>38</v>
       </c>
       <c r="D356" t="s" s="2">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E356" s="2"/>
     </row>
@@ -7982,7 +8066,7 @@
         <v>38</v>
       </c>
       <c r="D357" t="s" s="2">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E357" s="2"/>
     </row>
@@ -8012,7 +8096,7 @@
         <v>38</v>
       </c>
       <c r="D359" t="s" s="2">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E359" s="2"/>
     </row>
@@ -8027,7 +8111,7 @@
         <v>38</v>
       </c>
       <c r="D360" t="s" s="2">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="E360" s="2"/>
     </row>
@@ -8090,6 +8174,216 @@
         <v>39</v>
       </c>
       <c r="E364" s="2"/>
+    </row>
+    <row r="365">
+      <c r="A365" t="s" s="2">
+        <v>766</v>
+      </c>
+      <c r="B365" t="s" s="2">
+        <v>767</v>
+      </c>
+      <c r="C365" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D365" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E365" s="2"/>
+    </row>
+    <row r="366">
+      <c r="A366" t="s" s="2">
+        <v>768</v>
+      </c>
+      <c r="B366" t="s" s="2">
+        <v>769</v>
+      </c>
+      <c r="C366" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D366" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E366" s="2"/>
+    </row>
+    <row r="367">
+      <c r="A367" t="s" s="2">
+        <v>770</v>
+      </c>
+      <c r="B367" t="s" s="2">
+        <v>771</v>
+      </c>
+      <c r="C367" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D367" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E367" s="2"/>
+    </row>
+    <row r="368">
+      <c r="A368" t="s" s="2">
+        <v>772</v>
+      </c>
+      <c r="B368" t="s" s="2">
+        <v>773</v>
+      </c>
+      <c r="C368" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D368" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E368" s="2"/>
+    </row>
+    <row r="369">
+      <c r="A369" t="s" s="2">
+        <v>774</v>
+      </c>
+      <c r="B369" t="s" s="2">
+        <v>775</v>
+      </c>
+      <c r="C369" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D369" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E369" s="2"/>
+    </row>
+    <row r="370">
+      <c r="A370" t="s" s="2">
+        <v>776</v>
+      </c>
+      <c r="B370" t="s" s="2">
+        <v>777</v>
+      </c>
+      <c r="C370" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D370" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E370" s="2"/>
+    </row>
+    <row r="371">
+      <c r="A371" t="s" s="2">
+        <v>778</v>
+      </c>
+      <c r="B371" t="s" s="2">
+        <v>779</v>
+      </c>
+      <c r="C371" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D371" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E371" s="2"/>
+    </row>
+    <row r="372">
+      <c r="A372" t="s" s="2">
+        <v>780</v>
+      </c>
+      <c r="B372" t="s" s="2">
+        <v>781</v>
+      </c>
+      <c r="C372" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D372" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E372" s="2"/>
+    </row>
+    <row r="373">
+      <c r="A373" t="s" s="2">
+        <v>782</v>
+      </c>
+      <c r="B373" t="s" s="2">
+        <v>783</v>
+      </c>
+      <c r="C373" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D373" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E373" s="2"/>
+    </row>
+    <row r="374">
+      <c r="A374" t="s" s="2">
+        <v>784</v>
+      </c>
+      <c r="B374" t="s" s="2">
+        <v>785</v>
+      </c>
+      <c r="C374" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D374" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E374" s="2"/>
+    </row>
+    <row r="375">
+      <c r="A375" t="s" s="2">
+        <v>786</v>
+      </c>
+      <c r="B375" t="s" s="2">
+        <v>787</v>
+      </c>
+      <c r="C375" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D375" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E375" s="2"/>
+    </row>
+    <row r="376">
+      <c r="A376" t="s" s="2">
+        <v>788</v>
+      </c>
+      <c r="B376" t="s" s="2">
+        <v>789</v>
+      </c>
+      <c r="C376" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D376" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E376" s="2"/>
+    </row>
+    <row r="377">
+      <c r="A377" t="s" s="2">
+        <v>790</v>
+      </c>
+      <c r="B377" t="s" s="2">
+        <v>791</v>
+      </c>
+      <c r="C377" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D377" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E377" s="2"/>
+    </row>
+    <row r="378">
+      <c r="A378" t="s" s="2">
+        <v>792</v>
+      </c>
+      <c r="B378" t="s" s="2">
+        <v>793</v>
+      </c>
+      <c r="C378" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D378" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E378" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -8123,7 +8417,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>766</v>
+        <v>794</v>
       </c>
       <c r="B2" t="s" s="2">
         <v>34</v>
@@ -8140,10 +8434,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>767</v>
+        <v>795</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>768</v>
+        <v>796</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>38</v>
@@ -8155,10 +8449,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>769</v>
+        <v>797</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>770</v>
+        <v>798</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>38</v>
@@ -8170,10 +8464,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>771</v>
+        <v>799</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>772</v>
+        <v>800</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>38</v>
@@ -8185,10 +8479,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>773</v>
+        <v>801</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>774</v>
+        <v>802</v>
       </c>
       <c r="C6" t="s" s="2">
         <v>38</v>
@@ -8200,10 +8494,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>775</v>
+        <v>803</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>776</v>
+        <v>804</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>38</v>

--- a/ig/ch-elm/ch-elm-results-to-interpretation-code.xlsx
+++ b/ig/ch-elm/ch-elm-results-to-interpretation-code.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.9.0</t>
+    <t>1.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-18T17:14:46+00:00</t>
+    <t>2025-03-26T08:01:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ch-elm-results-to-interpretation-code.xlsx
+++ b/ig/ch-elm/ch-elm-results-to-interpretation-code.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="805">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1579" uniqueCount="807">
   <si>
     <t>Property</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.9.1</t>
+    <t>1.10.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-26T08:01:17+00:00</t>
+    <t>2025-06-23T21:17:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2048,6 +2048,12 @@
   </si>
   <si>
     <t>Chikungunya virus IgM Ab [Presence] in Serum or Plasma by Immunoassay</t>
+  </si>
+  <si>
+    <t>88875-0</t>
+  </si>
+  <si>
+    <t>Measles virus genotype A vaccine strain N gene [Presence] in Specimen by NAA with probe detection</t>
   </si>
   <si>
     <t>89596-1</t>
@@ -2705,7 +2711,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E378"/>
+  <dimension ref="A1:E379"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7541,7 +7547,7 @@
         <v>38</v>
       </c>
       <c r="D322" t="s" s="2">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="E322" s="2"/>
     </row>
@@ -7556,7 +7562,7 @@
         <v>38</v>
       </c>
       <c r="D323" t="s" s="2">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E323" s="2"/>
     </row>
@@ -7586,7 +7592,7 @@
         <v>38</v>
       </c>
       <c r="D325" t="s" s="2">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="E325" s="2"/>
     </row>
@@ -7601,7 +7607,7 @@
         <v>38</v>
       </c>
       <c r="D326" t="s" s="2">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E326" s="2"/>
     </row>
@@ -7616,7 +7622,7 @@
         <v>38</v>
       </c>
       <c r="D327" t="s" s="2">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="E327" s="2"/>
     </row>
@@ -7631,7 +7637,7 @@
         <v>38</v>
       </c>
       <c r="D328" t="s" s="2">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E328" s="2"/>
     </row>
@@ -7661,7 +7667,7 @@
         <v>38</v>
       </c>
       <c r="D330" t="s" s="2">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="E330" s="2"/>
     </row>
@@ -7721,7 +7727,7 @@
         <v>38</v>
       </c>
       <c r="D334" t="s" s="2">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E334" s="2"/>
     </row>
@@ -7781,7 +7787,7 @@
         <v>38</v>
       </c>
       <c r="D338" t="s" s="2">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="E338" s="2"/>
     </row>
@@ -7796,7 +7802,7 @@
         <v>38</v>
       </c>
       <c r="D339" t="s" s="2">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E339" s="2"/>
     </row>
@@ -7901,7 +7907,7 @@
         <v>38</v>
       </c>
       <c r="D346" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E346" s="2"/>
     </row>
@@ -7916,7 +7922,7 @@
         <v>38</v>
       </c>
       <c r="D347" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E347" s="2"/>
     </row>
@@ -7961,7 +7967,7 @@
         <v>38</v>
       </c>
       <c r="D350" t="s" s="2">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="E350" s="2"/>
     </row>
@@ -8021,7 +8027,7 @@
         <v>38</v>
       </c>
       <c r="D354" t="s" s="2">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="E354" s="2"/>
     </row>
@@ -8036,7 +8042,7 @@
         <v>38</v>
       </c>
       <c r="D355" t="s" s="2">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="E355" s="2"/>
     </row>
@@ -8066,7 +8072,7 @@
         <v>38</v>
       </c>
       <c r="D357" t="s" s="2">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="E357" s="2"/>
     </row>
@@ -8096,7 +8102,7 @@
         <v>38</v>
       </c>
       <c r="D359" t="s" s="2">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="E359" s="2"/>
     </row>
@@ -8186,7 +8192,7 @@
         <v>38</v>
       </c>
       <c r="D365" t="s" s="2">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="E365" s="2"/>
     </row>
@@ -8306,7 +8312,7 @@
         <v>38</v>
       </c>
       <c r="D373" t="s" s="2">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="E373" s="2"/>
     </row>
@@ -8321,7 +8327,7 @@
         <v>38</v>
       </c>
       <c r="D374" t="s" s="2">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E374" s="2"/>
     </row>
@@ -8384,6 +8390,21 @@
         <v>39</v>
       </c>
       <c r="E378" s="2"/>
+    </row>
+    <row r="379">
+      <c r="A379" t="s" s="2">
+        <v>794</v>
+      </c>
+      <c r="B379" t="s" s="2">
+        <v>795</v>
+      </c>
+      <c r="C379" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D379" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E379" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -8417,7 +8438,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="B2" t="s" s="2">
         <v>34</v>
@@ -8434,10 +8455,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>38</v>
@@ -8449,10 +8470,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>38</v>
@@ -8464,10 +8485,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>38</v>
@@ -8479,10 +8500,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="C6" t="s" s="2">
         <v>38</v>
@@ -8494,10 +8515,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>38</v>

--- a/ig/ch-elm/ch-elm-results-to-interpretation-code.xlsx
+++ b/ig/ch-elm/ch-elm-results-to-interpretation-code.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1579" uniqueCount="807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1583" uniqueCount="809">
   <si>
     <t>Property</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.10.0</t>
+    <t>1.11.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T21:17:45+00:00</t>
+    <t>2025-08-13T07:34:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -899,6 +899,12 @@
   </si>
   <si>
     <t>Influenza virus A hemagglutinin cDNA [Identifier] in Specimen by Sequencing</t>
+  </si>
+  <si>
+    <t>40614-0</t>
+  </si>
+  <si>
+    <t>Brucella sp Ab [Presence] in Serum by Agglutination</t>
   </si>
   <si>
     <t>40669-4</t>
@@ -2711,7 +2717,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E379"/>
+  <dimension ref="A1:E380"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4772,7 +4778,7 @@
         <v>38</v>
       </c>
       <c r="D137" t="s" s="2">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="E137" s="2"/>
     </row>
@@ -4802,7 +4808,7 @@
         <v>38</v>
       </c>
       <c r="D139" t="s" s="2">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E139" s="2"/>
     </row>
@@ -4832,7 +4838,7 @@
         <v>38</v>
       </c>
       <c r="D141" t="s" s="2">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="E141" s="2"/>
     </row>
@@ -4862,7 +4868,7 @@
         <v>38</v>
       </c>
       <c r="D143" t="s" s="2">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="E143" s="2"/>
     </row>
@@ -4877,7 +4883,7 @@
         <v>38</v>
       </c>
       <c r="D144" t="s" s="2">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="E144" s="2"/>
     </row>
@@ -4892,7 +4898,7 @@
         <v>38</v>
       </c>
       <c r="D145" t="s" s="2">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E145" s="2"/>
     </row>
@@ -4952,7 +4958,7 @@
         <v>38</v>
       </c>
       <c r="D149" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E149" s="2"/>
     </row>
@@ -4967,7 +4973,7 @@
         <v>38</v>
       </c>
       <c r="D150" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E150" s="2"/>
     </row>
@@ -5117,7 +5123,7 @@
         <v>38</v>
       </c>
       <c r="D160" t="s" s="2">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="E160" s="2"/>
     </row>
@@ -5132,7 +5138,7 @@
         <v>38</v>
       </c>
       <c r="D161" t="s" s="2">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E161" s="2"/>
     </row>
@@ -5177,7 +5183,7 @@
         <v>38</v>
       </c>
       <c r="D164" t="s" s="2">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="E164" s="2"/>
     </row>
@@ -5192,7 +5198,7 @@
         <v>38</v>
       </c>
       <c r="D165" t="s" s="2">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E165" s="2"/>
     </row>
@@ -5342,7 +5348,7 @@
         <v>38</v>
       </c>
       <c r="D175" t="s" s="2">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="E175" s="2"/>
     </row>
@@ -5357,7 +5363,7 @@
         <v>38</v>
       </c>
       <c r="D176" t="s" s="2">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E176" s="2"/>
     </row>
@@ -5492,22 +5498,22 @@
         <v>38</v>
       </c>
       <c r="D185" t="s" s="2">
-        <v>407</v>
+        <v>39</v>
       </c>
       <c r="E185" s="2"/>
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="B186" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="B186" t="s" s="2">
+      <c r="C186" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D186" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="C186" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D186" t="s" s="2">
-        <v>39</v>
       </c>
       <c r="E186" s="2"/>
     </row>
@@ -5627,7 +5633,7 @@
         <v>38</v>
       </c>
       <c r="D194" t="s" s="2">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="E194" s="2"/>
     </row>
@@ -5642,7 +5648,7 @@
         <v>38</v>
       </c>
       <c r="D195" t="s" s="2">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E195" s="2"/>
     </row>
@@ -5687,7 +5693,7 @@
         <v>38</v>
       </c>
       <c r="D198" t="s" s="2">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="E198" s="2"/>
     </row>
@@ -5702,7 +5708,7 @@
         <v>38</v>
       </c>
       <c r="D199" t="s" s="2">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E199" s="2"/>
     </row>
@@ -5912,7 +5918,7 @@
         <v>38</v>
       </c>
       <c r="D213" t="s" s="2">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="E213" s="2"/>
     </row>
@@ -5927,7 +5933,7 @@
         <v>38</v>
       </c>
       <c r="D214" t="s" s="2">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E214" s="2"/>
     </row>
@@ -5972,7 +5978,7 @@
         <v>38</v>
       </c>
       <c r="D217" t="s" s="2">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="E217" s="2"/>
     </row>
@@ -6017,7 +6023,7 @@
         <v>38</v>
       </c>
       <c r="D220" t="s" s="2">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E220" s="2"/>
     </row>
@@ -6302,7 +6308,7 @@
         <v>38</v>
       </c>
       <c r="D239" t="s" s="2">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="E239" s="2"/>
     </row>
@@ -6317,7 +6323,7 @@
         <v>38</v>
       </c>
       <c r="D240" t="s" s="2">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E240" s="2"/>
     </row>
@@ -6332,7 +6338,7 @@
         <v>38</v>
       </c>
       <c r="D241" t="s" s="2">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="E241" s="2"/>
     </row>
@@ -6347,7 +6353,7 @@
         <v>38</v>
       </c>
       <c r="D242" t="s" s="2">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="E242" s="2"/>
     </row>
@@ -6362,7 +6368,7 @@
         <v>38</v>
       </c>
       <c r="D243" t="s" s="2">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="E243" s="2"/>
     </row>
@@ -6587,7 +6593,7 @@
         <v>38</v>
       </c>
       <c r="D258" t="s" s="2">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="E258" s="2"/>
     </row>
@@ -6602,7 +6608,7 @@
         <v>38</v>
       </c>
       <c r="D259" t="s" s="2">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="E259" s="2"/>
     </row>
@@ -6662,7 +6668,7 @@
         <v>38</v>
       </c>
       <c r="D263" t="s" s="2">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="E263" s="2"/>
     </row>
@@ -6677,7 +6683,7 @@
         <v>38</v>
       </c>
       <c r="D264" t="s" s="2">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E264" s="2"/>
     </row>
@@ -6917,7 +6923,7 @@
         <v>38</v>
       </c>
       <c r="D280" t="s" s="2">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="E280" s="2"/>
     </row>
@@ -6932,7 +6938,7 @@
         <v>38</v>
       </c>
       <c r="D281" t="s" s="2">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E281" s="2"/>
     </row>
@@ -7022,7 +7028,7 @@
         <v>38</v>
       </c>
       <c r="D287" t="s" s="2">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="E287" s="2"/>
     </row>
@@ -7037,7 +7043,7 @@
         <v>38</v>
       </c>
       <c r="D288" t="s" s="2">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E288" s="2"/>
     </row>
@@ -7217,7 +7223,7 @@
         <v>38</v>
       </c>
       <c r="D300" t="s" s="2">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="E300" s="2"/>
     </row>
@@ -7232,7 +7238,7 @@
         <v>38</v>
       </c>
       <c r="D301" t="s" s="2">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E301" s="2"/>
     </row>
@@ -7247,7 +7253,7 @@
         <v>38</v>
       </c>
       <c r="D302" t="s" s="2">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="E302" s="2"/>
     </row>
@@ -7277,7 +7283,7 @@
         <v>38</v>
       </c>
       <c r="D304" t="s" s="2">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E304" s="2"/>
     </row>
@@ -7292,7 +7298,7 @@
         <v>38</v>
       </c>
       <c r="D305" t="s" s="2">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="E305" s="2"/>
     </row>
@@ -7307,7 +7313,7 @@
         <v>38</v>
       </c>
       <c r="D306" t="s" s="2">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E306" s="2"/>
     </row>
@@ -7367,7 +7373,7 @@
         <v>38</v>
       </c>
       <c r="D310" t="s" s="2">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="E310" s="2"/>
     </row>
@@ -7397,7 +7403,7 @@
         <v>38</v>
       </c>
       <c r="D312" t="s" s="2">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E312" s="2"/>
     </row>
@@ -7427,7 +7433,7 @@
         <v>38</v>
       </c>
       <c r="D314" t="s" s="2">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="E314" s="2"/>
     </row>
@@ -7442,7 +7448,7 @@
         <v>38</v>
       </c>
       <c r="D315" t="s" s="2">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E315" s="2"/>
     </row>
@@ -7562,7 +7568,7 @@
         <v>38</v>
       </c>
       <c r="D323" t="s" s="2">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="E323" s="2"/>
     </row>
@@ -7577,7 +7583,7 @@
         <v>38</v>
       </c>
       <c r="D324" t="s" s="2">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E324" s="2"/>
     </row>
@@ -7607,7 +7613,7 @@
         <v>38</v>
       </c>
       <c r="D326" t="s" s="2">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="E326" s="2"/>
     </row>
@@ -7622,7 +7628,7 @@
         <v>38</v>
       </c>
       <c r="D327" t="s" s="2">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E327" s="2"/>
     </row>
@@ -7637,7 +7643,7 @@
         <v>38</v>
       </c>
       <c r="D328" t="s" s="2">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="E328" s="2"/>
     </row>
@@ -7652,7 +7658,7 @@
         <v>38</v>
       </c>
       <c r="D329" t="s" s="2">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E329" s="2"/>
     </row>
@@ -7682,7 +7688,7 @@
         <v>38</v>
       </c>
       <c r="D331" t="s" s="2">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="E331" s="2"/>
     </row>
@@ -7742,7 +7748,7 @@
         <v>38</v>
       </c>
       <c r="D335" t="s" s="2">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E335" s="2"/>
     </row>
@@ -7802,7 +7808,7 @@
         <v>38</v>
       </c>
       <c r="D339" t="s" s="2">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="E339" s="2"/>
     </row>
@@ -7817,7 +7823,7 @@
         <v>38</v>
       </c>
       <c r="D340" t="s" s="2">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E340" s="2"/>
     </row>
@@ -7922,7 +7928,7 @@
         <v>38</v>
       </c>
       <c r="D347" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E347" s="2"/>
     </row>
@@ -7937,7 +7943,7 @@
         <v>38</v>
       </c>
       <c r="D348" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E348" s="2"/>
     </row>
@@ -8057,7 +8063,7 @@
         <v>38</v>
       </c>
       <c r="D356" t="s" s="2">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="E356" s="2"/>
     </row>
@@ -8072,7 +8078,7 @@
         <v>38</v>
       </c>
       <c r="D357" t="s" s="2">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E357" s="2"/>
     </row>
@@ -8327,7 +8333,7 @@
         <v>38</v>
       </c>
       <c r="D374" t="s" s="2">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="E374" s="2"/>
     </row>
@@ -8342,7 +8348,7 @@
         <v>38</v>
       </c>
       <c r="D375" t="s" s="2">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="E375" s="2"/>
     </row>
@@ -8405,6 +8411,21 @@
         <v>39</v>
       </c>
       <c r="E379" s="2"/>
+    </row>
+    <row r="380">
+      <c r="A380" t="s" s="2">
+        <v>796</v>
+      </c>
+      <c r="B380" t="s" s="2">
+        <v>797</v>
+      </c>
+      <c r="C380" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D380" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E380" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -8438,7 +8459,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="B2" t="s" s="2">
         <v>34</v>
@@ -8455,10 +8476,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>38</v>
@@ -8470,10 +8491,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>38</v>
@@ -8485,10 +8506,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>38</v>
@@ -8500,10 +8521,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="C6" t="s" s="2">
         <v>38</v>
@@ -8515,10 +8536,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>38</v>

--- a/ig/ch-elm/ch-elm-results-to-interpretation-code.xlsx
+++ b/ig/ch-elm/ch-elm-results-to-interpretation-code.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.11.0</t>
+    <t>1.12.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-13T07:34:00+00:00</t>
+    <t>2025-10-21T11:52:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ch-elm-results-to-interpretation-code.xlsx
+++ b/ig/ch-elm/ch-elm-results-to-interpretation-code.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1583" uniqueCount="809">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1587" uniqueCount="811">
   <si>
     <t>Property</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.12.0</t>
+    <t>1.13.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T11:52:21+00:00</t>
+    <t>2025-11-25T09:58:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -217,6 +217,9 @@
     <t>Abnormal Prion Protein [Presence] in Cerebral spinal fluid by RT-QuIC</t>
   </si>
   <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-interpretation-codes-pos-neg</t>
+  </si>
+  <si>
     <t>101802-7</t>
   </si>
   <si>
@@ -235,9 +238,6 @@
     <t>Crimean-Congo hemorrhagic fever virus RNA [Presence] in Blood by NAA with non-probe detection</t>
   </si>
   <si>
-    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-interpretation-codes-pos-neg</t>
-  </si>
-  <si>
     <t>103719-1</t>
   </si>
   <si>
@@ -1868,6 +1868,12 @@
   </si>
   <si>
     <t>Campylobacter coli+jejuni tuf gene [Presence] in Stool by NAA with probe detection</t>
+  </si>
+  <si>
+    <t>81868-2</t>
+  </si>
+  <si>
+    <t>PRNP gene targeted mutation analysis in Blood or Tissue by Molecular genetics method</t>
   </si>
   <si>
     <t>82184-3</t>
@@ -2717,7 +2723,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E380"/>
+  <dimension ref="A1:E381"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2963,16 +2969,16 @@
         <v>38</v>
       </c>
       <c r="D16" t="s" s="2">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>38</v>
@@ -2984,10 +2990,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>38</v>
@@ -2999,16 +3005,16 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="D19" t="s" s="2">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E19" s="2"/>
     </row>
@@ -3023,7 +3029,7 @@
         <v>38</v>
       </c>
       <c r="D20" t="s" s="2">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E20" s="2"/>
     </row>
@@ -3038,7 +3044,7 @@
         <v>38</v>
       </c>
       <c r="D21" t="s" s="2">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="E21" s="2"/>
     </row>
@@ -3053,7 +3059,7 @@
         <v>38</v>
       </c>
       <c r="D22" t="s" s="2">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="E22" s="2"/>
     </row>
@@ -3068,7 +3074,7 @@
         <v>38</v>
       </c>
       <c r="D23" t="s" s="2">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="E23" s="2"/>
     </row>
@@ -3083,7 +3089,7 @@
         <v>38</v>
       </c>
       <c r="D24" t="s" s="2">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="E24" s="2"/>
     </row>
@@ -3098,7 +3104,7 @@
         <v>38</v>
       </c>
       <c r="D25" t="s" s="2">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="E25" s="2"/>
     </row>
@@ -3113,7 +3119,7 @@
         <v>38</v>
       </c>
       <c r="D26" t="s" s="2">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E26" s="2"/>
     </row>
@@ -3263,7 +3269,7 @@
         <v>38</v>
       </c>
       <c r="D36" t="s" s="2">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E36" s="2"/>
     </row>
@@ -3458,7 +3464,7 @@
         <v>38</v>
       </c>
       <c r="D49" t="s" s="2">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="E49" s="2"/>
     </row>
@@ -3698,7 +3704,7 @@
         <v>38</v>
       </c>
       <c r="D65" t="s" s="2">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E65" s="2"/>
     </row>
@@ -3713,7 +3719,7 @@
         <v>38</v>
       </c>
       <c r="D66" t="s" s="2">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E66" s="2"/>
     </row>
@@ -3728,7 +3734,7 @@
         <v>38</v>
       </c>
       <c r="D67" t="s" s="2">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E67" s="2"/>
     </row>
@@ -3833,7 +3839,7 @@
         <v>38</v>
       </c>
       <c r="D74" t="s" s="2">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E74" s="2"/>
     </row>
@@ -4073,7 +4079,7 @@
         <v>38</v>
       </c>
       <c r="D90" t="s" s="2">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E90" s="2"/>
     </row>
@@ -4448,7 +4454,7 @@
         <v>38</v>
       </c>
       <c r="D115" t="s" s="2">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E115" s="2"/>
     </row>
@@ -4463,7 +4469,7 @@
         <v>38</v>
       </c>
       <c r="D116" t="s" s="2">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E116" s="2"/>
     </row>
@@ -4478,7 +4484,7 @@
         <v>38</v>
       </c>
       <c r="D117" t="s" s="2">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E117" s="2"/>
     </row>
@@ -4493,7 +4499,7 @@
         <v>38</v>
       </c>
       <c r="D118" t="s" s="2">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E118" s="2"/>
     </row>
@@ -4553,7 +4559,7 @@
         <v>38</v>
       </c>
       <c r="D122" t="s" s="2">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E122" s="2"/>
     </row>
@@ -4568,7 +4574,7 @@
         <v>38</v>
       </c>
       <c r="D123" t="s" s="2">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E123" s="2"/>
     </row>
@@ -4583,7 +4589,7 @@
         <v>38</v>
       </c>
       <c r="D124" t="s" s="2">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="E124" s="2"/>
     </row>
@@ -4658,7 +4664,7 @@
         <v>38</v>
       </c>
       <c r="D129" t="s" s="2">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E129" s="2"/>
     </row>
@@ -4793,7 +4799,7 @@
         <v>38</v>
       </c>
       <c r="D138" t="s" s="2">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E138" s="2"/>
     </row>
@@ -4808,7 +4814,7 @@
         <v>38</v>
       </c>
       <c r="D139" t="s" s="2">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E139" s="2"/>
     </row>
@@ -4853,7 +4859,7 @@
         <v>38</v>
       </c>
       <c r="D142" t="s" s="2">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E142" s="2"/>
     </row>
@@ -4868,7 +4874,7 @@
         <v>38</v>
       </c>
       <c r="D143" t="s" s="2">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E143" s="2"/>
     </row>
@@ -4898,7 +4904,7 @@
         <v>38</v>
       </c>
       <c r="D145" t="s" s="2">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E145" s="2"/>
     </row>
@@ -5138,7 +5144,7 @@
         <v>38</v>
       </c>
       <c r="D161" t="s" s="2">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E161" s="2"/>
     </row>
@@ -5198,7 +5204,7 @@
         <v>38</v>
       </c>
       <c r="D165" t="s" s="2">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E165" s="2"/>
     </row>
@@ -5363,7 +5369,7 @@
         <v>38</v>
       </c>
       <c r="D176" t="s" s="2">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E176" s="2"/>
     </row>
@@ -5648,7 +5654,7 @@
         <v>38</v>
       </c>
       <c r="D195" t="s" s="2">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E195" s="2"/>
     </row>
@@ -5708,7 +5714,7 @@
         <v>38</v>
       </c>
       <c r="D199" t="s" s="2">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E199" s="2"/>
     </row>
@@ -5933,7 +5939,7 @@
         <v>38</v>
       </c>
       <c r="D214" t="s" s="2">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E214" s="2"/>
     </row>
@@ -5993,7 +5999,7 @@
         <v>38</v>
       </c>
       <c r="D218" t="s" s="2">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E218" s="2"/>
     </row>
@@ -6008,7 +6014,7 @@
         <v>38</v>
       </c>
       <c r="D219" t="s" s="2">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E219" s="2"/>
     </row>
@@ -6023,7 +6029,7 @@
         <v>38</v>
       </c>
       <c r="D220" t="s" s="2">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E220" s="2"/>
     </row>
@@ -6323,7 +6329,7 @@
         <v>38</v>
       </c>
       <c r="D240" t="s" s="2">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E240" s="2"/>
     </row>
@@ -6353,7 +6359,7 @@
         <v>38</v>
       </c>
       <c r="D242" t="s" s="2">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="E242" s="2"/>
     </row>
@@ -6638,7 +6644,7 @@
         <v>38</v>
       </c>
       <c r="D261" t="s" s="2">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="E261" s="2"/>
     </row>
@@ -6683,7 +6689,7 @@
         <v>38</v>
       </c>
       <c r="D264" t="s" s="2">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E264" s="2"/>
     </row>
@@ -6938,7 +6944,7 @@
         <v>38</v>
       </c>
       <c r="D281" t="s" s="2">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E281" s="2"/>
     </row>
@@ -7043,7 +7049,7 @@
         <v>38</v>
       </c>
       <c r="D288" t="s" s="2">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E288" s="2"/>
     </row>
@@ -7238,7 +7244,7 @@
         <v>38</v>
       </c>
       <c r="D301" t="s" s="2">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="E301" s="2"/>
     </row>
@@ -7253,7 +7259,7 @@
         <v>38</v>
       </c>
       <c r="D302" t="s" s="2">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="E302" s="2"/>
     </row>
@@ -7268,7 +7274,7 @@
         <v>38</v>
       </c>
       <c r="D303" t="s" s="2">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="E303" s="2"/>
     </row>
@@ -7283,7 +7289,7 @@
         <v>38</v>
       </c>
       <c r="D304" t="s" s="2">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E304" s="2"/>
     </row>
@@ -7298,7 +7304,7 @@
         <v>38</v>
       </c>
       <c r="D305" t="s" s="2">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="E305" s="2"/>
     </row>
@@ -7313,7 +7319,7 @@
         <v>38</v>
       </c>
       <c r="D306" t="s" s="2">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="E306" s="2"/>
     </row>
@@ -7328,7 +7334,7 @@
         <v>38</v>
       </c>
       <c r="D307" t="s" s="2">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="E307" s="2"/>
     </row>
@@ -7388,7 +7394,7 @@
         <v>38</v>
       </c>
       <c r="D311" t="s" s="2">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="E311" s="2"/>
     </row>
@@ -7403,7 +7409,7 @@
         <v>38</v>
       </c>
       <c r="D312" t="s" s="2">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E312" s="2"/>
     </row>
@@ -7418,7 +7424,7 @@
         <v>38</v>
       </c>
       <c r="D313" t="s" s="2">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="E313" s="2"/>
     </row>
@@ -7448,7 +7454,7 @@
         <v>38</v>
       </c>
       <c r="D315" t="s" s="2">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="E315" s="2"/>
     </row>
@@ -7583,7 +7589,7 @@
         <v>38</v>
       </c>
       <c r="D324" t="s" s="2">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="E324" s="2"/>
     </row>
@@ -7628,7 +7634,7 @@
         <v>38</v>
       </c>
       <c r="D327" t="s" s="2">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="E327" s="2"/>
     </row>
@@ -7643,7 +7649,7 @@
         <v>38</v>
       </c>
       <c r="D328" t="s" s="2">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="E328" s="2"/>
     </row>
@@ -7658,7 +7664,7 @@
         <v>38</v>
       </c>
       <c r="D329" t="s" s="2">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="E329" s="2"/>
     </row>
@@ -7673,7 +7679,7 @@
         <v>38</v>
       </c>
       <c r="D330" t="s" s="2">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="E330" s="2"/>
     </row>
@@ -7703,7 +7709,7 @@
         <v>38</v>
       </c>
       <c r="D332" t="s" s="2">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="E332" s="2"/>
     </row>
@@ -7718,7 +7724,7 @@
         <v>38</v>
       </c>
       <c r="D333" t="s" s="2">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E333" s="2"/>
     </row>
@@ -7733,7 +7739,7 @@
         <v>38</v>
       </c>
       <c r="D334" t="s" s="2">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E334" s="2"/>
     </row>
@@ -7748,7 +7754,7 @@
         <v>38</v>
       </c>
       <c r="D335" t="s" s="2">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E335" s="2"/>
     </row>
@@ -7763,7 +7769,7 @@
         <v>38</v>
       </c>
       <c r="D336" t="s" s="2">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="E336" s="2"/>
     </row>
@@ -7823,7 +7829,7 @@
         <v>38</v>
       </c>
       <c r="D340" t="s" s="2">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="E340" s="2"/>
     </row>
@@ -7943,7 +7949,7 @@
         <v>38</v>
       </c>
       <c r="D348" t="s" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E348" s="2"/>
     </row>
@@ -7958,7 +7964,7 @@
         <v>38</v>
       </c>
       <c r="D349" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E349" s="2"/>
     </row>
@@ -8078,7 +8084,7 @@
         <v>38</v>
       </c>
       <c r="D357" t="s" s="2">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="E357" s="2"/>
     </row>
@@ -8093,7 +8099,7 @@
         <v>38</v>
       </c>
       <c r="D358" t="s" s="2">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="E358" s="2"/>
     </row>
@@ -8348,7 +8354,7 @@
         <v>38</v>
       </c>
       <c r="D375" t="s" s="2">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="E375" s="2"/>
     </row>
@@ -8363,7 +8369,7 @@
         <v>38</v>
       </c>
       <c r="D376" t="s" s="2">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="E376" s="2"/>
     </row>
@@ -8426,6 +8432,21 @@
         <v>39</v>
       </c>
       <c r="E380" s="2"/>
+    </row>
+    <row r="381">
+      <c r="A381" t="s" s="2">
+        <v>798</v>
+      </c>
+      <c r="B381" t="s" s="2">
+        <v>799</v>
+      </c>
+      <c r="C381" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D381" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E381" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -8459,7 +8480,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="B2" t="s" s="2">
         <v>34</v>
@@ -8476,10 +8497,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>38</v>
@@ -8491,10 +8512,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>38</v>
@@ -8506,10 +8527,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>38</v>
@@ -8521,10 +8542,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="C6" t="s" s="2">
         <v>38</v>
@@ -8536,10 +8557,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>38</v>

--- a/ig/ch-elm/ch-elm-results-to-interpretation-code.xlsx
+++ b/ig/ch-elm/ch-elm-results-to-interpretation-code.xlsx
@@ -9,12 +9,13 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Mapping Table 0" r:id="rId4" sheetId="2"/>
     <sheet name="Mapping Table 1" r:id="rId5" sheetId="3"/>
+    <sheet name="Mapping Table 2" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1587" uniqueCount="811">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1637" uniqueCount="832">
   <si>
     <t>Property</t>
   </si>
@@ -31,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.13.0</t>
+    <t>1.13.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T09:58:53+00:00</t>
+    <t>2026-01-21T11:21:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2447,6 +2448,69 @@
   </si>
   <si>
     <t>Human immunodeficiency virus type I (organism)</t>
+  </si>
+  <si>
+    <t>urn:oid:2.16.756.5.30.1.129.1.5.1</t>
+  </si>
+  <si>
+    <t>EP-100100-7</t>
+  </si>
+  <si>
+    <t>FOPH emerging pathogen placeholder 1</t>
+  </si>
+  <si>
+    <t>EP-100200-5</t>
+  </si>
+  <si>
+    <t>FOPH emerging pathogen placeholder 2</t>
+  </si>
+  <si>
+    <t>EP-100300-3</t>
+  </si>
+  <si>
+    <t>FOPH emerging pathogen placeholder 3</t>
+  </si>
+  <si>
+    <t>EP-100400-1</t>
+  </si>
+  <si>
+    <t>FOPH emerging pathogen placeholder 4</t>
+  </si>
+  <si>
+    <t>EP-100500-8</t>
+  </si>
+  <si>
+    <t>FOPH emerging pathogen placeholder 5</t>
+  </si>
+  <si>
+    <t>EP-100600-6</t>
+  </si>
+  <si>
+    <t>FOPH emerging pathogen placeholder 6</t>
+  </si>
+  <si>
+    <t>EP-100700-4</t>
+  </si>
+  <si>
+    <t>FOPH emerging pathogen placeholder 7</t>
+  </si>
+  <si>
+    <t>EP-100800-2</t>
+  </si>
+  <si>
+    <t>FOPH emerging pathogen placeholder 8</t>
+  </si>
+  <si>
+    <t>EP-100900-0</t>
+  </si>
+  <si>
+    <t>FOPH emerging pathogen placeholder 9</t>
+  </si>
+  <si>
+    <t>EP-101000-8</t>
+  </si>
+  <si>
+    <t>FOPH emerging pathogen placeholder 10</t>
   </si>
 </sst>
 </file>
@@ -8573,4 +8637,201 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>811</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>812</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>813</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>814</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>815</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>816</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>817</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>818</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>819</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>820</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>821</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>822</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>823</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>824</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>825</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>826</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>827</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>828</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>829</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>830</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>831</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>